--- a/UVA模型数据底表.xlsx
+++ b/UVA模型数据底表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob.li/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob.li/Documents/ROI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E7AAB-B14B-7445-BA39-068C11D81F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8781529-B952-CE4B-B3C0-CECA3E9F0183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38500" yWindow="-2240" windowWidth="28040" windowHeight="23040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵（副本）" sheetId="2" state="hidden" r:id="rId1"/>
@@ -470,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -534,14 +534,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF1F2329"/>
       <name val="等线"/>
       <family val="4"/>
@@ -556,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="85">
+  <fills count="86">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,8 +972,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="147">
+  <borders count="146">
     <border>
       <left/>
       <right/>
@@ -2459,29 +2457,68 @@
         <color rgb="FFDEE0E3"/>
       </left>
       <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FFDEE0E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
       </right>
       <top style="thin">
         <color rgb="FFDEE0E3"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF1F2329"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
         <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1F2329"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF1F2329"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF1F2329"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2494,72 +2531,14 @@
       <top style="thin">
         <color rgb="FFDEE0E3"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDEE0E3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDEE0E3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2965,15 +2944,6 @@
     <xf numFmtId="10" fontId="7" fillId="84" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="84" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2986,61 +2956,73 @@
     <xf numFmtId="0" fontId="8" fillId="84" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="84" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="84" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="84" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="84" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="84" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="84" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="84" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="84" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="84" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="84" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="84" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="9" fillId="84" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="84" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="7" fillId="84" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="84" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="84" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="84" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="84" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="85" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="85" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="85" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5974,7 +5956,7 @@
       <c r="AA200" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C3:C24">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -6046,8 +6028,8 @@
   </sheetPr>
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection sqref="A1:O104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -6106,10 +6088,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="146" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="132">
@@ -6121,4473 +6103,4473 @@
       <c r="E2" s="134">
         <v>0.82</v>
       </c>
-      <c r="F2" s="135">
-        <v>5.97</v>
-      </c>
-      <c r="G2" s="136">
-        <v>7.17</v>
-      </c>
-      <c r="H2" s="136">
-        <v>0</v>
-      </c>
-      <c r="I2" s="136">
-        <v>4.78</v>
-      </c>
-      <c r="J2" s="136">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K2" s="136">
-        <v>5.09</v>
-      </c>
-      <c r="L2" s="136">
-        <v>16.72</v>
-      </c>
-      <c r="M2" s="136">
-        <v>11.95</v>
-      </c>
-      <c r="N2" s="136">
-        <v>9.26</v>
-      </c>
-      <c r="O2" s="137">
-        <v>4.7300000000000004</v>
+      <c r="F2" s="151">
+        <v>0</v>
+      </c>
+      <c r="G2" s="152">
+        <v>41.82</v>
+      </c>
+      <c r="H2" s="152">
+        <v>0</v>
+      </c>
+      <c r="I2" s="152">
+        <v>45.32</v>
+      </c>
+      <c r="J2" s="152">
+        <v>63.89</v>
+      </c>
+      <c r="K2" s="152">
+        <v>33.94</v>
+      </c>
+      <c r="L2" s="152">
+        <v>53.72</v>
+      </c>
+      <c r="M2" s="152">
+        <v>0</v>
+      </c>
+      <c r="N2" s="152">
+        <v>36.94</v>
+      </c>
+      <c r="O2" s="152">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="156"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="138">
+      <c r="A3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="140">
+      <c r="E3" s="137">
         <v>0.78</v>
       </c>
-      <c r="F3" s="141">
-        <v>5.68</v>
-      </c>
-      <c r="G3" s="142">
-        <v>6.82</v>
-      </c>
-      <c r="H3" s="142">
-        <v>0</v>
-      </c>
-      <c r="I3" s="142">
-        <v>4.54</v>
-      </c>
-      <c r="J3" s="142">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="K3" s="142">
-        <v>4.84</v>
-      </c>
-      <c r="L3" s="142">
-        <v>15.91</v>
-      </c>
-      <c r="M3" s="142">
-        <v>11.36</v>
-      </c>
-      <c r="N3" s="142">
-        <v>8.81</v>
-      </c>
-      <c r="O3" s="143">
-        <v>4.5</v>
+      <c r="F3" s="138">
+        <v>0</v>
+      </c>
+      <c r="G3" s="153">
+        <v>0</v>
+      </c>
+      <c r="H3" s="153">
+        <v>0</v>
+      </c>
+      <c r="I3" s="153">
+        <v>43.11</v>
+      </c>
+      <c r="J3" s="153">
+        <v>60.77</v>
+      </c>
+      <c r="K3" s="153">
+        <v>0</v>
+      </c>
+      <c r="L3" s="153">
+        <v>51.1</v>
+      </c>
+      <c r="M3" s="153">
+        <v>56.67</v>
+      </c>
+      <c r="N3" s="153">
+        <v>0</v>
+      </c>
+      <c r="O3" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="156"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="138">
+      <c r="A4" s="144"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="140">
+      <c r="E4" s="137">
         <v>0.76</v>
       </c>
-      <c r="F4" s="141">
-        <v>5.54</v>
-      </c>
-      <c r="G4" s="142">
-        <v>6.64</v>
-      </c>
-      <c r="H4" s="142">
-        <v>0</v>
-      </c>
-      <c r="I4" s="142">
-        <v>4.43</v>
-      </c>
-      <c r="J4" s="142">
-        <v>8.16</v>
-      </c>
-      <c r="K4" s="142">
-        <v>4.72</v>
-      </c>
-      <c r="L4" s="142">
-        <v>15.5</v>
-      </c>
-      <c r="M4" s="142">
-        <v>11.07</v>
-      </c>
-      <c r="N4" s="142">
-        <v>8.58</v>
-      </c>
-      <c r="O4" s="143">
-        <v>4.3899999999999997</v>
+      <c r="F4" s="138">
+        <v>37.44</v>
+      </c>
+      <c r="G4" s="153">
+        <v>38.76</v>
+      </c>
+      <c r="H4" s="153">
+        <v>0</v>
+      </c>
+      <c r="I4" s="153">
+        <v>42.01</v>
+      </c>
+      <c r="J4" s="153">
+        <v>59.21</v>
+      </c>
+      <c r="K4" s="153">
+        <v>0</v>
+      </c>
+      <c r="L4" s="153">
+        <v>49.79</v>
+      </c>
+      <c r="M4" s="153">
+        <v>0</v>
+      </c>
+      <c r="N4" s="153">
+        <v>34.24</v>
+      </c>
+      <c r="O4" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="156"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="138">
+      <c r="A5" s="144"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="140">
+      <c r="E5" s="137">
         <v>0.72</v>
       </c>
-      <c r="F5" s="141">
-        <v>5.24</v>
-      </c>
-      <c r="G5" s="142">
-        <v>6.29</v>
-      </c>
-      <c r="H5" s="142">
-        <v>0</v>
-      </c>
-      <c r="I5" s="142">
-        <v>4.2</v>
-      </c>
-      <c r="J5" s="142">
-        <v>7.73</v>
-      </c>
-      <c r="K5" s="142">
-        <v>4.47</v>
-      </c>
-      <c r="L5" s="142">
-        <v>14.68</v>
-      </c>
-      <c r="M5" s="142">
-        <v>10.49</v>
-      </c>
-      <c r="N5" s="142">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="O5" s="143">
-        <v>4.16</v>
+      <c r="F5" s="138">
+        <v>0</v>
+      </c>
+      <c r="G5" s="153">
+        <v>36.72</v>
+      </c>
+      <c r="H5" s="153">
+        <v>0</v>
+      </c>
+      <c r="I5" s="153">
+        <v>0</v>
+      </c>
+      <c r="J5" s="153">
+        <v>56.1</v>
+      </c>
+      <c r="K5" s="153">
+        <v>0</v>
+      </c>
+      <c r="L5" s="153">
+        <v>0</v>
+      </c>
+      <c r="M5" s="153">
+        <v>52.31</v>
+      </c>
+      <c r="N5" s="153">
+        <v>32.43</v>
+      </c>
+      <c r="O5" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="156"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="138">
+      <c r="A6" s="144"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="140">
+      <c r="E6" s="137">
         <v>0.7</v>
       </c>
-      <c r="F6" s="141">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G6" s="142">
-        <v>6.12</v>
-      </c>
-      <c r="H6" s="142">
-        <v>0</v>
-      </c>
-      <c r="I6" s="142">
-        <v>4.08</v>
-      </c>
-      <c r="J6" s="142">
-        <v>7.51</v>
-      </c>
-      <c r="K6" s="142">
-        <v>4.34</v>
-      </c>
-      <c r="L6" s="142">
-        <v>14.28</v>
-      </c>
-      <c r="M6" s="142">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N6" s="142">
-        <v>7.9</v>
-      </c>
-      <c r="O6" s="143">
-        <v>4.04</v>
+      <c r="F6" s="138">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="G6" s="153">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H6" s="153">
+        <v>0</v>
+      </c>
+      <c r="I6" s="153">
+        <v>0</v>
+      </c>
+      <c r="J6" s="153">
+        <v>54.54</v>
+      </c>
+      <c r="K6" s="153">
+        <v>0</v>
+      </c>
+      <c r="L6" s="153">
+        <v>45.86</v>
+      </c>
+      <c r="M6" s="153">
+        <v>50.86</v>
+      </c>
+      <c r="N6" s="153">
+        <v>31.53</v>
+      </c>
+      <c r="O6" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="156"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="138">
+      <c r="A7" s="144"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="140">
+      <c r="E7" s="137">
         <v>0.67</v>
       </c>
-      <c r="F7" s="141">
-        <v>4.88</v>
-      </c>
-      <c r="G7" s="142">
-        <v>5.86</v>
-      </c>
-      <c r="H7" s="142">
-        <v>0</v>
-      </c>
-      <c r="I7" s="142">
-        <v>3.9</v>
-      </c>
-      <c r="J7" s="142">
-        <v>7.19</v>
-      </c>
-      <c r="K7" s="142">
-        <v>4.16</v>
-      </c>
-      <c r="L7" s="142">
-        <v>13.66</v>
-      </c>
-      <c r="M7" s="142">
-        <v>9.76</v>
-      </c>
-      <c r="N7" s="142">
-        <v>7.56</v>
-      </c>
-      <c r="O7" s="143">
-        <v>3.87</v>
+      <c r="F7" s="138">
+        <v>0</v>
+      </c>
+      <c r="G7" s="153">
+        <v>34.17</v>
+      </c>
+      <c r="H7" s="153">
+        <v>0</v>
+      </c>
+      <c r="I7" s="153">
+        <v>37.03</v>
+      </c>
+      <c r="J7" s="153">
+        <v>52.2</v>
+      </c>
+      <c r="K7" s="153">
+        <v>27.73</v>
+      </c>
+      <c r="L7" s="153">
+        <v>0</v>
+      </c>
+      <c r="M7" s="153">
+        <v>0</v>
+      </c>
+      <c r="N7" s="153">
+        <v>0</v>
+      </c>
+      <c r="O7" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="156"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="138">
+      <c r="A8" s="144"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="140">
+      <c r="E8" s="137">
         <v>0.66</v>
       </c>
-      <c r="F8" s="141">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="G8" s="142">
-        <v>5.77</v>
-      </c>
-      <c r="H8" s="142">
-        <v>0</v>
-      </c>
-      <c r="I8" s="142">
-        <v>3.85</v>
-      </c>
-      <c r="J8" s="142">
-        <v>7.08</v>
-      </c>
-      <c r="K8" s="142">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L8" s="142">
-        <v>13.46</v>
-      </c>
-      <c r="M8" s="142">
-        <v>9.61</v>
-      </c>
-      <c r="N8" s="142">
-        <v>7.45</v>
-      </c>
-      <c r="O8" s="143">
-        <v>3.81</v>
+      <c r="F8" s="138">
+        <v>0</v>
+      </c>
+      <c r="G8" s="153">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="H8" s="153">
+        <v>0</v>
+      </c>
+      <c r="I8" s="153">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="J8" s="153">
+        <v>51.42</v>
+      </c>
+      <c r="K8" s="153">
+        <v>0</v>
+      </c>
+      <c r="L8" s="153">
+        <v>43.24</v>
+      </c>
+      <c r="M8" s="153">
+        <v>0</v>
+      </c>
+      <c r="N8" s="153">
+        <v>0</v>
+      </c>
+      <c r="O8" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="156"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="138">
+      <c r="A9" s="144"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="140">
+      <c r="E9" s="137">
         <v>0.65</v>
       </c>
-      <c r="F9" s="141">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="G9" s="142">
-        <v>5.68</v>
-      </c>
-      <c r="H9" s="142">
-        <v>0</v>
-      </c>
-      <c r="I9" s="142">
-        <v>3.79</v>
-      </c>
-      <c r="J9" s="142">
-        <v>6.97</v>
-      </c>
-      <c r="K9" s="142">
-        <v>4.03</v>
-      </c>
-      <c r="L9" s="142">
-        <v>13.26</v>
-      </c>
-      <c r="M9" s="142">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="N9" s="142">
-        <v>7.34</v>
-      </c>
-      <c r="O9" s="143">
-        <v>3.75</v>
+      <c r="F9" s="138">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="G9" s="153">
+        <v>33.15</v>
+      </c>
+      <c r="H9" s="153">
+        <v>0</v>
+      </c>
+      <c r="I9" s="153">
+        <v>35.93</v>
+      </c>
+      <c r="J9" s="153">
+        <v>50.64</v>
+      </c>
+      <c r="K9" s="153">
+        <v>26.9</v>
+      </c>
+      <c r="L9" s="153">
+        <v>42.58</v>
+      </c>
+      <c r="M9" s="153">
+        <v>0</v>
+      </c>
+      <c r="N9" s="153">
+        <v>29.28</v>
+      </c>
+      <c r="O9" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="156"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="138">
+      <c r="A10" s="144"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="D10" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="140">
+      <c r="E10" s="137">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F10" s="141">
-        <v>4.22</v>
-      </c>
-      <c r="G10" s="142">
-        <v>5.07</v>
-      </c>
-      <c r="H10" s="142">
-        <v>0</v>
-      </c>
-      <c r="I10" s="142">
-        <v>3.38</v>
-      </c>
-      <c r="J10" s="142">
-        <v>6.22</v>
-      </c>
-      <c r="K10" s="142">
-        <v>3.6</v>
-      </c>
-      <c r="L10" s="142">
-        <v>11.83</v>
-      </c>
-      <c r="M10" s="142">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="N10" s="142">
-        <v>6.55</v>
-      </c>
-      <c r="O10" s="143">
-        <v>3.35</v>
+      <c r="F10" s="138">
+        <v>28.57</v>
+      </c>
+      <c r="G10" s="153">
+        <v>29.58</v>
+      </c>
+      <c r="H10" s="153">
+        <v>0</v>
+      </c>
+      <c r="I10" s="153">
+        <v>32.06</v>
+      </c>
+      <c r="J10" s="153">
+        <v>0</v>
+      </c>
+      <c r="K10" s="153">
+        <v>0</v>
+      </c>
+      <c r="L10" s="153">
+        <v>0</v>
+      </c>
+      <c r="M10" s="153">
+        <v>0</v>
+      </c>
+      <c r="N10" s="153">
+        <v>26.13</v>
+      </c>
+      <c r="O10" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="156"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="138">
+      <c r="A11" s="144"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="D11" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="137">
         <v>0.46</v>
       </c>
-      <c r="F11" s="144">
-        <v>3.35</v>
-      </c>
-      <c r="G11" s="142">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="H11" s="142">
-        <v>0</v>
-      </c>
-      <c r="I11" s="142">
-        <v>2.68</v>
-      </c>
-      <c r="J11" s="142">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="K11" s="142">
-        <v>2.86</v>
-      </c>
-      <c r="L11" s="142">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="M11" s="142">
-        <v>6.7</v>
-      </c>
-      <c r="N11" s="142">
-        <v>5.19</v>
-      </c>
-      <c r="O11" s="143">
-        <v>2.66</v>
+      <c r="F11" s="138">
+        <v>22.66</v>
+      </c>
+      <c r="G11" s="153">
+        <v>23.46</v>
+      </c>
+      <c r="H11" s="153">
+        <v>0</v>
+      </c>
+      <c r="I11" s="161">
+        <v>25.43</v>
+      </c>
+      <c r="J11" s="161">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="K11" s="161">
+        <v>0</v>
+      </c>
+      <c r="L11" s="161">
+        <v>30.14</v>
+      </c>
+      <c r="M11" s="161">
+        <v>0</v>
+      </c>
+      <c r="N11" s="161">
+        <v>20.72</v>
+      </c>
+      <c r="O11" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="157"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="138">
+      <c r="A12" s="145"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="140">
+      <c r="E12" s="137">
         <v>0.38</v>
       </c>
-      <c r="F12" s="141">
-        <v>2.77</v>
-      </c>
-      <c r="G12" s="142">
-        <v>3.32</v>
-      </c>
-      <c r="H12" s="142">
-        <v>0</v>
-      </c>
-      <c r="I12" s="142">
-        <v>2.21</v>
-      </c>
-      <c r="J12" s="142">
-        <v>4.08</v>
-      </c>
-      <c r="K12" s="142">
-        <v>2.36</v>
-      </c>
-      <c r="L12" s="142">
-        <v>7.75</v>
-      </c>
-      <c r="M12" s="142">
-        <v>5.54</v>
-      </c>
-      <c r="N12" s="142">
-        <v>4.29</v>
-      </c>
-      <c r="O12" s="143">
-        <v>2.19</v>
+      <c r="F12" s="138">
+        <v>0</v>
+      </c>
+      <c r="G12" s="153">
+        <v>19.38</v>
+      </c>
+      <c r="H12" s="153">
+        <v>0</v>
+      </c>
+      <c r="I12" s="161">
+        <v>21</v>
+      </c>
+      <c r="J12" s="161">
+        <v>0</v>
+      </c>
+      <c r="K12" s="161">
+        <v>15.73</v>
+      </c>
+      <c r="L12" s="161">
+        <v>24.9</v>
+      </c>
+      <c r="M12" s="161">
+        <v>27.61</v>
+      </c>
+      <c r="N12" s="161">
+        <v>17.12</v>
+      </c>
+      <c r="O12" s="153">
+        <v>24.13</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="146" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="132">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="139" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="134">
         <v>0.91</v>
       </c>
-      <c r="F13" s="135">
-        <v>0</v>
-      </c>
-      <c r="G13" s="136">
-        <v>0</v>
-      </c>
-      <c r="H13" s="136">
-        <v>0</v>
-      </c>
-      <c r="I13" s="136">
-        <v>124.41</v>
-      </c>
-      <c r="J13" s="136">
-        <v>94.79</v>
-      </c>
-      <c r="K13" s="136">
-        <v>0</v>
-      </c>
-      <c r="L13" s="136">
-        <v>0</v>
-      </c>
-      <c r="M13" s="136">
-        <v>0</v>
-      </c>
-      <c r="N13" s="136">
-        <v>0</v>
-      </c>
-      <c r="O13" s="137">
+      <c r="F13" s="151">
+        <v>0</v>
+      </c>
+      <c r="G13" s="152">
+        <v>0</v>
+      </c>
+      <c r="H13" s="152">
+        <v>0</v>
+      </c>
+      <c r="I13" s="162">
+        <v>89.89</v>
+      </c>
+      <c r="J13" s="162">
+        <v>52.42</v>
+      </c>
+      <c r="K13" s="162">
+        <v>0</v>
+      </c>
+      <c r="L13" s="162">
+        <v>12.75</v>
+      </c>
+      <c r="M13" s="162">
+        <v>0</v>
+      </c>
+      <c r="N13" s="162">
+        <v>17.36</v>
+      </c>
+      <c r="O13" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="156"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="146">
+      <c r="A14" s="144"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="140">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="137">
         <v>0.62</v>
       </c>
-      <c r="F14" s="141">
-        <v>0</v>
-      </c>
-      <c r="G14" s="142">
-        <v>0</v>
-      </c>
-      <c r="H14" s="142">
-        <v>0</v>
-      </c>
-      <c r="I14" s="142">
-        <v>84.76</v>
-      </c>
-      <c r="J14" s="142">
-        <v>64.58</v>
-      </c>
-      <c r="K14" s="142">
-        <v>0</v>
-      </c>
-      <c r="L14" s="142">
-        <v>0</v>
-      </c>
-      <c r="M14" s="142">
-        <v>0</v>
-      </c>
-      <c r="N14" s="142">
-        <v>0</v>
-      </c>
-      <c r="O14" s="143">
+      <c r="F14" s="138">
+        <v>0</v>
+      </c>
+      <c r="G14" s="153">
+        <v>0</v>
+      </c>
+      <c r="H14" s="153">
+        <v>0</v>
+      </c>
+      <c r="I14" s="161">
+        <v>61.24</v>
+      </c>
+      <c r="J14" s="161">
+        <v>35.72</v>
+      </c>
+      <c r="K14" s="161">
+        <v>0</v>
+      </c>
+      <c r="L14" s="161">
+        <v>8.69</v>
+      </c>
+      <c r="M14" s="161">
+        <v>0</v>
+      </c>
+      <c r="N14" s="161">
+        <v>11.83</v>
+      </c>
+      <c r="O14" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="157"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="146">
+      <c r="A15" s="145"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="140">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D15" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="140">
+      <c r="E15" s="137">
         <v>0.62</v>
       </c>
-      <c r="F15" s="141">
-        <v>0</v>
-      </c>
-      <c r="G15" s="142">
-        <v>0</v>
-      </c>
-      <c r="H15" s="142">
-        <v>0</v>
-      </c>
-      <c r="I15" s="142">
-        <v>84.76</v>
-      </c>
-      <c r="J15" s="142">
-        <v>64.58</v>
-      </c>
-      <c r="K15" s="142">
-        <v>0</v>
-      </c>
-      <c r="L15" s="142">
-        <v>0</v>
-      </c>
-      <c r="M15" s="142">
-        <v>0</v>
-      </c>
-      <c r="N15" s="142">
-        <v>0</v>
-      </c>
-      <c r="O15" s="143">
+      <c r="F15" s="138">
+        <v>0</v>
+      </c>
+      <c r="G15" s="153">
+        <v>0</v>
+      </c>
+      <c r="H15" s="153">
+        <v>0</v>
+      </c>
+      <c r="I15" s="161">
+        <v>61.24</v>
+      </c>
+      <c r="J15" s="161">
+        <v>35.72</v>
+      </c>
+      <c r="K15" s="161">
+        <v>0</v>
+      </c>
+      <c r="L15" s="161">
+        <v>8.69</v>
+      </c>
+      <c r="M15" s="161">
+        <v>0</v>
+      </c>
+      <c r="N15" s="161">
+        <v>11.83</v>
+      </c>
+      <c r="O15" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="146" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="132">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="139" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="134">
         <v>0.92</v>
       </c>
-      <c r="F16" s="135">
-        <v>0</v>
-      </c>
-      <c r="G16" s="136">
-        <v>13.36</v>
-      </c>
-      <c r="H16" s="136">
-        <v>16.45</v>
-      </c>
-      <c r="I16" s="136">
-        <v>0</v>
-      </c>
-      <c r="J16" s="136">
-        <v>0</v>
-      </c>
-      <c r="K16" s="136">
-        <v>8.35</v>
-      </c>
-      <c r="L16" s="136">
-        <v>26.72</v>
-      </c>
-      <c r="M16" s="136">
-        <v>16.7</v>
-      </c>
-      <c r="N16" s="136">
-        <v>25.55</v>
-      </c>
-      <c r="O16" s="137">
-        <v>6.68</v>
+      <c r="F16" s="151">
+        <v>0</v>
+      </c>
+      <c r="G16" s="152">
+        <v>26.17</v>
+      </c>
+      <c r="H16" s="152">
+        <v>15.82</v>
+      </c>
+      <c r="I16" s="162">
+        <v>53.18</v>
+      </c>
+      <c r="J16" s="162">
+        <v>0</v>
+      </c>
+      <c r="K16" s="162">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="L16" s="162">
+        <v>31.03</v>
+      </c>
+      <c r="M16" s="162">
+        <v>27.96</v>
+      </c>
+      <c r="N16" s="162">
+        <v>32.36</v>
+      </c>
+      <c r="O16" s="152">
+        <v>24.67</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="156"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="146">
+      <c r="A17" s="144"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="140">
+      <c r="E17" s="137">
         <v>0.87</v>
       </c>
-      <c r="F17" s="141">
-        <v>0</v>
-      </c>
-      <c r="G17" s="142">
-        <v>12.63</v>
-      </c>
-      <c r="H17" s="142">
-        <v>15.56</v>
-      </c>
-      <c r="I17" s="142">
-        <v>0</v>
-      </c>
-      <c r="J17" s="142">
-        <v>0</v>
-      </c>
-      <c r="K17" s="142">
-        <v>7.9</v>
-      </c>
-      <c r="L17" s="142">
-        <v>25.27</v>
-      </c>
-      <c r="M17" s="142">
-        <v>15.79</v>
-      </c>
-      <c r="N17" s="142">
-        <v>24.16</v>
-      </c>
-      <c r="O17" s="143">
-        <v>6.32</v>
+      <c r="F17" s="138">
+        <v>0</v>
+      </c>
+      <c r="G17" s="153">
+        <v>24.75</v>
+      </c>
+      <c r="H17" s="153">
+        <v>14.96</v>
+      </c>
+      <c r="I17" s="161">
+        <v>50.29</v>
+      </c>
+      <c r="J17" s="161">
+        <v>0</v>
+      </c>
+      <c r="K17" s="161">
+        <v>17.68</v>
+      </c>
+      <c r="L17" s="161">
+        <v>29.35</v>
+      </c>
+      <c r="M17" s="161">
+        <v>26.44</v>
+      </c>
+      <c r="N17" s="161">
+        <v>30.6</v>
+      </c>
+      <c r="O17" s="153">
+        <v>23.33</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="156"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="146">
+      <c r="A18" s="144"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="D18" s="139" t="s">
+      <c r="D18" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="140">
+      <c r="E18" s="137">
         <v>0.78</v>
       </c>
-      <c r="F18" s="141">
-        <v>0</v>
-      </c>
-      <c r="G18" s="142">
-        <v>11.33</v>
-      </c>
-      <c r="H18" s="142">
-        <v>13.95</v>
-      </c>
-      <c r="I18" s="142">
-        <v>0</v>
-      </c>
-      <c r="J18" s="142">
-        <v>0</v>
-      </c>
-      <c r="K18" s="142">
-        <v>7.08</v>
-      </c>
-      <c r="L18" s="142">
-        <v>22.65</v>
-      </c>
-      <c r="M18" s="142">
-        <v>14.16</v>
-      </c>
-      <c r="N18" s="142">
-        <v>21.66</v>
-      </c>
-      <c r="O18" s="143">
-        <v>5.66</v>
+      <c r="F18" s="138">
+        <v>0</v>
+      </c>
+      <c r="G18" s="153">
+        <v>22.19</v>
+      </c>
+      <c r="H18" s="153">
+        <v>13.42</v>
+      </c>
+      <c r="I18" s="161">
+        <v>45.09</v>
+      </c>
+      <c r="J18" s="161">
+        <v>0</v>
+      </c>
+      <c r="K18" s="161">
+        <v>15.85</v>
+      </c>
+      <c r="L18" s="161">
+        <v>26.31</v>
+      </c>
+      <c r="M18" s="161">
+        <v>23.71</v>
+      </c>
+      <c r="N18" s="161">
+        <v>27.44</v>
+      </c>
+      <c r="O18" s="153">
+        <v>20.91</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="156"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="146">
+      <c r="A19" s="144"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="D19" s="139" t="s">
+      <c r="D19" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="140">
+      <c r="E19" s="137">
         <v>0.68</v>
       </c>
-      <c r="F19" s="141">
-        <v>0</v>
-      </c>
-      <c r="G19" s="142">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="H19" s="142">
-        <v>12.16</v>
-      </c>
-      <c r="I19" s="142">
-        <v>0</v>
-      </c>
-      <c r="J19" s="142">
-        <v>0</v>
-      </c>
-      <c r="K19" s="142">
-        <v>6.17</v>
-      </c>
-      <c r="L19" s="142">
-        <v>19.75</v>
-      </c>
-      <c r="M19" s="142">
-        <v>12.34</v>
-      </c>
-      <c r="N19" s="142">
-        <v>18.88</v>
-      </c>
-      <c r="O19" s="143">
-        <v>4.9400000000000004</v>
+      <c r="F19" s="138">
+        <v>0</v>
+      </c>
+      <c r="G19" s="153">
+        <v>19.34</v>
+      </c>
+      <c r="H19" s="153">
+        <v>11.7</v>
+      </c>
+      <c r="I19" s="161">
+        <v>39.31</v>
+      </c>
+      <c r="J19" s="161">
+        <v>0</v>
+      </c>
+      <c r="K19" s="161">
+        <v>13.82</v>
+      </c>
+      <c r="L19" s="161">
+        <v>22.94</v>
+      </c>
+      <c r="M19" s="161">
+        <v>20.67</v>
+      </c>
+      <c r="N19" s="161">
+        <v>23.92</v>
+      </c>
+      <c r="O19" s="153">
+        <v>18.23</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="156"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="146">
+      <c r="A20" s="144"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="D20" s="139" t="s">
+      <c r="D20" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="140">
+      <c r="E20" s="137">
         <v>0.64</v>
       </c>
-      <c r="F20" s="141">
-        <v>0</v>
-      </c>
-      <c r="G20" s="142">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="H20" s="142">
-        <v>11.45</v>
-      </c>
-      <c r="I20" s="142">
-        <v>0</v>
-      </c>
-      <c r="J20" s="142">
-        <v>0</v>
-      </c>
-      <c r="K20" s="142">
-        <v>5.81</v>
-      </c>
-      <c r="L20" s="142">
-        <v>18.59</v>
-      </c>
-      <c r="M20" s="142">
-        <v>11.62</v>
-      </c>
-      <c r="N20" s="142">
-        <v>17.77</v>
-      </c>
-      <c r="O20" s="143">
-        <v>4.6500000000000004</v>
+      <c r="F20" s="138">
+        <v>0</v>
+      </c>
+      <c r="G20" s="153">
+        <v>18.21</v>
+      </c>
+      <c r="H20" s="153">
+        <v>11.01</v>
+      </c>
+      <c r="I20" s="161">
+        <v>37</v>
+      </c>
+      <c r="J20" s="161">
+        <v>0</v>
+      </c>
+      <c r="K20" s="161">
+        <v>13</v>
+      </c>
+      <c r="L20" s="161">
+        <v>21.59</v>
+      </c>
+      <c r="M20" s="161">
+        <v>19.45</v>
+      </c>
+      <c r="N20" s="161">
+        <v>22.51</v>
+      </c>
+      <c r="O20" s="153">
+        <v>17.16</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="156"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="146">
+      <c r="A21" s="144"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="D21" s="139" t="s">
+      <c r="D21" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="140">
+      <c r="E21" s="137">
         <v>0.39</v>
       </c>
-      <c r="F21" s="141">
-        <v>0</v>
-      </c>
-      <c r="G21" s="142">
-        <v>5.66</v>
-      </c>
-      <c r="H21" s="142">
-        <v>6.98</v>
-      </c>
-      <c r="I21" s="142">
-        <v>0</v>
-      </c>
-      <c r="J21" s="142">
-        <v>0</v>
-      </c>
-      <c r="K21" s="142">
-        <v>3.54</v>
-      </c>
-      <c r="L21" s="142">
-        <v>11.33</v>
-      </c>
-      <c r="M21" s="142">
-        <v>7.08</v>
-      </c>
-      <c r="N21" s="142">
-        <v>10.83</v>
-      </c>
-      <c r="O21" s="143">
-        <v>2.83</v>
+      <c r="F21" s="138">
+        <v>0</v>
+      </c>
+      <c r="G21" s="153">
+        <v>11.09</v>
+      </c>
+      <c r="H21" s="153">
+        <v>6.71</v>
+      </c>
+      <c r="I21" s="161">
+        <v>22.54</v>
+      </c>
+      <c r="J21" s="161">
+        <v>0</v>
+      </c>
+      <c r="K21" s="161">
+        <v>7.92</v>
+      </c>
+      <c r="L21" s="161">
+        <v>13.16</v>
+      </c>
+      <c r="M21" s="161">
+        <v>11.85</v>
+      </c>
+      <c r="N21" s="161">
+        <v>13.72</v>
+      </c>
+      <c r="O21" s="153">
+        <v>10.46</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="157"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="146">
+      <c r="A22" s="145"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="D22" s="139" t="s">
+      <c r="D22" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="140">
+      <c r="E22" s="137">
         <v>0.13</v>
       </c>
-      <c r="F22" s="141">
-        <v>0</v>
-      </c>
-      <c r="G22" s="142">
-        <v>1.89</v>
-      </c>
-      <c r="H22" s="142">
-        <v>2.33</v>
-      </c>
-      <c r="I22" s="142">
-        <v>0</v>
-      </c>
-      <c r="J22" s="142">
-        <v>0</v>
-      </c>
-      <c r="K22" s="142">
-        <v>1.18</v>
-      </c>
-      <c r="L22" s="142">
-        <v>3.78</v>
-      </c>
-      <c r="M22" s="142">
-        <v>2.36</v>
-      </c>
-      <c r="N22" s="142">
-        <v>3.61</v>
-      </c>
-      <c r="O22" s="143">
-        <v>0.94</v>
+      <c r="F22" s="138">
+        <v>0</v>
+      </c>
+      <c r="G22" s="153">
+        <v>3.7</v>
+      </c>
+      <c r="H22" s="153">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I22" s="161">
+        <v>7.51</v>
+      </c>
+      <c r="J22" s="161">
+        <v>0</v>
+      </c>
+      <c r="K22" s="161">
+        <v>2.64</v>
+      </c>
+      <c r="L22" s="161">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="M22" s="161">
+        <v>3.95</v>
+      </c>
+      <c r="N22" s="161">
+        <v>4.57</v>
+      </c>
+      <c r="O22" s="153">
+        <v>3.49</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="155" t="s">
+      <c r="A23" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="146" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="132">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="139" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="134">
         <v>0.76</v>
       </c>
-      <c r="F23" s="135">
-        <v>0</v>
-      </c>
-      <c r="G23" s="136">
-        <v>5.89</v>
-      </c>
-      <c r="H23" s="136">
-        <v>0</v>
-      </c>
-      <c r="I23" s="136">
-        <v>45.97</v>
-      </c>
-      <c r="J23" s="136">
-        <v>35.520000000000003</v>
-      </c>
-      <c r="K23" s="136">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="L23" s="136">
-        <v>0</v>
-      </c>
-      <c r="M23" s="136">
-        <v>0</v>
-      </c>
-      <c r="N23" s="136">
-        <v>0</v>
-      </c>
-      <c r="O23" s="137">
+      <c r="F23" s="151">
+        <v>0</v>
+      </c>
+      <c r="G23" s="152">
+        <v>0</v>
+      </c>
+      <c r="H23" s="152">
+        <v>0</v>
+      </c>
+      <c r="I23" s="162">
+        <v>34.32</v>
+      </c>
+      <c r="J23" s="162">
+        <v>20.3</v>
+      </c>
+      <c r="K23" s="162">
+        <v>5.05</v>
+      </c>
+      <c r="L23" s="162">
+        <v>0</v>
+      </c>
+      <c r="M23" s="162">
+        <v>0</v>
+      </c>
+      <c r="N23" s="162">
+        <v>0</v>
+      </c>
+      <c r="O23" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="156"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="146">
+      <c r="A24" s="144"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="140">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="140">
+      <c r="E24" s="137">
         <v>0.75</v>
       </c>
-      <c r="F24" s="141">
-        <v>0</v>
-      </c>
-      <c r="G24" s="142">
-        <v>5.82</v>
-      </c>
-      <c r="H24" s="142">
-        <v>0</v>
-      </c>
-      <c r="I24" s="142">
-        <v>45.37</v>
-      </c>
-      <c r="J24" s="142">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="K24" s="142">
-        <v>9.5</v>
-      </c>
-      <c r="L24" s="142">
-        <v>0</v>
-      </c>
-      <c r="M24" s="142">
-        <v>0</v>
-      </c>
-      <c r="N24" s="142">
-        <v>0</v>
-      </c>
-      <c r="O24" s="143">
+      <c r="F24" s="138">
+        <v>0</v>
+      </c>
+      <c r="G24" s="153">
+        <v>2.67</v>
+      </c>
+      <c r="H24" s="153">
+        <v>0</v>
+      </c>
+      <c r="I24" s="161">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="J24" s="161">
+        <v>20.03</v>
+      </c>
+      <c r="K24" s="161">
+        <v>4.99</v>
+      </c>
+      <c r="L24" s="161">
+        <v>0</v>
+      </c>
+      <c r="M24" s="161">
+        <v>0</v>
+      </c>
+      <c r="N24" s="161">
+        <v>0</v>
+      </c>
+      <c r="O24" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="157"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="146">
+      <c r="A25" s="145"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="140">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="D25" s="139" t="s">
+      <c r="D25" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="140">
+      <c r="E25" s="137">
         <v>0.63</v>
       </c>
-      <c r="F25" s="141">
-        <v>0</v>
-      </c>
-      <c r="G25" s="142">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="H25" s="142">
-        <v>0</v>
-      </c>
-      <c r="I25" s="142">
-        <v>38.11</v>
-      </c>
-      <c r="J25" s="142">
-        <v>29.44</v>
-      </c>
-      <c r="K25" s="142">
-        <v>7.98</v>
-      </c>
-      <c r="L25" s="142">
-        <v>0</v>
-      </c>
-      <c r="M25" s="142">
-        <v>0</v>
-      </c>
-      <c r="N25" s="142">
-        <v>0</v>
-      </c>
-      <c r="O25" s="143">
+      <c r="F25" s="138">
+        <v>5.2</v>
+      </c>
+      <c r="G25" s="153">
+        <v>0</v>
+      </c>
+      <c r="H25" s="153">
+        <v>0</v>
+      </c>
+      <c r="I25" s="161">
+        <v>28.45</v>
+      </c>
+      <c r="J25" s="161">
+        <v>0</v>
+      </c>
+      <c r="K25" s="161">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L25" s="161">
+        <v>0</v>
+      </c>
+      <c r="M25" s="161">
+        <v>0</v>
+      </c>
+      <c r="N25" s="161">
+        <v>0</v>
+      </c>
+      <c r="O25" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="146" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="132">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="D26" s="145" t="s">
+      <c r="D26" s="139" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="134">
         <v>0.75</v>
       </c>
-      <c r="F26" s="135">
-        <v>140.19</v>
-      </c>
-      <c r="G26" s="136">
-        <v>127.57</v>
-      </c>
-      <c r="H26" s="136">
-        <v>0</v>
-      </c>
-      <c r="I26" s="136">
-        <v>56.08</v>
-      </c>
-      <c r="J26" s="136">
-        <v>49.07</v>
-      </c>
-      <c r="K26" s="136">
-        <v>49.07</v>
-      </c>
-      <c r="L26" s="136">
-        <v>0</v>
-      </c>
-      <c r="M26" s="136">
-        <v>0</v>
-      </c>
-      <c r="N26" s="136">
-        <v>0</v>
-      </c>
-      <c r="O26" s="137">
-        <v>70.099999999999994</v>
+      <c r="F26" s="151">
+        <v>70.63</v>
+      </c>
+      <c r="G26" s="152">
+        <v>58.38</v>
+      </c>
+      <c r="H26" s="152">
+        <v>0</v>
+      </c>
+      <c r="I26" s="162">
+        <v>41.71</v>
+      </c>
+      <c r="J26" s="162">
+        <v>27.94</v>
+      </c>
+      <c r="K26" s="162">
+        <v>25.66</v>
+      </c>
+      <c r="L26" s="162">
+        <v>0</v>
+      </c>
+      <c r="M26" s="162">
+        <v>0</v>
+      </c>
+      <c r="N26" s="162">
+        <v>0</v>
+      </c>
+      <c r="O26" s="152">
+        <v>60.46</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="157"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="146">
+      <c r="A27" s="145"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="140">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="D27" s="139" t="s">
+      <c r="D27" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="140">
-        <v>0.45</v>
-      </c>
-      <c r="F27" s="141">
-        <v>46.73</v>
-      </c>
-      <c r="G27" s="142">
-        <v>42.52</v>
-      </c>
-      <c r="H27" s="142">
-        <v>0</v>
-      </c>
-      <c r="I27" s="142">
-        <v>18.690000000000001</v>
-      </c>
-      <c r="J27" s="142">
-        <v>16.36</v>
-      </c>
-      <c r="K27" s="142">
-        <v>16.36</v>
-      </c>
-      <c r="L27" s="142">
-        <v>0</v>
-      </c>
-      <c r="M27" s="142">
-        <v>0</v>
-      </c>
-      <c r="N27" s="142">
-        <v>0</v>
-      </c>
-      <c r="O27" s="143">
-        <v>23.37</v>
+      <c r="E27" s="137">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="138">
+        <v>23.54</v>
+      </c>
+      <c r="G27" s="153">
+        <v>19.46</v>
+      </c>
+      <c r="H27" s="153">
+        <v>0</v>
+      </c>
+      <c r="I27" s="161">
+        <v>13.9</v>
+      </c>
+      <c r="J27" s="161">
+        <v>9.31</v>
+      </c>
+      <c r="K27" s="161">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="L27" s="161">
+        <v>0</v>
+      </c>
+      <c r="M27" s="161">
+        <v>0</v>
+      </c>
+      <c r="N27" s="161">
+        <v>0</v>
+      </c>
+      <c r="O27" s="153">
+        <v>20.149999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="146" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="132">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D28" s="145" t="s">
+      <c r="D28" s="139" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="134">
         <v>0.86</v>
       </c>
-      <c r="F28" s="135">
-        <v>10.01</v>
-      </c>
-      <c r="G28" s="136">
-        <v>3.85</v>
-      </c>
-      <c r="H28" s="136">
-        <v>17.43</v>
-      </c>
-      <c r="I28" s="136">
-        <v>0</v>
-      </c>
-      <c r="J28" s="136">
-        <v>5.85</v>
-      </c>
-      <c r="K28" s="136">
-        <v>9.86</v>
-      </c>
-      <c r="L28" s="136">
-        <v>6.16</v>
-      </c>
-      <c r="M28" s="136">
-        <v>10.01</v>
-      </c>
-      <c r="N28" s="136">
-        <v>6.15</v>
-      </c>
-      <c r="O28" s="137">
-        <v>7.04</v>
+      <c r="F28" s="151">
+        <v>42.3</v>
+      </c>
+      <c r="G28" s="152">
+        <v>14.04</v>
+      </c>
+      <c r="H28" s="152">
+        <v>38.07</v>
+      </c>
+      <c r="I28" s="162">
+        <v>0</v>
+      </c>
+      <c r="J28" s="162">
+        <v>26.51</v>
+      </c>
+      <c r="K28" s="162">
+        <v>41.06</v>
+      </c>
+      <c r="L28" s="162">
+        <v>8.32</v>
+      </c>
+      <c r="M28" s="162">
+        <v>0</v>
+      </c>
+      <c r="N28" s="162">
+        <v>0</v>
+      </c>
+      <c r="O28" s="152">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="156"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="146">
+      <c r="A29" s="144"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D29" s="139" t="s">
+      <c r="D29" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="140">
+      <c r="E29" s="137">
         <v>0.84</v>
       </c>
-      <c r="F29" s="141">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="G29" s="142">
-        <v>3.76</v>
-      </c>
-      <c r="H29" s="142">
-        <v>17.02</v>
-      </c>
-      <c r="I29" s="142">
-        <v>0</v>
-      </c>
-      <c r="J29" s="142">
-        <v>5.71</v>
-      </c>
-      <c r="K29" s="142">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="L29" s="142">
-        <v>6.02</v>
-      </c>
-      <c r="M29" s="142">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="N29" s="142">
-        <v>6.01</v>
-      </c>
-      <c r="O29" s="143">
-        <v>6.88</v>
+      <c r="F29" s="138">
+        <v>41.32</v>
+      </c>
+      <c r="G29" s="153">
+        <v>0</v>
+      </c>
+      <c r="H29" s="153">
+        <v>37.19</v>
+      </c>
+      <c r="I29" s="161">
+        <v>0</v>
+      </c>
+      <c r="J29" s="161">
+        <v>0</v>
+      </c>
+      <c r="K29" s="161">
+        <v>40.11</v>
+      </c>
+      <c r="L29" s="161">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="M29" s="161">
+        <v>0</v>
+      </c>
+      <c r="N29" s="161">
+        <v>0</v>
+      </c>
+      <c r="O29" s="153">
+        <v>47.28</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="156"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="146">
+      <c r="A30" s="144"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D30" s="139" t="s">
+      <c r="D30" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="140">
+      <c r="E30" s="137">
         <v>0.79</v>
       </c>
-      <c r="F30" s="141">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G30" s="142">
-        <v>3.54</v>
-      </c>
-      <c r="H30" s="142">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="I30" s="142">
-        <v>0</v>
-      </c>
-      <c r="J30" s="142">
-        <v>5.37</v>
-      </c>
-      <c r="K30" s="142">
-        <v>9.06</v>
-      </c>
-      <c r="L30" s="142">
-        <v>5.66</v>
-      </c>
-      <c r="M30" s="142">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N30" s="142">
-        <v>5.65</v>
-      </c>
-      <c r="O30" s="143">
-        <v>6.47</v>
+      <c r="F30" s="138">
+        <v>38.86</v>
+      </c>
+      <c r="G30" s="153">
+        <v>12.89</v>
+      </c>
+      <c r="H30" s="153">
+        <v>34.97</v>
+      </c>
+      <c r="I30" s="161">
+        <v>0</v>
+      </c>
+      <c r="J30" s="161">
+        <v>0</v>
+      </c>
+      <c r="K30" s="161">
+        <v>37.72</v>
+      </c>
+      <c r="L30" s="161">
+        <v>0</v>
+      </c>
+      <c r="M30" s="161">
+        <v>0</v>
+      </c>
+      <c r="N30" s="161">
+        <v>0</v>
+      </c>
+      <c r="O30" s="153">
+        <v>44.47</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="156"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="146">
+      <c r="A31" s="144"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="140">
+      <c r="E31" s="137">
         <v>0.75</v>
       </c>
-      <c r="F31" s="141">
-        <v>8.73</v>
-      </c>
-      <c r="G31" s="142">
-        <v>3.36</v>
-      </c>
-      <c r="H31" s="142">
-        <v>15.2</v>
-      </c>
-      <c r="I31" s="142">
-        <v>0</v>
-      </c>
-      <c r="J31" s="142">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K31" s="142">
-        <v>8.6</v>
-      </c>
-      <c r="L31" s="142">
-        <v>5.37</v>
-      </c>
-      <c r="M31" s="142">
-        <v>8.73</v>
-      </c>
-      <c r="N31" s="142">
-        <v>5.36</v>
-      </c>
-      <c r="O31" s="143">
-        <v>6.14</v>
+      <c r="F31" s="138">
+        <v>36.89</v>
+      </c>
+      <c r="G31" s="153">
+        <v>12.24</v>
+      </c>
+      <c r="H31" s="153">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I31" s="161">
+        <v>0</v>
+      </c>
+      <c r="J31" s="161">
+        <v>0</v>
+      </c>
+      <c r="K31" s="161">
+        <v>0</v>
+      </c>
+      <c r="L31" s="161">
+        <v>0</v>
+      </c>
+      <c r="M31" s="161">
+        <v>0</v>
+      </c>
+      <c r="N31" s="161">
+        <v>0</v>
+      </c>
+      <c r="O31" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="156"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="146">
+      <c r="A32" s="144"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D32" s="139" t="s">
+      <c r="D32" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="140">
+      <c r="E32" s="137">
         <v>0.63</v>
       </c>
-      <c r="F32" s="141">
-        <v>7.34</v>
-      </c>
-      <c r="G32" s="142">
-        <v>2.82</v>
-      </c>
-      <c r="H32" s="142">
-        <v>12.77</v>
-      </c>
-      <c r="I32" s="142">
-        <v>0</v>
-      </c>
-      <c r="J32" s="142">
-        <v>4.28</v>
-      </c>
-      <c r="K32" s="142">
-        <v>7.22</v>
-      </c>
-      <c r="L32" s="142">
-        <v>4.51</v>
-      </c>
-      <c r="M32" s="142">
-        <v>7.34</v>
-      </c>
-      <c r="N32" s="142">
-        <v>4.5</v>
-      </c>
-      <c r="O32" s="143">
-        <v>5.16</v>
+      <c r="F32" s="138">
+        <v>30.99</v>
+      </c>
+      <c r="G32" s="153">
+        <v>10.28</v>
+      </c>
+      <c r="H32" s="153">
+        <v>27.89</v>
+      </c>
+      <c r="I32" s="161">
+        <v>0</v>
+      </c>
+      <c r="J32" s="161">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="K32" s="161">
+        <v>30.08</v>
+      </c>
+      <c r="L32" s="161">
+        <v>6.1</v>
+      </c>
+      <c r="M32" s="161">
+        <v>0</v>
+      </c>
+      <c r="N32" s="161">
+        <v>0</v>
+      </c>
+      <c r="O32" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="156"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="146">
+      <c r="A33" s="144"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D33" s="139" t="s">
+      <c r="D33" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="140">
+      <c r="E33" s="137">
         <v>0.6</v>
       </c>
-      <c r="F33" s="141">
-        <v>6.99</v>
-      </c>
-      <c r="G33" s="142">
-        <v>2.69</v>
-      </c>
-      <c r="H33" s="142">
-        <v>12.16</v>
-      </c>
-      <c r="I33" s="142">
-        <v>0</v>
-      </c>
-      <c r="J33" s="142">
-        <v>4.08</v>
-      </c>
-      <c r="K33" s="142">
-        <v>6.88</v>
-      </c>
-      <c r="L33" s="142">
-        <v>4.3</v>
-      </c>
-      <c r="M33" s="142">
-        <v>6.99</v>
-      </c>
-      <c r="N33" s="142">
-        <v>4.29</v>
-      </c>
-      <c r="O33" s="143">
-        <v>4.91</v>
+      <c r="F33" s="138">
+        <v>0</v>
+      </c>
+      <c r="G33" s="153">
+        <v>0</v>
+      </c>
+      <c r="H33" s="153">
+        <v>26.56</v>
+      </c>
+      <c r="I33" s="161">
+        <v>0</v>
+      </c>
+      <c r="J33" s="161">
+        <v>18.5</v>
+      </c>
+      <c r="K33" s="161">
+        <v>0</v>
+      </c>
+      <c r="L33" s="161">
+        <v>5.81</v>
+      </c>
+      <c r="M33" s="161">
+        <v>0</v>
+      </c>
+      <c r="N33" s="161">
+        <v>9.69</v>
+      </c>
+      <c r="O33" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="156"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="146">
+      <c r="A34" s="144"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D34" s="139" t="s">
+      <c r="D34" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="140">
+      <c r="E34" s="137">
         <v>0.77</v>
       </c>
-      <c r="F34" s="141">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="G34" s="142">
-        <v>3.45</v>
-      </c>
-      <c r="H34" s="142">
-        <v>15.6</v>
-      </c>
-      <c r="I34" s="142">
-        <v>0</v>
-      </c>
-      <c r="J34" s="142">
-        <v>5.23</v>
-      </c>
-      <c r="K34" s="142">
-        <v>8.83</v>
-      </c>
-      <c r="L34" s="142">
-        <v>5.52</v>
-      </c>
-      <c r="M34" s="142">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="N34" s="142">
-        <v>5.51</v>
-      </c>
-      <c r="O34" s="143">
-        <v>6.31</v>
+      <c r="F34" s="138">
+        <v>0</v>
+      </c>
+      <c r="G34" s="153">
+        <v>12.57</v>
+      </c>
+      <c r="H34" s="153">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="I34" s="161">
+        <v>0</v>
+      </c>
+      <c r="J34" s="161">
+        <v>0</v>
+      </c>
+      <c r="K34" s="161">
+        <v>0</v>
+      </c>
+      <c r="L34" s="161">
+        <v>0</v>
+      </c>
+      <c r="M34" s="161">
+        <v>0</v>
+      </c>
+      <c r="N34" s="161">
+        <v>0</v>
+      </c>
+      <c r="O34" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="157"/>
-      <c r="B35" s="160"/>
-      <c r="C35" s="146">
+      <c r="A35" s="145"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D35" s="139" t="s">
+      <c r="D35" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="140">
+      <c r="E35" s="137">
         <v>0.4</v>
       </c>
-      <c r="F35" s="141">
-        <v>4.66</v>
-      </c>
-      <c r="G35" s="142">
-        <v>1.79</v>
-      </c>
-      <c r="H35" s="142">
-        <v>8.11</v>
-      </c>
-      <c r="I35" s="142">
-        <v>0</v>
-      </c>
-      <c r="J35" s="142">
-        <v>2.72</v>
-      </c>
-      <c r="K35" s="142">
-        <v>4.59</v>
-      </c>
-      <c r="L35" s="142">
-        <v>2.87</v>
-      </c>
-      <c r="M35" s="142">
-        <v>4.66</v>
-      </c>
-      <c r="N35" s="142">
-        <v>2.86</v>
-      </c>
-      <c r="O35" s="143">
-        <v>3.28</v>
+      <c r="F35" s="138">
+        <v>0</v>
+      </c>
+      <c r="G35" s="153">
+        <v>6.53</v>
+      </c>
+      <c r="H35" s="153">
+        <v>17.71</v>
+      </c>
+      <c r="I35" s="161">
+        <v>0</v>
+      </c>
+      <c r="J35" s="161">
+        <v>12.33</v>
+      </c>
+      <c r="K35" s="161">
+        <v>0</v>
+      </c>
+      <c r="L35" s="161">
+        <v>0</v>
+      </c>
+      <c r="M35" s="161">
+        <v>0</v>
+      </c>
+      <c r="N35" s="161">
+        <v>0</v>
+      </c>
+      <c r="O35" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="158" t="s">
+      <c r="B36" s="146" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="132">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="D36" s="145" t="s">
+      <c r="D36" s="139" t="s">
         <v>77</v>
       </c>
       <c r="E36" s="134">
         <v>0.8</v>
       </c>
-      <c r="F36" s="135">
-        <v>0</v>
-      </c>
-      <c r="G36" s="136">
-        <v>0</v>
-      </c>
-      <c r="H36" s="136">
-        <v>0</v>
-      </c>
-      <c r="I36" s="136">
-        <v>49.06</v>
-      </c>
-      <c r="J36" s="136">
-        <v>15.21</v>
-      </c>
-      <c r="K36" s="136">
-        <v>0</v>
-      </c>
-      <c r="L36" s="136">
-        <v>20.28</v>
-      </c>
-      <c r="M36" s="136">
-        <v>30.42</v>
-      </c>
-      <c r="N36" s="136">
-        <v>20.28</v>
-      </c>
-      <c r="O36" s="137">
+      <c r="F36" s="151">
+        <v>0</v>
+      </c>
+      <c r="G36" s="152">
+        <v>0</v>
+      </c>
+      <c r="H36" s="152">
+        <v>0</v>
+      </c>
+      <c r="I36" s="162">
+        <v>44.78</v>
+      </c>
+      <c r="J36" s="162">
+        <v>7.04</v>
+      </c>
+      <c r="K36" s="162">
+        <v>0</v>
+      </c>
+      <c r="L36" s="162">
+        <v>4.47</v>
+      </c>
+      <c r="M36" s="162">
+        <v>9.68</v>
+      </c>
+      <c r="N36" s="162">
+        <v>5.33</v>
+      </c>
+      <c r="O36" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="156"/>
-      <c r="B37" s="159"/>
-      <c r="C37" s="146">
+      <c r="A37" s="144"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="140">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="D37" s="139" t="s">
+      <c r="D37" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="140">
+      <c r="E37" s="137">
         <v>0.7</v>
       </c>
-      <c r="F37" s="141">
-        <v>0</v>
-      </c>
-      <c r="G37" s="142">
-        <v>0</v>
-      </c>
-      <c r="H37" s="142">
-        <v>0</v>
-      </c>
-      <c r="I37" s="142">
-        <v>42.93</v>
-      </c>
-      <c r="J37" s="142">
-        <v>13.31</v>
-      </c>
-      <c r="K37" s="142">
-        <v>0</v>
-      </c>
-      <c r="L37" s="142">
-        <v>17.739999999999998</v>
-      </c>
-      <c r="M37" s="142">
-        <v>26.62</v>
-      </c>
-      <c r="N37" s="142">
-        <v>17.739999999999998</v>
-      </c>
-      <c r="O37" s="143">
+      <c r="F37" s="138">
+        <v>0</v>
+      </c>
+      <c r="G37" s="153">
+        <v>0</v>
+      </c>
+      <c r="H37" s="153">
+        <v>0</v>
+      </c>
+      <c r="I37" s="161">
+        <v>39.18</v>
+      </c>
+      <c r="J37" s="161">
+        <v>6.16</v>
+      </c>
+      <c r="K37" s="161">
+        <v>0</v>
+      </c>
+      <c r="L37" s="161">
+        <v>3.91</v>
+      </c>
+      <c r="M37" s="161">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="N37" s="161">
+        <v>4.67</v>
+      </c>
+      <c r="O37" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="157"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="146">
+      <c r="A38" s="145"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="140">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="D38" s="139" t="s">
+      <c r="D38" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="140">
+      <c r="E38" s="137">
         <v>0.64</v>
       </c>
-      <c r="F38" s="141">
-        <v>0</v>
-      </c>
-      <c r="G38" s="142">
-        <v>0</v>
-      </c>
-      <c r="H38" s="142">
-        <v>0</v>
-      </c>
-      <c r="I38" s="142">
-        <v>39.25</v>
-      </c>
-      <c r="J38" s="142">
-        <v>12.17</v>
-      </c>
-      <c r="K38" s="142">
-        <v>0</v>
-      </c>
-      <c r="L38" s="142">
-        <v>16.22</v>
-      </c>
-      <c r="M38" s="142">
-        <v>24.33</v>
-      </c>
-      <c r="N38" s="142">
-        <v>16.22</v>
-      </c>
-      <c r="O38" s="143">
+      <c r="F38" s="138">
+        <v>0</v>
+      </c>
+      <c r="G38" s="153">
+        <v>0</v>
+      </c>
+      <c r="H38" s="153">
+        <v>0</v>
+      </c>
+      <c r="I38" s="161">
+        <v>35.82</v>
+      </c>
+      <c r="J38" s="161">
+        <v>5.63</v>
+      </c>
+      <c r="K38" s="161">
+        <v>0</v>
+      </c>
+      <c r="L38" s="161">
+        <v>3.58</v>
+      </c>
+      <c r="M38" s="161">
+        <v>7.74</v>
+      </c>
+      <c r="N38" s="161">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="O38" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="155" t="s">
+      <c r="A39" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="146" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="132">
         <v>2.47E-2</v>
       </c>
-      <c r="D39" s="145" t="s">
+      <c r="D39" s="139" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="134">
         <v>0.74</v>
       </c>
-      <c r="F39" s="135">
-        <v>0</v>
-      </c>
-      <c r="G39" s="136">
-        <v>0</v>
-      </c>
-      <c r="H39" s="136">
-        <v>0</v>
-      </c>
-      <c r="I39" s="136">
-        <v>52.74</v>
-      </c>
-      <c r="J39" s="136">
-        <v>36.92</v>
-      </c>
-      <c r="K39" s="136">
-        <v>0</v>
-      </c>
-      <c r="L39" s="136">
-        <v>0</v>
-      </c>
-      <c r="M39" s="136">
-        <v>0</v>
-      </c>
-      <c r="N39" s="136">
-        <v>0</v>
-      </c>
-      <c r="O39" s="137">
+      <c r="F39" s="151">
+        <v>0</v>
+      </c>
+      <c r="G39" s="152">
+        <v>0</v>
+      </c>
+      <c r="H39" s="152">
+        <v>0</v>
+      </c>
+      <c r="I39" s="162">
+        <v>19.38</v>
+      </c>
+      <c r="J39" s="162">
+        <v>10.38</v>
+      </c>
+      <c r="K39" s="162">
+        <v>0</v>
+      </c>
+      <c r="L39" s="162">
+        <v>0</v>
+      </c>
+      <c r="M39" s="162">
+        <v>0</v>
+      </c>
+      <c r="N39" s="162">
+        <v>0</v>
+      </c>
+      <c r="O39" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="156"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="146">
+      <c r="A40" s="144"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="140">
         <v>2.47E-2</v>
       </c>
-      <c r="D40" s="139" t="s">
+      <c r="D40" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="140">
+      <c r="E40" s="137">
         <v>0.67</v>
       </c>
-      <c r="F40" s="141">
-        <v>0</v>
-      </c>
-      <c r="G40" s="142">
-        <v>0</v>
-      </c>
-      <c r="H40" s="142">
-        <v>0</v>
-      </c>
-      <c r="I40" s="142">
-        <v>47.75</v>
-      </c>
-      <c r="J40" s="142">
-        <v>33.42</v>
-      </c>
-      <c r="K40" s="142">
-        <v>0</v>
-      </c>
-      <c r="L40" s="142">
-        <v>0</v>
-      </c>
-      <c r="M40" s="142">
-        <v>0</v>
-      </c>
-      <c r="N40" s="142">
-        <v>0</v>
-      </c>
-      <c r="O40" s="143">
+      <c r="F40" s="138">
+        <v>0</v>
+      </c>
+      <c r="G40" s="153">
+        <v>0</v>
+      </c>
+      <c r="H40" s="153">
+        <v>0</v>
+      </c>
+      <c r="I40" s="161">
+        <v>17.55</v>
+      </c>
+      <c r="J40" s="161">
+        <v>9.4</v>
+      </c>
+      <c r="K40" s="161">
+        <v>0</v>
+      </c>
+      <c r="L40" s="161">
+        <v>0</v>
+      </c>
+      <c r="M40" s="161">
+        <v>0</v>
+      </c>
+      <c r="N40" s="161">
+        <v>0</v>
+      </c>
+      <c r="O40" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="157"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="146">
+      <c r="A41" s="145"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="140">
         <v>2.47E-2</v>
       </c>
-      <c r="D41" s="139" t="s">
+      <c r="D41" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="140">
+      <c r="E41" s="137">
         <v>0.63</v>
       </c>
-      <c r="F41" s="141">
-        <v>0</v>
-      </c>
-      <c r="G41" s="142">
-        <v>0</v>
-      </c>
-      <c r="H41" s="142">
-        <v>0</v>
-      </c>
-      <c r="I41" s="142">
-        <v>44.9</v>
-      </c>
-      <c r="J41" s="142">
-        <v>31.43</v>
-      </c>
-      <c r="K41" s="142">
-        <v>0</v>
-      </c>
-      <c r="L41" s="142">
-        <v>0</v>
-      </c>
-      <c r="M41" s="142">
-        <v>0</v>
-      </c>
-      <c r="N41" s="142">
-        <v>0</v>
-      </c>
-      <c r="O41" s="143">
+      <c r="F41" s="138">
+        <v>0</v>
+      </c>
+      <c r="G41" s="153">
+        <v>0</v>
+      </c>
+      <c r="H41" s="153">
+        <v>0</v>
+      </c>
+      <c r="I41" s="161">
+        <v>16.5</v>
+      </c>
+      <c r="J41" s="161">
+        <v>8.84</v>
+      </c>
+      <c r="K41" s="161">
+        <v>0</v>
+      </c>
+      <c r="L41" s="161">
+        <v>0</v>
+      </c>
+      <c r="M41" s="161">
+        <v>0</v>
+      </c>
+      <c r="N41" s="161">
+        <v>0</v>
+      </c>
+      <c r="O41" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="158" t="s">
+      <c r="B42" s="146" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="132">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="D42" s="145" t="s">
+      <c r="D42" s="139" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="134">
         <v>0.86</v>
       </c>
-      <c r="F42" s="135">
-        <v>17.48</v>
-      </c>
-      <c r="G42" s="136">
-        <v>0</v>
-      </c>
-      <c r="H42" s="136">
-        <v>0</v>
-      </c>
-      <c r="I42" s="136">
-        <v>0</v>
-      </c>
-      <c r="J42" s="136">
-        <v>0</v>
-      </c>
-      <c r="K42" s="136">
-        <v>20.97</v>
-      </c>
-      <c r="L42" s="136">
-        <v>0</v>
-      </c>
-      <c r="M42" s="136">
-        <v>24.47</v>
-      </c>
-      <c r="N42" s="136">
-        <v>13.98</v>
-      </c>
-      <c r="O42" s="137">
-        <v>29.84</v>
+      <c r="F42" s="151">
+        <v>14.39</v>
+      </c>
+      <c r="G42" s="152">
+        <v>0</v>
+      </c>
+      <c r="H42" s="152">
+        <v>0</v>
+      </c>
+      <c r="I42" s="162">
+        <v>0</v>
+      </c>
+      <c r="J42" s="162">
+        <v>0</v>
+      </c>
+      <c r="K42" s="162">
+        <v>17.03</v>
+      </c>
+      <c r="L42" s="162">
+        <v>0</v>
+      </c>
+      <c r="M42" s="162">
+        <v>0</v>
+      </c>
+      <c r="N42" s="162">
+        <v>0</v>
+      </c>
+      <c r="O42" s="152">
+        <v>39.97</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="156"/>
-      <c r="B43" s="159"/>
-      <c r="C43" s="146">
+      <c r="A43" s="144"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="D43" s="139" t="s">
+      <c r="D43" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="140">
+      <c r="E43" s="137">
         <v>0.83</v>
       </c>
-      <c r="F43" s="141">
-        <v>16.87</v>
-      </c>
-      <c r="G43" s="142">
-        <v>0</v>
-      </c>
-      <c r="H43" s="142">
-        <v>0</v>
-      </c>
-      <c r="I43" s="142">
-        <v>0</v>
-      </c>
-      <c r="J43" s="142">
-        <v>0</v>
-      </c>
-      <c r="K43" s="142">
-        <v>20.239999999999998</v>
-      </c>
-      <c r="L43" s="142">
-        <v>0</v>
-      </c>
-      <c r="M43" s="142">
-        <v>23.61</v>
-      </c>
-      <c r="N43" s="142">
-        <v>13.49</v>
-      </c>
-      <c r="O43" s="143">
-        <v>28.8</v>
+      <c r="F43" s="138">
+        <v>13.89</v>
+      </c>
+      <c r="G43" s="153">
+        <v>0</v>
+      </c>
+      <c r="H43" s="153">
+        <v>0</v>
+      </c>
+      <c r="I43" s="161">
+        <v>0</v>
+      </c>
+      <c r="J43" s="161">
+        <v>0</v>
+      </c>
+      <c r="K43" s="161">
+        <v>0</v>
+      </c>
+      <c r="L43" s="161">
+        <v>0</v>
+      </c>
+      <c r="M43" s="161">
+        <v>14.34</v>
+      </c>
+      <c r="N43" s="161">
+        <v>6.78</v>
+      </c>
+      <c r="O43" s="153">
+        <v>38.58</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="156"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="146">
+      <c r="A44" s="144"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="D44" s="139" t="s">
+      <c r="D44" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="140">
+      <c r="E44" s="137">
         <v>0.79</v>
       </c>
-      <c r="F44" s="141">
-        <v>16.05</v>
-      </c>
-      <c r="G44" s="142">
-        <v>0</v>
-      </c>
-      <c r="H44" s="142">
-        <v>0</v>
-      </c>
-      <c r="I44" s="142">
-        <v>0</v>
-      </c>
-      <c r="J44" s="142">
-        <v>0</v>
-      </c>
-      <c r="K44" s="142">
-        <v>19.27</v>
-      </c>
-      <c r="L44" s="142">
-        <v>0</v>
-      </c>
-      <c r="M44" s="142">
-        <v>22.48</v>
-      </c>
-      <c r="N44" s="142">
-        <v>12.84</v>
-      </c>
-      <c r="O44" s="143">
-        <v>27.41</v>
+      <c r="F44" s="138">
+        <v>13.22</v>
+      </c>
+      <c r="G44" s="153">
+        <v>0</v>
+      </c>
+      <c r="H44" s="153">
+        <v>0</v>
+      </c>
+      <c r="I44" s="161">
+        <v>0</v>
+      </c>
+      <c r="J44" s="161">
+        <v>0</v>
+      </c>
+      <c r="K44" s="161">
+        <v>0</v>
+      </c>
+      <c r="L44" s="161">
+        <v>0</v>
+      </c>
+      <c r="M44" s="161">
+        <v>0</v>
+      </c>
+      <c r="N44" s="161">
+        <v>0</v>
+      </c>
+      <c r="O44" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="156"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="146">
+      <c r="A45" s="144"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="D45" s="139" t="s">
+      <c r="D45" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="140">
+      <c r="E45" s="137">
         <v>0.63</v>
       </c>
-      <c r="F45" s="141">
-        <v>12.8</v>
-      </c>
-      <c r="G45" s="142">
-        <v>0</v>
-      </c>
-      <c r="H45" s="142">
-        <v>0</v>
-      </c>
-      <c r="I45" s="142">
-        <v>0</v>
-      </c>
-      <c r="J45" s="142">
-        <v>0</v>
-      </c>
-      <c r="K45" s="142">
-        <v>15.36</v>
-      </c>
-      <c r="L45" s="142">
-        <v>0</v>
-      </c>
-      <c r="M45" s="142">
-        <v>17.920000000000002</v>
-      </c>
-      <c r="N45" s="142">
-        <v>10.24</v>
-      </c>
-      <c r="O45" s="143">
-        <v>21.86</v>
+      <c r="F45" s="138">
+        <v>10.54</v>
+      </c>
+      <c r="G45" s="153">
+        <v>0</v>
+      </c>
+      <c r="H45" s="153">
+        <v>0</v>
+      </c>
+      <c r="I45" s="161">
+        <v>0</v>
+      </c>
+      <c r="J45" s="161">
+        <v>0</v>
+      </c>
+      <c r="K45" s="161">
+        <v>12.48</v>
+      </c>
+      <c r="L45" s="161">
+        <v>0</v>
+      </c>
+      <c r="M45" s="161">
+        <v>0</v>
+      </c>
+      <c r="N45" s="161">
+        <v>0</v>
+      </c>
+      <c r="O45" s="153">
+        <v>29.28</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="157"/>
-      <c r="B46" s="160"/>
-      <c r="C46" s="146">
+      <c r="A46" s="145"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="D46" s="139" t="s">
+      <c r="D46" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="140">
+      <c r="E46" s="137">
         <v>0.46</v>
       </c>
-      <c r="F46" s="141">
-        <v>9.35</v>
-      </c>
-      <c r="G46" s="142">
-        <v>0</v>
-      </c>
-      <c r="H46" s="142">
-        <v>0</v>
-      </c>
-      <c r="I46" s="142">
-        <v>0</v>
-      </c>
-      <c r="J46" s="142">
-        <v>0</v>
-      </c>
-      <c r="K46" s="142">
-        <v>11.22</v>
-      </c>
-      <c r="L46" s="142">
-        <v>0</v>
-      </c>
-      <c r="M46" s="142">
-        <v>13.09</v>
-      </c>
-      <c r="N46" s="142">
-        <v>7.48</v>
-      </c>
-      <c r="O46" s="143">
-        <v>15.96</v>
+      <c r="F46" s="138">
+        <v>0</v>
+      </c>
+      <c r="G46" s="153">
+        <v>0</v>
+      </c>
+      <c r="H46" s="153">
+        <v>0</v>
+      </c>
+      <c r="I46" s="161">
+        <v>0</v>
+      </c>
+      <c r="J46" s="161">
+        <v>0</v>
+      </c>
+      <c r="K46" s="161">
+        <v>9.11</v>
+      </c>
+      <c r="L46" s="161">
+        <v>0</v>
+      </c>
+      <c r="M46" s="161">
+        <v>7.95</v>
+      </c>
+      <c r="N46" s="161">
+        <v>3.76</v>
+      </c>
+      <c r="O46" s="153">
+        <v>21.38</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="155" t="s">
+      <c r="A47" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="158" t="s">
+      <c r="B47" s="146" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="132">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="D47" s="145" t="s">
+      <c r="D47" s="139" t="s">
         <v>89</v>
       </c>
       <c r="E47" s="134">
         <v>0.86</v>
       </c>
-      <c r="F47" s="135">
-        <v>0</v>
-      </c>
-      <c r="G47" s="136">
-        <v>0</v>
-      </c>
-      <c r="H47" s="136">
-        <v>0</v>
-      </c>
-      <c r="I47" s="136">
-        <v>77.11</v>
-      </c>
-      <c r="J47" s="136">
-        <v>61.69</v>
-      </c>
-      <c r="K47" s="136">
-        <v>0</v>
-      </c>
-      <c r="L47" s="136">
-        <v>0</v>
-      </c>
-      <c r="M47" s="136">
-        <v>0</v>
-      </c>
-      <c r="N47" s="136">
-        <v>0</v>
-      </c>
-      <c r="O47" s="137">
+      <c r="F47" s="151">
+        <v>0</v>
+      </c>
+      <c r="G47" s="152">
+        <v>0</v>
+      </c>
+      <c r="H47" s="152">
+        <v>0</v>
+      </c>
+      <c r="I47" s="162">
+        <v>14.93</v>
+      </c>
+      <c r="J47" s="162">
+        <v>9.14</v>
+      </c>
+      <c r="K47" s="162">
+        <v>0</v>
+      </c>
+      <c r="L47" s="162">
+        <v>0</v>
+      </c>
+      <c r="M47" s="162">
+        <v>0</v>
+      </c>
+      <c r="N47" s="162">
+        <v>0</v>
+      </c>
+      <c r="O47" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="156"/>
-      <c r="B48" s="159"/>
-      <c r="C48" s="146">
+      <c r="A48" s="144"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="140">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="D48" s="139" t="s">
+      <c r="D48" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="140">
+      <c r="E48" s="137">
         <v>0.67</v>
       </c>
-      <c r="F48" s="141">
-        <v>0</v>
-      </c>
-      <c r="G48" s="142">
-        <v>0</v>
-      </c>
-      <c r="H48" s="142">
-        <v>0</v>
-      </c>
-      <c r="I48" s="142">
-        <v>60.08</v>
-      </c>
-      <c r="J48" s="142">
-        <v>48.06</v>
-      </c>
-      <c r="K48" s="142">
-        <v>0</v>
-      </c>
-      <c r="L48" s="142">
-        <v>0</v>
-      </c>
-      <c r="M48" s="142">
-        <v>0</v>
-      </c>
-      <c r="N48" s="142">
-        <v>0</v>
-      </c>
-      <c r="O48" s="143">
+      <c r="F48" s="138">
+        <v>0</v>
+      </c>
+      <c r="G48" s="153">
+        <v>0</v>
+      </c>
+      <c r="H48" s="153">
+        <v>0</v>
+      </c>
+      <c r="I48" s="161">
+        <v>11.63</v>
+      </c>
+      <c r="J48" s="161">
+        <v>7.12</v>
+      </c>
+      <c r="K48" s="161">
+        <v>0</v>
+      </c>
+      <c r="L48" s="161">
+        <v>0</v>
+      </c>
+      <c r="M48" s="161">
+        <v>0</v>
+      </c>
+      <c r="N48" s="161">
+        <v>0</v>
+      </c>
+      <c r="O48" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="157"/>
-      <c r="B49" s="160"/>
-      <c r="C49" s="146">
+      <c r="A49" s="145"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="140">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="D49" s="139" t="s">
+      <c r="D49" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="140">
+      <c r="E49" s="137">
         <v>0.5</v>
       </c>
-      <c r="F49" s="141">
-        <v>0</v>
-      </c>
-      <c r="G49" s="142">
-        <v>0</v>
-      </c>
-      <c r="H49" s="142">
-        <v>0</v>
-      </c>
-      <c r="I49" s="142">
-        <v>44.83</v>
-      </c>
-      <c r="J49" s="142">
-        <v>35.869999999999997</v>
-      </c>
-      <c r="K49" s="142">
-        <v>0</v>
-      </c>
-      <c r="L49" s="142">
-        <v>0</v>
-      </c>
-      <c r="M49" s="142">
-        <v>0</v>
-      </c>
-      <c r="N49" s="142">
-        <v>0</v>
-      </c>
-      <c r="O49" s="143">
+      <c r="F49" s="138">
+        <v>0</v>
+      </c>
+      <c r="G49" s="153">
+        <v>0</v>
+      </c>
+      <c r="H49" s="153">
+        <v>0</v>
+      </c>
+      <c r="I49" s="161">
+        <v>8.68</v>
+      </c>
+      <c r="J49" s="161">
+        <v>5.31</v>
+      </c>
+      <c r="K49" s="161">
+        <v>0</v>
+      </c>
+      <c r="L49" s="161">
+        <v>0</v>
+      </c>
+      <c r="M49" s="161">
+        <v>0</v>
+      </c>
+      <c r="N49" s="161">
+        <v>0</v>
+      </c>
+      <c r="O49" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="155" t="s">
+      <c r="A50" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="158" t="s">
+      <c r="B50" s="146" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="132">
         <v>1.72E-2</v>
       </c>
-      <c r="D50" s="145" t="s">
+      <c r="D50" s="139" t="s">
         <v>92</v>
       </c>
       <c r="E50" s="134">
         <v>0.7</v>
       </c>
-      <c r="F50" s="135">
-        <v>0</v>
-      </c>
-      <c r="G50" s="136">
-        <v>0</v>
-      </c>
-      <c r="H50" s="136">
-        <v>0</v>
-      </c>
-      <c r="I50" s="136">
-        <v>0</v>
-      </c>
-      <c r="J50" s="136">
-        <v>16.22</v>
-      </c>
-      <c r="K50" s="136">
-        <v>0</v>
-      </c>
-      <c r="L50" s="136">
-        <v>0</v>
-      </c>
-      <c r="M50" s="136">
-        <v>0</v>
-      </c>
-      <c r="N50" s="136">
-        <v>0</v>
-      </c>
-      <c r="O50" s="137">
-        <v>32.43</v>
+      <c r="F50" s="151">
+        <v>0</v>
+      </c>
+      <c r="G50" s="152">
+        <v>0</v>
+      </c>
+      <c r="H50" s="152">
+        <v>0</v>
+      </c>
+      <c r="I50" s="162">
+        <v>0</v>
+      </c>
+      <c r="J50" s="162">
+        <v>0</v>
+      </c>
+      <c r="K50" s="162">
+        <v>0</v>
+      </c>
+      <c r="L50" s="162">
+        <v>0</v>
+      </c>
+      <c r="M50" s="162">
+        <v>0</v>
+      </c>
+      <c r="N50" s="162">
+        <v>0</v>
+      </c>
+      <c r="O50" s="152">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="156"/>
-      <c r="B51" s="159"/>
-      <c r="C51" s="146">
+      <c r="A51" s="144"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="140">
         <v>1.72E-2</v>
       </c>
-      <c r="D51" s="139" t="s">
+      <c r="D51" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="140">
+      <c r="E51" s="137">
         <v>0.66</v>
       </c>
-      <c r="F51" s="141">
-        <v>0</v>
-      </c>
-      <c r="G51" s="142">
-        <v>0</v>
-      </c>
-      <c r="H51" s="142">
-        <v>0</v>
-      </c>
-      <c r="I51" s="142">
-        <v>0</v>
-      </c>
-      <c r="J51" s="142">
-        <v>15.29</v>
-      </c>
-      <c r="K51" s="142">
-        <v>0</v>
-      </c>
-      <c r="L51" s="142">
-        <v>0</v>
-      </c>
-      <c r="M51" s="142">
-        <v>0</v>
-      </c>
-      <c r="N51" s="142">
-        <v>0</v>
-      </c>
-      <c r="O51" s="143">
-        <v>30.58</v>
+      <c r="F51" s="138">
+        <v>0</v>
+      </c>
+      <c r="G51" s="153">
+        <v>0</v>
+      </c>
+      <c r="H51" s="153">
+        <v>0</v>
+      </c>
+      <c r="I51" s="161">
+        <v>0</v>
+      </c>
+      <c r="J51" s="161">
+        <v>0.92</v>
+      </c>
+      <c r="K51" s="161">
+        <v>0</v>
+      </c>
+      <c r="L51" s="161">
+        <v>0</v>
+      </c>
+      <c r="M51" s="161">
+        <v>0</v>
+      </c>
+      <c r="N51" s="161">
+        <v>0</v>
+      </c>
+      <c r="O51" s="153">
+        <v>2.8</v>
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="156"/>
-      <c r="B52" s="159"/>
-      <c r="C52" s="146">
+      <c r="A52" s="144"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="140">
         <v>1.72E-2</v>
       </c>
-      <c r="D52" s="139" t="s">
+      <c r="D52" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="140">
+      <c r="E52" s="137">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F52" s="141">
-        <v>0</v>
-      </c>
-      <c r="G52" s="142">
-        <v>0</v>
-      </c>
-      <c r="H52" s="142">
-        <v>0</v>
-      </c>
-      <c r="I52" s="142">
-        <v>0</v>
-      </c>
-      <c r="J52" s="142">
-        <v>13.44</v>
-      </c>
-      <c r="K52" s="142">
-        <v>0</v>
-      </c>
-      <c r="L52" s="142">
-        <v>0</v>
-      </c>
-      <c r="M52" s="142">
-        <v>0</v>
-      </c>
-      <c r="N52" s="142">
-        <v>0</v>
-      </c>
-      <c r="O52" s="143">
-        <v>26.87</v>
+      <c r="F52" s="138">
+        <v>0</v>
+      </c>
+      <c r="G52" s="153">
+        <v>0</v>
+      </c>
+      <c r="H52" s="153">
+        <v>0</v>
+      </c>
+      <c r="I52" s="161">
+        <v>0</v>
+      </c>
+      <c r="J52" s="161">
+        <v>0</v>
+      </c>
+      <c r="K52" s="161">
+        <v>0</v>
+      </c>
+      <c r="L52" s="161">
+        <v>0</v>
+      </c>
+      <c r="M52" s="161">
+        <v>0</v>
+      </c>
+      <c r="N52" s="161">
+        <v>0</v>
+      </c>
+      <c r="O52" s="153">
+        <v>2.46</v>
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="157"/>
-      <c r="B53" s="160"/>
-      <c r="C53" s="146">
+      <c r="A53" s="145"/>
+      <c r="B53" s="148"/>
+      <c r="C53" s="140">
         <v>1.72E-2</v>
       </c>
-      <c r="D53" s="139" t="s">
+      <c r="D53" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="140">
+      <c r="E53" s="137">
         <v>0.54</v>
       </c>
-      <c r="F53" s="141">
-        <v>0</v>
-      </c>
-      <c r="G53" s="142">
-        <v>0</v>
-      </c>
-      <c r="H53" s="142">
-        <v>0</v>
-      </c>
-      <c r="I53" s="142">
-        <v>0</v>
-      </c>
-      <c r="J53" s="142">
-        <v>12.51</v>
-      </c>
-      <c r="K53" s="142">
-        <v>0</v>
-      </c>
-      <c r="L53" s="142">
-        <v>0</v>
-      </c>
-      <c r="M53" s="142">
-        <v>0</v>
-      </c>
-      <c r="N53" s="142">
-        <v>0</v>
-      </c>
-      <c r="O53" s="143">
-        <v>25.02</v>
+      <c r="F53" s="138">
+        <v>0</v>
+      </c>
+      <c r="G53" s="153">
+        <v>0</v>
+      </c>
+      <c r="H53" s="153">
+        <v>0</v>
+      </c>
+      <c r="I53" s="161">
+        <v>0</v>
+      </c>
+      <c r="J53" s="161">
+        <v>0</v>
+      </c>
+      <c r="K53" s="161">
+        <v>0</v>
+      </c>
+      <c r="L53" s="161">
+        <v>0</v>
+      </c>
+      <c r="M53" s="161">
+        <v>0</v>
+      </c>
+      <c r="N53" s="161">
+        <v>0</v>
+      </c>
+      <c r="O53" s="153">
+        <v>2.29</v>
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="155" t="s">
+      <c r="A54" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="158" t="s">
+      <c r="B54" s="146" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="132">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D54" s="147" t="s">
+      <c r="D54" s="154" t="s">
         <v>96</v>
       </c>
       <c r="E54" s="134">
         <v>0.92</v>
       </c>
-      <c r="F54" s="135">
-        <v>4.22</v>
-      </c>
-      <c r="G54" s="136">
-        <v>12.66</v>
-      </c>
-      <c r="H54" s="136">
-        <v>0</v>
-      </c>
-      <c r="I54" s="136">
-        <v>9.08</v>
-      </c>
-      <c r="J54" s="136">
-        <v>10.93</v>
-      </c>
-      <c r="K54" s="136">
-        <v>12.16</v>
-      </c>
-      <c r="L54" s="136">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="M54" s="136">
-        <v>12.66</v>
-      </c>
-      <c r="N54" s="136">
-        <v>21.99</v>
-      </c>
-      <c r="O54" s="137">
+      <c r="F54" s="151">
+        <v>20.65</v>
+      </c>
+      <c r="G54" s="152">
+        <v>0</v>
+      </c>
+      <c r="H54" s="152">
+        <v>0</v>
+      </c>
+      <c r="I54" s="162">
+        <v>0</v>
+      </c>
+      <c r="J54" s="162">
+        <v>0</v>
+      </c>
+      <c r="K54" s="162">
+        <v>0</v>
+      </c>
+      <c r="L54" s="162">
+        <v>42.26</v>
+      </c>
+      <c r="M54" s="162">
+        <v>45.7</v>
+      </c>
+      <c r="N54" s="162">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="O54" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="156"/>
-      <c r="B55" s="159"/>
-      <c r="C55" s="146">
+      <c r="A55" s="144"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D55" s="148" t="s">
+      <c r="D55" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="140">
+      <c r="E55" s="137">
         <v>0.87</v>
       </c>
-      <c r="F55" s="141">
-        <v>3.99</v>
-      </c>
-      <c r="G55" s="142">
-        <v>11.97</v>
-      </c>
-      <c r="H55" s="142">
-        <v>0</v>
-      </c>
-      <c r="I55" s="142">
-        <v>8.58</v>
-      </c>
-      <c r="J55" s="142">
-        <v>10.33</v>
-      </c>
-      <c r="K55" s="142">
-        <v>11.49</v>
-      </c>
-      <c r="L55" s="142">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="M55" s="142">
-        <v>11.97</v>
-      </c>
-      <c r="N55" s="142">
-        <v>20.79</v>
-      </c>
-      <c r="O55" s="143">
+      <c r="F55" s="138">
+        <v>19.53</v>
+      </c>
+      <c r="G55" s="153">
+        <v>0</v>
+      </c>
+      <c r="H55" s="153">
+        <v>0</v>
+      </c>
+      <c r="I55" s="161">
+        <v>0</v>
+      </c>
+      <c r="J55" s="161">
+        <v>0</v>
+      </c>
+      <c r="K55" s="161">
+        <v>55.46</v>
+      </c>
+      <c r="L55" s="161">
+        <v>0</v>
+      </c>
+      <c r="M55" s="161">
+        <v>0</v>
+      </c>
+      <c r="N55" s="161">
+        <v>62.04</v>
+      </c>
+      <c r="O55" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="156"/>
-      <c r="B56" s="159"/>
-      <c r="C56" s="146">
+      <c r="A56" s="144"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D56" s="148" t="s">
+      <c r="D56" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="140">
+      <c r="E56" s="137">
         <v>0.83</v>
       </c>
-      <c r="F56" s="141">
-        <v>3.81</v>
-      </c>
-      <c r="G56" s="142">
-        <v>11.42</v>
-      </c>
-      <c r="H56" s="142">
-        <v>0</v>
-      </c>
-      <c r="I56" s="142">
-        <v>8.19</v>
-      </c>
-      <c r="J56" s="142">
-        <v>9.86</v>
-      </c>
-      <c r="K56" s="142">
-        <v>10.97</v>
-      </c>
-      <c r="L56" s="142">
-        <v>15.84</v>
-      </c>
-      <c r="M56" s="142">
-        <v>11.42</v>
-      </c>
-      <c r="N56" s="142">
-        <v>19.84</v>
-      </c>
-      <c r="O56" s="143">
+      <c r="F56" s="138">
+        <v>0</v>
+      </c>
+      <c r="G56" s="153">
+        <v>0</v>
+      </c>
+      <c r="H56" s="153">
+        <v>0</v>
+      </c>
+      <c r="I56" s="161">
+        <v>0</v>
+      </c>
+      <c r="J56" s="161">
+        <v>51.8</v>
+      </c>
+      <c r="K56" s="161">
+        <v>0</v>
+      </c>
+      <c r="L56" s="161">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="M56" s="161">
+        <v>41.23</v>
+      </c>
+      <c r="N56" s="161">
+        <v>59.18</v>
+      </c>
+      <c r="O56" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="156"/>
-      <c r="B57" s="159"/>
-      <c r="C57" s="146">
+      <c r="A57" s="144"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D57" s="148" t="s">
+      <c r="D57" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="140">
+      <c r="E57" s="137">
         <v>0.79</v>
       </c>
-      <c r="F57" s="141">
-        <v>3.62</v>
-      </c>
-      <c r="G57" s="142">
-        <v>10.87</v>
-      </c>
-      <c r="H57" s="142">
-        <v>0</v>
-      </c>
-      <c r="I57" s="142">
-        <v>7.79</v>
-      </c>
-      <c r="J57" s="142">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="K57" s="142">
-        <v>10.44</v>
-      </c>
-      <c r="L57" s="142">
-        <v>15.08</v>
-      </c>
-      <c r="M57" s="142">
-        <v>10.87</v>
-      </c>
-      <c r="N57" s="142">
-        <v>18.88</v>
-      </c>
-      <c r="O57" s="143">
+      <c r="F57" s="138">
+        <v>0</v>
+      </c>
+      <c r="G57" s="153">
+        <v>45.91</v>
+      </c>
+      <c r="H57" s="153">
+        <v>0</v>
+      </c>
+      <c r="I57" s="161">
+        <v>0</v>
+      </c>
+      <c r="J57" s="161">
+        <v>0</v>
+      </c>
+      <c r="K57" s="161">
+        <v>0</v>
+      </c>
+      <c r="L57" s="161">
+        <v>0</v>
+      </c>
+      <c r="M57" s="161">
+        <v>0</v>
+      </c>
+      <c r="N57" s="161">
+        <v>56.33</v>
+      </c>
+      <c r="O57" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="156"/>
-      <c r="B58" s="159"/>
-      <c r="C58" s="146">
+      <c r="A58" s="144"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D58" s="148" t="s">
+      <c r="D58" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="140">
+      <c r="E58" s="137">
         <v>0.76</v>
       </c>
-      <c r="F58" s="141">
-        <v>3.49</v>
-      </c>
-      <c r="G58" s="142">
-        <v>10.46</v>
-      </c>
-      <c r="H58" s="142">
-        <v>0</v>
-      </c>
-      <c r="I58" s="142">
-        <v>7.5</v>
-      </c>
-      <c r="J58" s="142">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="K58" s="142">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="L58" s="142">
-        <v>14.5</v>
-      </c>
-      <c r="M58" s="142">
-        <v>10.46</v>
-      </c>
-      <c r="N58" s="142">
-        <v>18.170000000000002</v>
-      </c>
-      <c r="O58" s="143">
+      <c r="F58" s="138">
+        <v>0</v>
+      </c>
+      <c r="G58" s="153">
+        <v>44.16</v>
+      </c>
+      <c r="H58" s="153">
+        <v>0</v>
+      </c>
+      <c r="I58" s="161">
+        <v>0</v>
+      </c>
+      <c r="J58" s="161">
+        <v>47.43</v>
+      </c>
+      <c r="K58" s="161">
+        <v>0</v>
+      </c>
+      <c r="L58" s="161">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="M58" s="161">
+        <v>37.75</v>
+      </c>
+      <c r="N58" s="161">
+        <v>54.19</v>
+      </c>
+      <c r="O58" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="156"/>
-      <c r="B59" s="159"/>
-      <c r="C59" s="146">
+      <c r="A59" s="144"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D59" s="148" t="s">
+      <c r="D59" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="140">
+      <c r="E59" s="137">
         <v>0.67</v>
       </c>
-      <c r="F59" s="141">
-        <v>3.07</v>
-      </c>
-      <c r="G59" s="142">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="H59" s="142">
-        <v>0</v>
-      </c>
-      <c r="I59" s="142">
-        <v>6.61</v>
-      </c>
-      <c r="J59" s="142">
-        <v>7.96</v>
-      </c>
-      <c r="K59" s="142">
-        <v>8.85</v>
-      </c>
-      <c r="L59" s="142">
-        <v>12.79</v>
-      </c>
-      <c r="M59" s="142">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="N59" s="142">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="O59" s="143">
+      <c r="F59" s="138">
+        <v>0</v>
+      </c>
+      <c r="G59" s="153">
+        <v>0</v>
+      </c>
+      <c r="H59" s="153">
+        <v>0</v>
+      </c>
+      <c r="I59" s="161">
+        <v>0</v>
+      </c>
+      <c r="J59" s="161">
+        <v>0</v>
+      </c>
+      <c r="K59" s="161">
+        <v>0</v>
+      </c>
+      <c r="L59" s="161">
+        <v>0</v>
+      </c>
+      <c r="M59" s="161">
+        <v>0</v>
+      </c>
+      <c r="N59" s="161">
+        <v>47.78</v>
+      </c>
+      <c r="O59" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="157"/>
-      <c r="B60" s="160"/>
-      <c r="C60" s="146">
+      <c r="A60" s="145"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D60" s="148" t="s">
+      <c r="D60" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="140">
+      <c r="E60" s="137">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F60" s="141">
-        <v>2.57</v>
-      </c>
-      <c r="G60" s="142">
-        <v>7.71</v>
-      </c>
-      <c r="H60" s="142">
-        <v>0</v>
-      </c>
-      <c r="I60" s="142">
-        <v>5.52</v>
-      </c>
-      <c r="J60" s="142">
-        <v>6.65</v>
-      </c>
-      <c r="K60" s="142">
-        <v>7.4</v>
-      </c>
-      <c r="L60" s="142">
-        <v>10.69</v>
-      </c>
-      <c r="M60" s="142">
-        <v>7.71</v>
-      </c>
-      <c r="N60" s="142">
-        <v>13.39</v>
-      </c>
-      <c r="O60" s="143">
+      <c r="F60" s="138">
+        <v>0</v>
+      </c>
+      <c r="G60" s="153">
+        <v>0</v>
+      </c>
+      <c r="H60" s="153">
+        <v>0</v>
+      </c>
+      <c r="I60" s="161">
+        <v>0</v>
+      </c>
+      <c r="J60" s="161">
+        <v>0</v>
+      </c>
+      <c r="K60" s="161">
+        <v>0</v>
+      </c>
+      <c r="L60" s="161">
+        <v>0</v>
+      </c>
+      <c r="M60" s="161">
+        <v>0</v>
+      </c>
+      <c r="N60" s="161">
+        <v>39.93</v>
+      </c>
+      <c r="O60" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="155" t="s">
+      <c r="A61" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="158" t="s">
+      <c r="B61" s="146" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="132">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="D61" s="147" t="s">
+      <c r="D61" s="154" t="s">
         <v>103</v>
       </c>
       <c r="E61" s="134">
         <v>0.86</v>
       </c>
-      <c r="F61" s="135">
-        <v>0</v>
-      </c>
-      <c r="G61" s="136">
-        <v>0</v>
-      </c>
-      <c r="H61" s="136">
-        <v>0</v>
-      </c>
-      <c r="I61" s="136">
-        <v>0</v>
-      </c>
-      <c r="J61" s="136">
-        <v>15.31</v>
-      </c>
-      <c r="K61" s="136">
-        <v>0</v>
-      </c>
-      <c r="L61" s="136">
-        <v>40.42</v>
-      </c>
-      <c r="M61" s="136">
-        <v>73.489999999999995</v>
-      </c>
-      <c r="N61" s="136">
-        <v>30.62</v>
-      </c>
-      <c r="O61" s="137">
+      <c r="F61" s="151">
+        <v>0</v>
+      </c>
+      <c r="G61" s="152">
+        <v>0</v>
+      </c>
+      <c r="H61" s="152">
+        <v>0</v>
+      </c>
+      <c r="I61" s="162">
+        <v>0</v>
+      </c>
+      <c r="J61" s="162">
+        <v>25.6</v>
+      </c>
+      <c r="K61" s="162">
+        <v>0</v>
+      </c>
+      <c r="L61" s="162">
+        <v>32.21</v>
+      </c>
+      <c r="M61" s="162">
+        <v>84.43</v>
+      </c>
+      <c r="N61" s="162">
+        <v>0</v>
+      </c>
+      <c r="O61" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="156"/>
-      <c r="B62" s="159"/>
-      <c r="C62" s="146">
+      <c r="A62" s="144"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="D62" s="148" t="s">
+      <c r="D62" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="E62" s="140">
+      <c r="E62" s="137">
         <v>0.83</v>
       </c>
-      <c r="F62" s="141">
-        <v>0</v>
-      </c>
-      <c r="G62" s="142">
-        <v>0</v>
-      </c>
-      <c r="H62" s="142">
-        <v>0</v>
-      </c>
-      <c r="I62" s="142">
-        <v>0</v>
-      </c>
-      <c r="J62" s="142">
-        <v>14.78</v>
-      </c>
-      <c r="K62" s="142">
-        <v>0</v>
-      </c>
-      <c r="L62" s="142">
-        <v>39.01</v>
-      </c>
-      <c r="M62" s="142">
-        <v>70.930000000000007</v>
-      </c>
-      <c r="N62" s="142">
-        <v>29.55</v>
-      </c>
-      <c r="O62" s="143">
+      <c r="F62" s="138">
+        <v>0</v>
+      </c>
+      <c r="G62" s="153">
+        <v>0</v>
+      </c>
+      <c r="H62" s="153">
+        <v>0</v>
+      </c>
+      <c r="I62" s="161">
+        <v>0</v>
+      </c>
+      <c r="J62" s="161">
+        <v>24.71</v>
+      </c>
+      <c r="K62" s="161">
+        <v>0</v>
+      </c>
+      <c r="L62" s="161">
+        <v>0</v>
+      </c>
+      <c r="M62" s="161">
+        <v>81.48</v>
+      </c>
+      <c r="N62" s="161">
+        <v>25.26</v>
+      </c>
+      <c r="O62" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="156"/>
-      <c r="B63" s="159"/>
-      <c r="C63" s="146">
+      <c r="A63" s="144"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="D63" s="148" t="s">
+      <c r="D63" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="E63" s="140">
+      <c r="E63" s="137">
         <v>0.79</v>
       </c>
-      <c r="F63" s="141">
-        <v>0</v>
-      </c>
-      <c r="G63" s="142">
-        <v>0</v>
-      </c>
-      <c r="H63" s="142">
-        <v>0</v>
-      </c>
-      <c r="I63" s="142">
-        <v>0</v>
-      </c>
-      <c r="J63" s="142">
-        <v>14.06</v>
-      </c>
-      <c r="K63" s="142">
-        <v>0</v>
-      </c>
-      <c r="L63" s="142">
-        <v>37.130000000000003</v>
-      </c>
-      <c r="M63" s="142">
-        <v>67.510000000000005</v>
-      </c>
-      <c r="N63" s="142">
-        <v>28.13</v>
-      </c>
-      <c r="O63" s="143">
+      <c r="F63" s="138">
+        <v>0</v>
+      </c>
+      <c r="G63" s="153">
+        <v>0</v>
+      </c>
+      <c r="H63" s="153">
+        <v>0</v>
+      </c>
+      <c r="I63" s="161">
+        <v>0</v>
+      </c>
+      <c r="J63" s="161">
+        <v>0</v>
+      </c>
+      <c r="K63" s="161">
+        <v>0</v>
+      </c>
+      <c r="L63" s="161">
+        <v>29.59</v>
+      </c>
+      <c r="M63" s="161">
+        <v>77.55</v>
+      </c>
+      <c r="N63" s="161">
+        <v>24.04</v>
+      </c>
+      <c r="O63" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="156"/>
-      <c r="B64" s="159"/>
-      <c r="C64" s="146">
+      <c r="A64" s="144"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="D64" s="148" t="s">
+      <c r="D64" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="E64" s="140">
+      <c r="E64" s="137">
         <v>0.74</v>
       </c>
-      <c r="F64" s="141">
-        <v>0</v>
-      </c>
-      <c r="G64" s="142">
-        <v>0</v>
-      </c>
-      <c r="H64" s="142">
-        <v>0</v>
-      </c>
-      <c r="I64" s="142">
-        <v>0</v>
-      </c>
-      <c r="J64" s="142">
-        <v>13.17</v>
-      </c>
-      <c r="K64" s="142">
-        <v>0</v>
-      </c>
-      <c r="L64" s="142">
-        <v>34.78</v>
-      </c>
-      <c r="M64" s="142">
-        <v>63.24</v>
-      </c>
-      <c r="N64" s="142">
-        <v>26.35</v>
-      </c>
-      <c r="O64" s="143">
+      <c r="F64" s="138">
+        <v>0</v>
+      </c>
+      <c r="G64" s="153">
+        <v>0</v>
+      </c>
+      <c r="H64" s="153">
+        <v>0</v>
+      </c>
+      <c r="I64" s="161">
+        <v>0</v>
+      </c>
+      <c r="J64" s="161">
+        <v>22.03</v>
+      </c>
+      <c r="K64" s="161">
+        <v>0</v>
+      </c>
+      <c r="L64" s="161">
+        <v>27.71</v>
+      </c>
+      <c r="M64" s="161">
+        <v>72.650000000000006</v>
+      </c>
+      <c r="N64" s="161">
+        <v>0</v>
+      </c>
+      <c r="O64" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="157"/>
-      <c r="B65" s="160"/>
-      <c r="C65" s="146">
+      <c r="A65" s="145"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="D65" s="148" t="s">
+      <c r="D65" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="E65" s="140">
+      <c r="E65" s="137">
         <v>0.73</v>
       </c>
-      <c r="F65" s="141">
-        <v>0</v>
-      </c>
-      <c r="G65" s="142">
-        <v>0</v>
-      </c>
-      <c r="H65" s="142">
-        <v>0</v>
-      </c>
-      <c r="I65" s="142">
-        <v>0</v>
-      </c>
-      <c r="J65" s="142">
-        <v>13</v>
-      </c>
-      <c r="K65" s="142">
-        <v>0</v>
-      </c>
-      <c r="L65" s="142">
-        <v>34.31</v>
-      </c>
-      <c r="M65" s="142">
-        <v>62.38</v>
-      </c>
-      <c r="N65" s="142">
-        <v>25.99</v>
-      </c>
-      <c r="O65" s="143">
+      <c r="F65" s="138">
+        <v>0</v>
+      </c>
+      <c r="G65" s="153">
+        <v>0</v>
+      </c>
+      <c r="H65" s="153">
+        <v>0</v>
+      </c>
+      <c r="I65" s="161">
+        <v>0</v>
+      </c>
+      <c r="J65" s="161">
+        <v>21.73</v>
+      </c>
+      <c r="K65" s="161">
+        <v>0</v>
+      </c>
+      <c r="L65" s="161">
+        <v>27.34</v>
+      </c>
+      <c r="M65" s="161">
+        <v>71.66</v>
+      </c>
+      <c r="N65" s="161">
+        <v>0</v>
+      </c>
+      <c r="O65" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="155" t="s">
+      <c r="A66" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="158" t="s">
+      <c r="B66" s="146" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="132">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="D66" s="147" t="s">
+      <c r="D66" s="154" t="s">
         <v>108</v>
       </c>
       <c r="E66" s="134">
         <v>0.85</v>
       </c>
-      <c r="F66" s="135">
-        <v>35.26</v>
-      </c>
-      <c r="G66" s="136">
-        <v>0</v>
-      </c>
-      <c r="H66" s="136">
-        <v>35.26</v>
-      </c>
-      <c r="I66" s="136">
-        <v>0</v>
-      </c>
-      <c r="J66" s="136">
-        <v>0</v>
-      </c>
-      <c r="K66" s="136">
-        <v>49.36</v>
-      </c>
-      <c r="L66" s="136">
-        <v>0</v>
-      </c>
-      <c r="M66" s="136">
-        <v>0</v>
-      </c>
-      <c r="N66" s="136">
-        <v>0</v>
-      </c>
-      <c r="O66" s="137">
-        <v>53.74</v>
+      <c r="F66" s="151">
+        <v>0</v>
+      </c>
+      <c r="G66" s="152">
+        <v>0</v>
+      </c>
+      <c r="H66" s="152">
+        <v>0</v>
+      </c>
+      <c r="I66" s="162">
+        <v>0</v>
+      </c>
+      <c r="J66" s="162">
+        <v>0</v>
+      </c>
+      <c r="K66" s="162">
+        <v>59.02</v>
+      </c>
+      <c r="L66" s="162">
+        <v>0</v>
+      </c>
+      <c r="M66" s="162">
+        <v>0</v>
+      </c>
+      <c r="N66" s="162">
+        <v>0</v>
+      </c>
+      <c r="O66" s="152">
+        <v>106.01</v>
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="156"/>
-      <c r="B67" s="159"/>
-      <c r="C67" s="146">
+      <c r="A67" s="144"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="140">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="D67" s="148" t="s">
+      <c r="D67" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="E67" s="140">
+      <c r="E67" s="137">
         <v>0.84</v>
       </c>
-      <c r="F67" s="141">
-        <v>34.840000000000003</v>
-      </c>
-      <c r="G67" s="142">
-        <v>0</v>
-      </c>
-      <c r="H67" s="142">
-        <v>34.840000000000003</v>
-      </c>
-      <c r="I67" s="142">
-        <v>0</v>
-      </c>
-      <c r="J67" s="142">
-        <v>0</v>
-      </c>
-      <c r="K67" s="142">
-        <v>48.78</v>
-      </c>
-      <c r="L67" s="142">
-        <v>0</v>
-      </c>
-      <c r="M67" s="142">
-        <v>0</v>
-      </c>
-      <c r="N67" s="142">
-        <v>0</v>
-      </c>
-      <c r="O67" s="143">
-        <v>53.11</v>
+      <c r="F67" s="138">
+        <v>0</v>
+      </c>
+      <c r="G67" s="153">
+        <v>0</v>
+      </c>
+      <c r="H67" s="153">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I67" s="161">
+        <v>0</v>
+      </c>
+      <c r="J67" s="161">
+        <v>0</v>
+      </c>
+      <c r="K67" s="161">
+        <v>58.33</v>
+      </c>
+      <c r="L67" s="161">
+        <v>0</v>
+      </c>
+      <c r="M67" s="161">
+        <v>0</v>
+      </c>
+      <c r="N67" s="161">
+        <v>0</v>
+      </c>
+      <c r="O67" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="156"/>
-      <c r="B68" s="159"/>
-      <c r="C68" s="146">
+      <c r="A68" s="144"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="140">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="D68" s="148" t="s">
+      <c r="D68" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="140">
+      <c r="E68" s="137">
         <v>0.82</v>
       </c>
-      <c r="F68" s="141">
-        <v>34.01</v>
-      </c>
-      <c r="G68" s="142">
-        <v>0</v>
-      </c>
-      <c r="H68" s="142">
-        <v>34.01</v>
-      </c>
-      <c r="I68" s="142">
-        <v>0</v>
-      </c>
-      <c r="J68" s="142">
-        <v>0</v>
-      </c>
-      <c r="K68" s="142">
-        <v>47.62</v>
-      </c>
-      <c r="L68" s="142">
-        <v>0</v>
-      </c>
-      <c r="M68" s="142">
-        <v>0</v>
-      </c>
-      <c r="N68" s="142">
-        <v>0</v>
-      </c>
-      <c r="O68" s="143">
-        <v>51.85</v>
+      <c r="F68" s="138">
+        <v>41.25</v>
+      </c>
+      <c r="G68" s="153">
+        <v>0</v>
+      </c>
+      <c r="H68" s="153">
+        <v>0</v>
+      </c>
+      <c r="I68" s="161">
+        <v>0</v>
+      </c>
+      <c r="J68" s="161">
+        <v>0</v>
+      </c>
+      <c r="K68" s="161">
+        <v>56.94</v>
+      </c>
+      <c r="L68" s="161">
+        <v>0</v>
+      </c>
+      <c r="M68" s="161">
+        <v>0</v>
+      </c>
+      <c r="N68" s="161">
+        <v>0</v>
+      </c>
+      <c r="O68" s="153">
+        <v>102.27</v>
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="157"/>
-      <c r="B69" s="160"/>
-      <c r="C69" s="146">
+      <c r="A69" s="145"/>
+      <c r="B69" s="148"/>
+      <c r="C69" s="140">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="D69" s="148" t="s">
+      <c r="D69" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="E69" s="140">
+      <c r="E69" s="137">
         <v>0.75</v>
       </c>
-      <c r="F69" s="141">
-        <v>31.11</v>
-      </c>
-      <c r="G69" s="142">
-        <v>0</v>
-      </c>
-      <c r="H69" s="142">
-        <v>31.11</v>
-      </c>
-      <c r="I69" s="142">
-        <v>0</v>
-      </c>
-      <c r="J69" s="142">
-        <v>0</v>
-      </c>
-      <c r="K69" s="142">
-        <v>43.55</v>
-      </c>
-      <c r="L69" s="142">
-        <v>0</v>
-      </c>
-      <c r="M69" s="142">
-        <v>0</v>
-      </c>
-      <c r="N69" s="142">
-        <v>0</v>
-      </c>
-      <c r="O69" s="143">
-        <v>47.42</v>
+      <c r="F69" s="138">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="G69" s="153">
+        <v>0</v>
+      </c>
+      <c r="H69" s="153">
+        <v>0</v>
+      </c>
+      <c r="I69" s="161">
+        <v>0</v>
+      </c>
+      <c r="J69" s="161">
+        <v>0</v>
+      </c>
+      <c r="K69" s="161">
+        <v>52.08</v>
+      </c>
+      <c r="L69" s="161">
+        <v>0</v>
+      </c>
+      <c r="M69" s="161">
+        <v>0</v>
+      </c>
+      <c r="N69" s="161">
+        <v>0</v>
+      </c>
+      <c r="O69" s="153">
+        <v>93.54</v>
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="155" t="s">
+      <c r="A70" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="158" t="s">
+      <c r="B70" s="146" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="132">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D70" s="147" t="s">
+      <c r="D70" s="154" t="s">
         <v>69</v>
       </c>
       <c r="E70" s="134">
         <v>0.86</v>
       </c>
-      <c r="F70" s="135">
-        <v>21.26</v>
-      </c>
-      <c r="G70" s="136">
-        <v>11.34</v>
-      </c>
-      <c r="H70" s="136">
-        <v>51.03</v>
-      </c>
-      <c r="I70" s="136">
-        <v>0</v>
-      </c>
-      <c r="J70" s="136">
-        <v>0</v>
-      </c>
-      <c r="K70" s="136">
-        <v>12.76</v>
-      </c>
-      <c r="L70" s="136">
-        <v>14.18</v>
-      </c>
-      <c r="M70" s="136">
-        <v>0</v>
-      </c>
-      <c r="N70" s="136">
-        <v>0</v>
-      </c>
-      <c r="O70" s="137">
-        <v>8.51</v>
+      <c r="F70" s="151">
+        <v>52.36</v>
+      </c>
+      <c r="G70" s="152">
+        <v>30.12</v>
+      </c>
+      <c r="H70" s="152">
+        <v>83.15</v>
+      </c>
+      <c r="I70" s="162">
+        <v>0</v>
+      </c>
+      <c r="J70" s="162">
+        <v>0</v>
+      </c>
+      <c r="K70" s="162">
+        <v>38.72</v>
+      </c>
+      <c r="L70" s="162">
+        <v>8.93</v>
+      </c>
+      <c r="M70" s="162">
+        <v>0</v>
+      </c>
+      <c r="N70" s="162">
+        <v>0</v>
+      </c>
+      <c r="O70" s="152">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="156"/>
-      <c r="B71" s="159"/>
-      <c r="C71" s="146">
+      <c r="A71" s="144"/>
+      <c r="B71" s="147"/>
+      <c r="C71" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D71" s="148" t="s">
+      <c r="D71" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="E71" s="140">
+      <c r="E71" s="137">
         <v>0.84</v>
       </c>
-      <c r="F71" s="141">
-        <v>20.77</v>
-      </c>
-      <c r="G71" s="142">
-        <v>11.08</v>
-      </c>
-      <c r="H71" s="142">
-        <v>49.85</v>
-      </c>
-      <c r="I71" s="142">
-        <v>0</v>
-      </c>
-      <c r="J71" s="142">
-        <v>0</v>
-      </c>
-      <c r="K71" s="142">
-        <v>12.46</v>
-      </c>
-      <c r="L71" s="142">
-        <v>13.85</v>
-      </c>
-      <c r="M71" s="142">
-        <v>0</v>
-      </c>
-      <c r="N71" s="142">
-        <v>0</v>
-      </c>
-      <c r="O71" s="143">
-        <v>8.31</v>
+      <c r="F71" s="138">
+        <v>51.14</v>
+      </c>
+      <c r="G71" s="153">
+        <v>0</v>
+      </c>
+      <c r="H71" s="153">
+        <v>81.22</v>
+      </c>
+      <c r="I71" s="161">
+        <v>0</v>
+      </c>
+      <c r="J71" s="161">
+        <v>0</v>
+      </c>
+      <c r="K71" s="161">
+        <v>0</v>
+      </c>
+      <c r="L71" s="161">
+        <v>0</v>
+      </c>
+      <c r="M71" s="161">
+        <v>0</v>
+      </c>
+      <c r="N71" s="161">
+        <v>0</v>
+      </c>
+      <c r="O71" s="153">
+        <v>41.59</v>
       </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="156"/>
-      <c r="B72" s="159"/>
-      <c r="C72" s="146">
+      <c r="A72" s="144"/>
+      <c r="B72" s="147"/>
+      <c r="C72" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D72" s="148" t="s">
+      <c r="D72" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="137">
+        <v>0.77</v>
+      </c>
+      <c r="F72" s="138">
+        <v>45.66</v>
+      </c>
+      <c r="G72" s="153">
+        <v>26.26</v>
+      </c>
+      <c r="H72" s="153">
+        <v>72.52</v>
+      </c>
+      <c r="I72" s="161">
+        <v>0</v>
+      </c>
+      <c r="J72" s="161">
+        <v>0</v>
+      </c>
+      <c r="K72" s="161">
+        <v>33.76</v>
+      </c>
+      <c r="L72" s="161">
+        <v>0</v>
+      </c>
+      <c r="M72" s="161">
+        <v>0</v>
+      </c>
+      <c r="N72" s="161">
+        <v>0</v>
+      </c>
+      <c r="O72" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="144"/>
+      <c r="B73" s="147"/>
+      <c r="C73" s="140">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="D73" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="140">
+      <c r="E73" s="137">
         <v>0.75</v>
       </c>
-      <c r="F72" s="141">
-        <v>18.54</v>
-      </c>
-      <c r="G72" s="142">
-        <v>9.89</v>
-      </c>
-      <c r="H72" s="142">
-        <v>44.51</v>
-      </c>
-      <c r="I72" s="142">
-        <v>0</v>
-      </c>
-      <c r="J72" s="142">
-        <v>0</v>
-      </c>
-      <c r="K72" s="142">
-        <v>11.13</v>
-      </c>
-      <c r="L72" s="142">
-        <v>12.36</v>
-      </c>
-      <c r="M72" s="142">
-        <v>0</v>
-      </c>
-      <c r="N72" s="142">
-        <v>0</v>
-      </c>
-      <c r="O72" s="143">
-        <v>7.42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="156"/>
-      <c r="B73" s="159"/>
-      <c r="C73" s="146">
+      <c r="F73" s="138">
+        <v>38.35</v>
+      </c>
+      <c r="G73" s="153">
+        <v>22.06</v>
+      </c>
+      <c r="H73" s="153">
+        <v>60.91</v>
+      </c>
+      <c r="I73" s="161">
+        <v>0</v>
+      </c>
+      <c r="J73" s="161">
+        <v>0</v>
+      </c>
+      <c r="K73" s="161">
+        <v>28.36</v>
+      </c>
+      <c r="L73" s="161">
+        <v>6.54</v>
+      </c>
+      <c r="M73" s="161">
+        <v>0</v>
+      </c>
+      <c r="N73" s="161">
+        <v>0</v>
+      </c>
+      <c r="O73" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="144"/>
+      <c r="B74" s="147"/>
+      <c r="C74" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D73" s="148" t="s">
+      <c r="D74" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="140">
+      <c r="E74" s="137">
         <v>0.63</v>
       </c>
-      <c r="F73" s="141">
-        <v>15.58</v>
-      </c>
-      <c r="G73" s="142">
-        <v>8.31</v>
-      </c>
-      <c r="H73" s="142">
-        <v>37.380000000000003</v>
-      </c>
-      <c r="I73" s="142">
-        <v>0</v>
-      </c>
-      <c r="J73" s="142">
-        <v>0</v>
-      </c>
-      <c r="K73" s="142">
-        <v>9.35</v>
-      </c>
-      <c r="L73" s="142">
-        <v>10.38</v>
-      </c>
-      <c r="M73" s="142">
-        <v>0</v>
-      </c>
-      <c r="N73" s="142">
-        <v>0</v>
-      </c>
-      <c r="O73" s="143">
+      <c r="F74" s="138">
+        <v>0</v>
+      </c>
+      <c r="G74" s="153">
+        <v>0</v>
+      </c>
+      <c r="H74" s="153">
+        <v>58.01</v>
+      </c>
+      <c r="I74" s="161">
+        <v>0</v>
+      </c>
+      <c r="J74" s="161">
+        <v>0</v>
+      </c>
+      <c r="K74" s="161">
+        <v>0</v>
+      </c>
+      <c r="L74" s="161">
         <v>6.23</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="156"/>
-      <c r="B74" s="159"/>
-      <c r="C74" s="146">
+      <c r="M74" s="161">
+        <v>0</v>
+      </c>
+      <c r="N74" s="161">
+        <v>0</v>
+      </c>
+      <c r="O74" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="144"/>
+      <c r="B75" s="147"/>
+      <c r="C75" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D74" s="148" t="s">
+      <c r="D75" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="140">
+      <c r="E75" s="137">
         <v>0.6</v>
       </c>
-      <c r="F74" s="141">
-        <v>14.84</v>
-      </c>
-      <c r="G74" s="142">
-        <v>7.91</v>
-      </c>
-      <c r="H74" s="142">
-        <v>35.6</v>
-      </c>
-      <c r="I74" s="142">
-        <v>0</v>
-      </c>
-      <c r="J74" s="142">
-        <v>0</v>
-      </c>
-      <c r="K74" s="142">
-        <v>8.9</v>
-      </c>
-      <c r="L74" s="142">
-        <v>9.89</v>
-      </c>
-      <c r="M74" s="142">
-        <v>0</v>
-      </c>
-      <c r="N74" s="142">
-        <v>0</v>
-      </c>
-      <c r="O74" s="143">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="156"/>
-      <c r="B75" s="159"/>
-      <c r="C75" s="146">
+      <c r="F75" s="138">
+        <v>0</v>
+      </c>
+      <c r="G75" s="153">
+        <v>26.96</v>
+      </c>
+      <c r="H75" s="153">
+        <v>74.45</v>
+      </c>
+      <c r="I75" s="161">
+        <v>0</v>
+      </c>
+      <c r="J75" s="161">
+        <v>0</v>
+      </c>
+      <c r="K75" s="161">
+        <v>0</v>
+      </c>
+      <c r="L75" s="161">
+        <v>0</v>
+      </c>
+      <c r="M75" s="161">
+        <v>0</v>
+      </c>
+      <c r="N75" s="161">
+        <v>0</v>
+      </c>
+      <c r="O75" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="145"/>
+      <c r="B76" s="148"/>
+      <c r="C76" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D75" s="148" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="140">
-        <v>0.77</v>
-      </c>
-      <c r="F75" s="141">
-        <v>19.04</v>
-      </c>
-      <c r="G75" s="142">
-        <v>10.15</v>
-      </c>
-      <c r="H75" s="142">
-        <v>45.69</v>
-      </c>
-      <c r="I75" s="142">
-        <v>0</v>
-      </c>
-      <c r="J75" s="142">
-        <v>0</v>
-      </c>
-      <c r="K75" s="142">
-        <v>11.42</v>
-      </c>
-      <c r="L75" s="142">
-        <v>12.69</v>
-      </c>
-      <c r="M75" s="142">
-        <v>0</v>
-      </c>
-      <c r="N75" s="142">
-        <v>0</v>
-      </c>
-      <c r="O75" s="143">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="157"/>
-      <c r="B76" s="160"/>
-      <c r="C76" s="146">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="D76" s="148" t="s">
+      <c r="D76" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="E76" s="140">
+      <c r="E76" s="137">
         <v>0.4</v>
       </c>
-      <c r="F76" s="141">
-        <v>9.89</v>
-      </c>
-      <c r="G76" s="142">
-        <v>5.27</v>
-      </c>
-      <c r="H76" s="142">
-        <v>23.74</v>
-      </c>
-      <c r="I76" s="142">
-        <v>0</v>
-      </c>
-      <c r="J76" s="142">
-        <v>0</v>
-      </c>
-      <c r="K76" s="142">
-        <v>5.93</v>
-      </c>
-      <c r="L76" s="142">
-        <v>6.59</v>
-      </c>
-      <c r="M76" s="142">
-        <v>0</v>
-      </c>
-      <c r="N76" s="142">
-        <v>0</v>
-      </c>
-      <c r="O76" s="143">
-        <v>3.96</v>
+      <c r="F76" s="138">
+        <v>0</v>
+      </c>
+      <c r="G76" s="153">
+        <v>14.01</v>
+      </c>
+      <c r="H76" s="153">
+        <v>38.68</v>
+      </c>
+      <c r="I76" s="161">
+        <v>0</v>
+      </c>
+      <c r="J76" s="161">
+        <v>0</v>
+      </c>
+      <c r="K76" s="161">
+        <v>0</v>
+      </c>
+      <c r="L76" s="161">
+        <v>0</v>
+      </c>
+      <c r="M76" s="161">
+        <v>0</v>
+      </c>
+      <c r="N76" s="161">
+        <v>0</v>
+      </c>
+      <c r="O76" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="155" t="s">
+      <c r="A77" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="158" t="s">
+      <c r="B77" s="146" t="s">
         <v>88</v>
       </c>
       <c r="C77" s="132">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D77" s="147" t="s">
+      <c r="D77" s="154" t="s">
         <v>112</v>
       </c>
       <c r="E77" s="134">
         <v>0.82</v>
       </c>
-      <c r="F77" s="135">
-        <v>31.34</v>
-      </c>
-      <c r="G77" s="136">
-        <v>17.91</v>
-      </c>
-      <c r="H77" s="136">
-        <v>0</v>
-      </c>
-      <c r="I77" s="136">
-        <v>0</v>
-      </c>
-      <c r="J77" s="136">
-        <v>0</v>
-      </c>
-      <c r="K77" s="136">
-        <v>24.63</v>
-      </c>
-      <c r="L77" s="136">
-        <v>0</v>
-      </c>
-      <c r="M77" s="136">
-        <v>0</v>
-      </c>
-      <c r="N77" s="136">
-        <v>0</v>
-      </c>
-      <c r="O77" s="137">
-        <v>11.19</v>
+      <c r="F77" s="151">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="G77" s="152">
+        <v>17.03</v>
+      </c>
+      <c r="H77" s="152">
+        <v>0</v>
+      </c>
+      <c r="I77" s="162">
+        <v>0</v>
+      </c>
+      <c r="J77" s="162">
+        <v>0</v>
+      </c>
+      <c r="K77" s="162">
+        <v>26.77</v>
+      </c>
+      <c r="L77" s="162">
+        <v>0</v>
+      </c>
+      <c r="M77" s="162">
+        <v>0</v>
+      </c>
+      <c r="N77" s="162">
+        <v>0</v>
+      </c>
+      <c r="O77" s="152">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="156"/>
-      <c r="B78" s="159"/>
-      <c r="C78" s="146">
+      <c r="A78" s="144"/>
+      <c r="B78" s="147"/>
+      <c r="C78" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D78" s="148" t="s">
+      <c r="D78" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="E78" s="140">
+      <c r="E78" s="137">
         <v>0.81</v>
       </c>
-      <c r="F78" s="141">
-        <v>30.96</v>
-      </c>
-      <c r="G78" s="142">
-        <v>17.690000000000001</v>
-      </c>
-      <c r="H78" s="142">
-        <v>0</v>
-      </c>
-      <c r="I78" s="142">
-        <v>0</v>
-      </c>
-      <c r="J78" s="142">
-        <v>0</v>
-      </c>
-      <c r="K78" s="142">
-        <v>24.33</v>
-      </c>
-      <c r="L78" s="142">
-        <v>0</v>
-      </c>
-      <c r="M78" s="142">
-        <v>0</v>
-      </c>
-      <c r="N78" s="142">
-        <v>0</v>
-      </c>
-      <c r="O78" s="143">
-        <v>11.06</v>
+      <c r="F78" s="138">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="G78" s="153">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="H78" s="153">
+        <v>0</v>
+      </c>
+      <c r="I78" s="161">
+        <v>0</v>
+      </c>
+      <c r="J78" s="161">
+        <v>0</v>
+      </c>
+      <c r="K78" s="161">
+        <v>26.44</v>
+      </c>
+      <c r="L78" s="161">
+        <v>0</v>
+      </c>
+      <c r="M78" s="161">
+        <v>0</v>
+      </c>
+      <c r="N78" s="161">
+        <v>0</v>
+      </c>
+      <c r="O78" s="153">
+        <v>19.829999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="156"/>
-      <c r="B79" s="159"/>
-      <c r="C79" s="146">
+      <c r="A79" s="144"/>
+      <c r="B79" s="147"/>
+      <c r="C79" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D79" s="148" t="s">
+      <c r="D79" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="E79" s="140">
+      <c r="E79" s="137">
         <v>0.75</v>
       </c>
-      <c r="F79" s="141">
-        <v>28.67</v>
-      </c>
-      <c r="G79" s="142">
-        <v>16.38</v>
-      </c>
-      <c r="H79" s="142">
-        <v>0</v>
-      </c>
-      <c r="I79" s="142">
-        <v>0</v>
-      </c>
-      <c r="J79" s="142">
-        <v>0</v>
-      </c>
-      <c r="K79" s="142">
-        <v>22.52</v>
-      </c>
-      <c r="L79" s="142">
-        <v>0</v>
-      </c>
-      <c r="M79" s="142">
-        <v>0</v>
-      </c>
-      <c r="N79" s="142">
-        <v>0</v>
-      </c>
-      <c r="O79" s="143">
-        <v>10.24</v>
+      <c r="F79" s="138">
+        <v>0</v>
+      </c>
+      <c r="G79" s="153">
+        <v>15.58</v>
+      </c>
+      <c r="H79" s="153">
+        <v>0</v>
+      </c>
+      <c r="I79" s="161">
+        <v>0</v>
+      </c>
+      <c r="J79" s="161">
+        <v>0</v>
+      </c>
+      <c r="K79" s="161">
+        <v>0</v>
+      </c>
+      <c r="L79" s="161">
+        <v>0</v>
+      </c>
+      <c r="M79" s="161">
+        <v>0</v>
+      </c>
+      <c r="N79" s="161">
+        <v>0</v>
+      </c>
+      <c r="O79" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="156"/>
-      <c r="B80" s="159"/>
-      <c r="C80" s="146">
+      <c r="A80" s="144"/>
+      <c r="B80" s="147"/>
+      <c r="C80" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D80" s="148" t="s">
+      <c r="D80" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="E80" s="140">
+      <c r="E80" s="137">
         <v>0.74</v>
       </c>
-      <c r="F80" s="141">
-        <v>28.28</v>
-      </c>
-      <c r="G80" s="142">
-        <v>16.16</v>
-      </c>
-      <c r="H80" s="142">
-        <v>0</v>
-      </c>
-      <c r="I80" s="142">
-        <v>0</v>
-      </c>
-      <c r="J80" s="142">
-        <v>0</v>
-      </c>
-      <c r="K80" s="142">
-        <v>22.22</v>
-      </c>
-      <c r="L80" s="142">
-        <v>0</v>
-      </c>
-      <c r="M80" s="142">
-        <v>0</v>
-      </c>
-      <c r="N80" s="142">
-        <v>0</v>
-      </c>
-      <c r="O80" s="143">
-        <v>10.1</v>
+      <c r="F80" s="138">
+        <v>0</v>
+      </c>
+      <c r="G80" s="153">
+        <v>15.37</v>
+      </c>
+      <c r="H80" s="153">
+        <v>0</v>
+      </c>
+      <c r="I80" s="161">
+        <v>0</v>
+      </c>
+      <c r="J80" s="161">
+        <v>0</v>
+      </c>
+      <c r="K80" s="161">
+        <v>0</v>
+      </c>
+      <c r="L80" s="161">
+        <v>0</v>
+      </c>
+      <c r="M80" s="161">
+        <v>0</v>
+      </c>
+      <c r="N80" s="161">
+        <v>0</v>
+      </c>
+      <c r="O80" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="157"/>
-      <c r="B81" s="160"/>
-      <c r="C81" s="146">
+      <c r="A81" s="145"/>
+      <c r="B81" s="148"/>
+      <c r="C81" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D81" s="148" t="s">
+      <c r="D81" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="140">
+      <c r="E81" s="137">
         <v>0.72</v>
       </c>
-      <c r="F81" s="141">
-        <v>27.52</v>
-      </c>
-      <c r="G81" s="142">
-        <v>15.73</v>
-      </c>
-      <c r="H81" s="142">
-        <v>0</v>
-      </c>
-      <c r="I81" s="142">
-        <v>0</v>
-      </c>
-      <c r="J81" s="142">
-        <v>0</v>
-      </c>
-      <c r="K81" s="142">
-        <v>21.62</v>
-      </c>
-      <c r="L81" s="142">
-        <v>0</v>
-      </c>
-      <c r="M81" s="142">
-        <v>0</v>
-      </c>
-      <c r="N81" s="142">
-        <v>0</v>
-      </c>
-      <c r="O81" s="143">
-        <v>9.83</v>
+      <c r="F81" s="138">
+        <v>30.34</v>
+      </c>
+      <c r="G81" s="153">
+        <v>14.96</v>
+      </c>
+      <c r="H81" s="153">
+        <v>0</v>
+      </c>
+      <c r="I81" s="161">
+        <v>0</v>
+      </c>
+      <c r="J81" s="161">
+        <v>0</v>
+      </c>
+      <c r="K81" s="161">
+        <v>23.5</v>
+      </c>
+      <c r="L81" s="161">
+        <v>0</v>
+      </c>
+      <c r="M81" s="161">
+        <v>0</v>
+      </c>
+      <c r="N81" s="161">
+        <v>0</v>
+      </c>
+      <c r="O81" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="155" t="s">
+      <c r="A82" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="158" t="s">
+      <c r="B82" s="146" t="s">
         <v>66</v>
       </c>
       <c r="C82" s="132">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="D82" s="147" t="s">
+      <c r="D82" s="154" t="s">
         <v>117</v>
       </c>
       <c r="E82" s="134">
         <v>0.95</v>
       </c>
-      <c r="F82" s="135">
-        <v>28.38</v>
-      </c>
-      <c r="G82" s="136">
-        <v>31.3</v>
-      </c>
-      <c r="H82" s="136">
-        <v>76.39</v>
-      </c>
-      <c r="I82" s="136">
-        <v>0</v>
-      </c>
-      <c r="J82" s="136">
-        <v>0</v>
-      </c>
-      <c r="K82" s="136">
-        <v>32.01</v>
-      </c>
-      <c r="L82" s="136">
-        <v>0</v>
-      </c>
-      <c r="M82" s="136">
-        <v>0</v>
-      </c>
-      <c r="N82" s="136">
-        <v>0</v>
-      </c>
-      <c r="O82" s="137">
-        <v>46.12</v>
+      <c r="F82" s="151">
+        <v>34.82</v>
+      </c>
+      <c r="G82" s="152">
+        <v>33.14</v>
+      </c>
+      <c r="H82" s="152">
+        <v>14.75</v>
+      </c>
+      <c r="I82" s="162">
+        <v>0</v>
+      </c>
+      <c r="J82" s="162">
+        <v>0</v>
+      </c>
+      <c r="K82" s="162">
+        <v>38.72</v>
+      </c>
+      <c r="L82" s="162">
+        <v>0</v>
+      </c>
+      <c r="M82" s="162">
+        <v>0</v>
+      </c>
+      <c r="N82" s="162">
+        <v>0</v>
+      </c>
+      <c r="O82" s="152">
+        <v>92.04</v>
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="156"/>
-      <c r="B83" s="159"/>
-      <c r="C83" s="146">
+      <c r="A83" s="144"/>
+      <c r="B83" s="147"/>
+      <c r="C83" s="140">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="D83" s="148" t="s">
+      <c r="D83" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="E83" s="140">
+      <c r="E83" s="137">
         <v>0.9</v>
       </c>
-      <c r="F83" s="141">
-        <v>26.89</v>
-      </c>
-      <c r="G83" s="142">
-        <v>29.65</v>
-      </c>
-      <c r="H83" s="142">
-        <v>72.37</v>
-      </c>
-      <c r="I83" s="142">
-        <v>0</v>
-      </c>
-      <c r="J83" s="142">
-        <v>0</v>
-      </c>
-      <c r="K83" s="142">
-        <v>30.32</v>
-      </c>
-      <c r="L83" s="142">
-        <v>0</v>
-      </c>
-      <c r="M83" s="142">
-        <v>0</v>
-      </c>
-      <c r="N83" s="142">
-        <v>0</v>
-      </c>
-      <c r="O83" s="143">
-        <v>43.69</v>
+      <c r="F83" s="138">
+        <v>0</v>
+      </c>
+      <c r="G83" s="153">
+        <v>0</v>
+      </c>
+      <c r="H83" s="153">
+        <v>0</v>
+      </c>
+      <c r="I83" s="161">
+        <v>0</v>
+      </c>
+      <c r="J83" s="161">
+        <v>0</v>
+      </c>
+      <c r="K83" s="161">
+        <v>0</v>
+      </c>
+      <c r="L83" s="161">
+        <v>0</v>
+      </c>
+      <c r="M83" s="161">
+        <v>0</v>
+      </c>
+      <c r="N83" s="161">
+        <v>0</v>
+      </c>
+      <c r="O83" s="153">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="157"/>
-      <c r="B84" s="160"/>
-      <c r="C84" s="146">
+      <c r="A84" s="145"/>
+      <c r="B84" s="148"/>
+      <c r="C84" s="140">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="D84" s="148" t="s">
+      <c r="D84" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="140">
+      <c r="E84" s="137">
         <v>0.84</v>
       </c>
-      <c r="F84" s="141">
-        <v>25.09</v>
-      </c>
-      <c r="G84" s="142">
-        <v>27.68</v>
-      </c>
-      <c r="H84" s="142">
-        <v>67.540000000000006</v>
-      </c>
-      <c r="I84" s="142">
-        <v>0</v>
-      </c>
-      <c r="J84" s="142">
-        <v>0</v>
-      </c>
-      <c r="K84" s="142">
-        <v>28.3</v>
-      </c>
-      <c r="L84" s="142">
-        <v>0</v>
-      </c>
-      <c r="M84" s="142">
-        <v>0</v>
-      </c>
-      <c r="N84" s="142">
-        <v>0</v>
-      </c>
-      <c r="O84" s="143">
-        <v>40.78</v>
+      <c r="F84" s="138">
+        <v>0</v>
+      </c>
+      <c r="G84" s="153">
+        <v>0</v>
+      </c>
+      <c r="H84" s="153">
+        <v>0</v>
+      </c>
+      <c r="I84" s="161">
+        <v>0</v>
+      </c>
+      <c r="J84" s="161">
+        <v>0</v>
+      </c>
+      <c r="K84" s="161">
+        <v>0</v>
+      </c>
+      <c r="L84" s="161">
+        <v>0</v>
+      </c>
+      <c r="M84" s="161">
+        <v>0</v>
+      </c>
+      <c r="N84" s="161">
+        <v>0</v>
+      </c>
+      <c r="O84" s="153">
+        <v>81.38</v>
       </c>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="155" t="s">
+      <c r="A85" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="158" t="s">
+      <c r="B85" s="146" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="132">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D85" s="147" t="s">
+      <c r="D85" s="154" t="s">
         <v>120</v>
       </c>
       <c r="E85" s="134">
         <v>0.84</v>
       </c>
-      <c r="F85" s="135">
-        <v>0</v>
-      </c>
-      <c r="G85" s="136">
-        <v>0</v>
-      </c>
-      <c r="H85" s="136">
-        <v>0</v>
-      </c>
-      <c r="I85" s="136">
-        <v>0</v>
-      </c>
-      <c r="J85" s="136">
-        <v>0</v>
-      </c>
-      <c r="K85" s="136">
-        <v>0</v>
-      </c>
-      <c r="L85" s="136">
-        <v>0</v>
-      </c>
-      <c r="M85" s="136">
-        <v>0</v>
-      </c>
-      <c r="N85" s="136">
-        <v>0</v>
-      </c>
-      <c r="O85" s="137">
-        <v>80.150000000000006</v>
+      <c r="F85" s="151">
+        <v>0</v>
+      </c>
+      <c r="G85" s="152">
+        <v>0</v>
+      </c>
+      <c r="H85" s="152">
+        <v>0</v>
+      </c>
+      <c r="I85" s="162">
+        <v>0</v>
+      </c>
+      <c r="J85" s="162">
+        <v>0</v>
+      </c>
+      <c r="K85" s="162">
+        <v>0</v>
+      </c>
+      <c r="L85" s="162">
+        <v>0</v>
+      </c>
+      <c r="M85" s="162">
+        <v>0</v>
+      </c>
+      <c r="N85" s="162">
+        <v>0</v>
+      </c>
+      <c r="O85" s="152">
+        <v>48.4</v>
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="156"/>
-      <c r="B86" s="159"/>
-      <c r="C86" s="146">
+      <c r="A86" s="144"/>
+      <c r="B86" s="147"/>
+      <c r="C86" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D86" s="148" t="s">
+      <c r="D86" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="E86" s="140">
+      <c r="E86" s="137">
         <v>0.74</v>
       </c>
-      <c r="F86" s="141">
-        <v>0</v>
-      </c>
-      <c r="G86" s="142">
-        <v>0</v>
-      </c>
-      <c r="H86" s="142">
-        <v>0</v>
-      </c>
-      <c r="I86" s="142">
-        <v>0</v>
-      </c>
-      <c r="J86" s="142">
-        <v>0</v>
-      </c>
-      <c r="K86" s="142">
-        <v>0</v>
-      </c>
-      <c r="L86" s="142">
-        <v>0</v>
-      </c>
-      <c r="M86" s="142">
-        <v>0</v>
-      </c>
-      <c r="N86" s="142">
-        <v>0</v>
-      </c>
-      <c r="O86" s="143">
-        <v>70.61</v>
+      <c r="F86" s="138">
+        <v>0</v>
+      </c>
+      <c r="G86" s="153">
+        <v>0</v>
+      </c>
+      <c r="H86" s="153">
+        <v>0</v>
+      </c>
+      <c r="I86" s="161">
+        <v>0</v>
+      </c>
+      <c r="J86" s="161">
+        <v>0</v>
+      </c>
+      <c r="K86" s="161">
+        <v>0</v>
+      </c>
+      <c r="L86" s="161">
+        <v>0</v>
+      </c>
+      <c r="M86" s="161">
+        <v>0</v>
+      </c>
+      <c r="N86" s="161">
+        <v>0</v>
+      </c>
+      <c r="O86" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="156"/>
-      <c r="B87" s="159"/>
-      <c r="C87" s="146">
+      <c r="A87" s="144"/>
+      <c r="B87" s="147"/>
+      <c r="C87" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D87" s="148" t="s">
+      <c r="D87" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="E87" s="140">
+      <c r="E87" s="137">
         <v>0.74</v>
       </c>
-      <c r="F87" s="141">
-        <v>0</v>
-      </c>
-      <c r="G87" s="142">
-        <v>0</v>
-      </c>
-      <c r="H87" s="142">
-        <v>0</v>
-      </c>
-      <c r="I87" s="142">
-        <v>0</v>
-      </c>
-      <c r="J87" s="142">
-        <v>0</v>
-      </c>
-      <c r="K87" s="142">
-        <v>0</v>
-      </c>
-      <c r="L87" s="142">
-        <v>0</v>
-      </c>
-      <c r="M87" s="142">
-        <v>0</v>
-      </c>
-      <c r="N87" s="142">
-        <v>0</v>
-      </c>
-      <c r="O87" s="143">
-        <v>70.61</v>
+      <c r="F87" s="138">
+        <v>0</v>
+      </c>
+      <c r="G87" s="153">
+        <v>0</v>
+      </c>
+      <c r="H87" s="153">
+        <v>0</v>
+      </c>
+      <c r="I87" s="161">
+        <v>6.81</v>
+      </c>
+      <c r="J87" s="161">
+        <v>0</v>
+      </c>
+      <c r="K87" s="161">
+        <v>0</v>
+      </c>
+      <c r="L87" s="161">
+        <v>0</v>
+      </c>
+      <c r="M87" s="161">
+        <v>0</v>
+      </c>
+      <c r="N87" s="161">
+        <v>0</v>
+      </c>
+      <c r="O87" s="153">
+        <v>42.63</v>
       </c>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="156"/>
-      <c r="B88" s="159"/>
-      <c r="C88" s="146">
+      <c r="A88" s="144"/>
+      <c r="B88" s="147"/>
+      <c r="C88" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D88" s="148" t="s">
+      <c r="D88" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="E88" s="140">
+      <c r="E88" s="137">
         <v>0.72</v>
       </c>
-      <c r="F88" s="141">
-        <v>0</v>
-      </c>
-      <c r="G88" s="142">
-        <v>0</v>
-      </c>
-      <c r="H88" s="142">
-        <v>0</v>
-      </c>
-      <c r="I88" s="142">
-        <v>0</v>
-      </c>
-      <c r="J88" s="142">
-        <v>0</v>
-      </c>
-      <c r="K88" s="142">
-        <v>0</v>
-      </c>
-      <c r="L88" s="142">
-        <v>0</v>
-      </c>
-      <c r="M88" s="142">
-        <v>0</v>
-      </c>
-      <c r="N88" s="142">
-        <v>0</v>
-      </c>
-      <c r="O88" s="143">
-        <v>68.7</v>
+      <c r="F88" s="138">
+        <v>0</v>
+      </c>
+      <c r="G88" s="153">
+        <v>0</v>
+      </c>
+      <c r="H88" s="153">
+        <v>0</v>
+      </c>
+      <c r="I88" s="161">
+        <v>6.62</v>
+      </c>
+      <c r="J88" s="161">
+        <v>0</v>
+      </c>
+      <c r="K88" s="161">
+        <v>0</v>
+      </c>
+      <c r="L88" s="161">
+        <v>0</v>
+      </c>
+      <c r="M88" s="161">
+        <v>0</v>
+      </c>
+      <c r="N88" s="161">
+        <v>0</v>
+      </c>
+      <c r="O88" s="153">
+        <v>41.48</v>
       </c>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="156"/>
-      <c r="B89" s="159"/>
-      <c r="C89" s="146">
+      <c r="A89" s="144"/>
+      <c r="B89" s="147"/>
+      <c r="C89" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D89" s="148" t="s">
+      <c r="D89" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="140">
+      <c r="E89" s="137">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F89" s="141">
-        <v>0</v>
-      </c>
-      <c r="G89" s="142">
-        <v>0</v>
-      </c>
-      <c r="H89" s="142">
-        <v>0</v>
-      </c>
-      <c r="I89" s="142">
-        <v>0</v>
-      </c>
-      <c r="J89" s="142">
-        <v>0</v>
-      </c>
-      <c r="K89" s="142">
-        <v>0</v>
-      </c>
-      <c r="L89" s="142">
-        <v>0</v>
-      </c>
-      <c r="M89" s="142">
-        <v>0</v>
-      </c>
-      <c r="N89" s="142">
-        <v>0</v>
-      </c>
-      <c r="O89" s="143">
-        <v>52.48</v>
+      <c r="F89" s="138">
+        <v>0</v>
+      </c>
+      <c r="G89" s="153">
+        <v>0</v>
+      </c>
+      <c r="H89" s="153">
+        <v>0</v>
+      </c>
+      <c r="I89" s="161">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J89" s="161">
+        <v>0</v>
+      </c>
+      <c r="K89" s="161">
+        <v>0</v>
+      </c>
+      <c r="L89" s="161">
+        <v>0</v>
+      </c>
+      <c r="M89" s="161">
+        <v>0</v>
+      </c>
+      <c r="N89" s="161">
+        <v>0</v>
+      </c>
+      <c r="O89" s="153">
+        <v>31.69</v>
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="156"/>
-      <c r="B90" s="159"/>
-      <c r="C90" s="146">
+      <c r="A90" s="144"/>
+      <c r="B90" s="147"/>
+      <c r="C90" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D90" s="148" t="s">
+      <c r="D90" s="155" t="s">
         <v>125</v>
       </c>
-      <c r="E90" s="140">
+      <c r="E90" s="137">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F90" s="141">
-        <v>0</v>
-      </c>
-      <c r="G90" s="142">
-        <v>0</v>
-      </c>
-      <c r="H90" s="142">
-        <v>0</v>
-      </c>
-      <c r="I90" s="142">
-        <v>0</v>
-      </c>
-      <c r="J90" s="142">
-        <v>0</v>
-      </c>
-      <c r="K90" s="142">
-        <v>0</v>
-      </c>
-      <c r="L90" s="142">
-        <v>0</v>
-      </c>
-      <c r="M90" s="142">
-        <v>0</v>
-      </c>
-      <c r="N90" s="142">
-        <v>0</v>
-      </c>
-      <c r="O90" s="143">
-        <v>54.39</v>
+      <c r="F90" s="138">
+        <v>0</v>
+      </c>
+      <c r="G90" s="153">
+        <v>0</v>
+      </c>
+      <c r="H90" s="153">
+        <v>0</v>
+      </c>
+      <c r="I90" s="161">
+        <v>5.24</v>
+      </c>
+      <c r="J90" s="161">
+        <v>0</v>
+      </c>
+      <c r="K90" s="161">
+        <v>0</v>
+      </c>
+      <c r="L90" s="161">
+        <v>0</v>
+      </c>
+      <c r="M90" s="161">
+        <v>0</v>
+      </c>
+      <c r="N90" s="161">
+        <v>0</v>
+      </c>
+      <c r="O90" s="153">
+        <v>32.840000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="157"/>
-      <c r="B91" s="160"/>
-      <c r="C91" s="146">
+      <c r="A91" s="145"/>
+      <c r="B91" s="148"/>
+      <c r="C91" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D91" s="148" t="s">
+      <c r="D91" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="E91" s="140">
+      <c r="E91" s="137">
         <v>0.39</v>
       </c>
-      <c r="F91" s="141">
-        <v>0</v>
-      </c>
-      <c r="G91" s="142">
-        <v>0</v>
-      </c>
-      <c r="H91" s="142">
-        <v>0</v>
-      </c>
-      <c r="I91" s="142">
-        <v>0</v>
-      </c>
-      <c r="J91" s="142">
-        <v>0</v>
-      </c>
-      <c r="K91" s="142">
-        <v>0</v>
-      </c>
-      <c r="L91" s="142">
-        <v>0</v>
-      </c>
-      <c r="M91" s="142">
-        <v>0</v>
-      </c>
-      <c r="N91" s="142">
-        <v>0</v>
-      </c>
-      <c r="O91" s="143">
-        <v>37.21</v>
+      <c r="F91" s="138">
+        <v>0</v>
+      </c>
+      <c r="G91" s="153">
+        <v>0</v>
+      </c>
+      <c r="H91" s="153">
+        <v>0</v>
+      </c>
+      <c r="I91" s="161">
+        <v>0</v>
+      </c>
+      <c r="J91" s="161">
+        <v>0</v>
+      </c>
+      <c r="K91" s="161">
+        <v>0</v>
+      </c>
+      <c r="L91" s="161">
+        <v>0</v>
+      </c>
+      <c r="M91" s="161">
+        <v>0</v>
+      </c>
+      <c r="N91" s="161">
+        <v>0</v>
+      </c>
+      <c r="O91" s="153">
+        <v>22.47</v>
       </c>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="155" t="s">
+      <c r="A92" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="158" t="s">
+      <c r="B92" s="146" t="s">
         <v>66</v>
       </c>
       <c r="C92" s="132">
         <v>5.04E-2</v>
       </c>
-      <c r="D92" s="147" t="s">
+      <c r="D92" s="154" t="s">
         <v>127</v>
       </c>
       <c r="E92" s="134">
         <v>0.91</v>
       </c>
-      <c r="F92" s="135">
-        <v>0</v>
-      </c>
-      <c r="G92" s="136">
-        <v>134.30000000000001</v>
-      </c>
-      <c r="H92" s="136">
-        <v>0</v>
-      </c>
-      <c r="I92" s="136">
-        <v>55.96</v>
-      </c>
-      <c r="J92" s="136">
-        <v>0</v>
-      </c>
-      <c r="K92" s="136">
-        <v>0</v>
-      </c>
-      <c r="L92" s="136">
-        <v>0</v>
-      </c>
-      <c r="M92" s="136">
-        <v>0</v>
-      </c>
-      <c r="N92" s="136">
-        <v>92.89</v>
-      </c>
-      <c r="O92" s="137">
+      <c r="F92" s="151">
+        <v>0</v>
+      </c>
+      <c r="G92" s="152">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="H92" s="152">
+        <v>0</v>
+      </c>
+      <c r="I92" s="162">
+        <v>0</v>
+      </c>
+      <c r="J92" s="162">
+        <v>0</v>
+      </c>
+      <c r="K92" s="162">
+        <v>0</v>
+      </c>
+      <c r="L92" s="162">
+        <v>0</v>
+      </c>
+      <c r="M92" s="162">
+        <v>0</v>
+      </c>
+      <c r="N92" s="162">
+        <v>17.54</v>
+      </c>
+      <c r="O92" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="157"/>
-      <c r="B93" s="160"/>
-      <c r="C93" s="146">
+      <c r="A93" s="149"/>
+      <c r="B93" s="150"/>
+      <c r="C93" s="141">
         <v>5.04E-2</v>
       </c>
-      <c r="D93" s="148" t="s">
+      <c r="D93" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E93" s="140">
+      <c r="E93" s="142">
         <v>0.71</v>
       </c>
-      <c r="F93" s="141">
-        <v>0</v>
-      </c>
-      <c r="G93" s="142">
-        <v>104.78</v>
-      </c>
-      <c r="H93" s="142">
-        <v>0</v>
-      </c>
-      <c r="I93" s="142">
-        <v>43.66</v>
-      </c>
-      <c r="J93" s="142">
-        <v>0</v>
-      </c>
-      <c r="K93" s="142">
-        <v>0</v>
-      </c>
-      <c r="L93" s="142">
-        <v>0</v>
-      </c>
-      <c r="M93" s="142">
-        <v>0</v>
-      </c>
-      <c r="N93" s="142">
-        <v>72.47</v>
-      </c>
-      <c r="O93" s="143">
+      <c r="F93" s="157">
+        <v>0</v>
+      </c>
+      <c r="G93" s="158">
+        <v>27.99</v>
+      </c>
+      <c r="H93" s="158">
+        <v>0</v>
+      </c>
+      <c r="I93" s="163">
+        <v>11.38</v>
+      </c>
+      <c r="J93" s="163">
+        <v>0</v>
+      </c>
+      <c r="K93" s="163">
+        <v>0</v>
+      </c>
+      <c r="L93" s="163">
+        <v>0</v>
+      </c>
+      <c r="M93" s="163">
+        <v>0</v>
+      </c>
+      <c r="N93" s="163">
+        <v>13.68</v>
+      </c>
+      <c r="O93" s="158">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="155" t="s">
+      <c r="A94" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="B94" s="158" t="s">
+      <c r="B94" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="C94" s="132">
+      <c r="C94" s="135">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D94" s="147" t="s">
+      <c r="D94" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="134">
+      <c r="E94" s="137">
         <v>0.8</v>
       </c>
-      <c r="F94" s="135">
-        <v>0</v>
-      </c>
-      <c r="G94" s="136">
-        <v>5.15</v>
-      </c>
-      <c r="H94" s="136">
-        <v>0</v>
-      </c>
-      <c r="I94" s="136">
-        <v>17.16</v>
-      </c>
-      <c r="J94" s="136">
-        <v>8.58</v>
-      </c>
-      <c r="K94" s="136">
-        <v>0</v>
-      </c>
-      <c r="L94" s="136">
-        <v>0</v>
-      </c>
-      <c r="M94" s="136">
-        <v>8.58</v>
-      </c>
-      <c r="N94" s="136">
-        <v>0</v>
-      </c>
-      <c r="O94" s="137">
-        <v>14.28</v>
+      <c r="F94" s="138">
+        <v>0</v>
+      </c>
+      <c r="G94" s="153">
+        <v>6.12</v>
+      </c>
+      <c r="H94" s="153">
+        <v>0</v>
+      </c>
+      <c r="I94" s="161">
+        <v>0</v>
+      </c>
+      <c r="J94" s="161">
+        <v>12.69</v>
+      </c>
+      <c r="K94" s="161">
+        <v>0</v>
+      </c>
+      <c r="L94" s="161">
+        <v>0</v>
+      </c>
+      <c r="M94" s="161">
+        <v>0</v>
+      </c>
+      <c r="N94" s="161">
+        <v>0</v>
+      </c>
+      <c r="O94" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="156"/>
-      <c r="B95" s="159"/>
-      <c r="C95" s="146">
+      <c r="A95" s="144"/>
+      <c r="B95" s="147"/>
+      <c r="C95" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D95" s="148" t="s">
+      <c r="D95" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="E95" s="140">
+      <c r="E95" s="137">
         <v>0.78</v>
       </c>
-      <c r="F95" s="141">
-        <v>0</v>
-      </c>
-      <c r="G95" s="142">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="H95" s="142">
-        <v>0</v>
-      </c>
-      <c r="I95" s="142">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="J95" s="142">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="K95" s="142">
-        <v>0</v>
-      </c>
-      <c r="L95" s="142">
-        <v>0</v>
-      </c>
-      <c r="M95" s="142">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="N95" s="142">
-        <v>0</v>
-      </c>
-      <c r="O95" s="143">
-        <v>13.92</v>
+      <c r="F95" s="138">
+        <v>0</v>
+      </c>
+      <c r="G95" s="153">
+        <v>5.96</v>
+      </c>
+      <c r="H95" s="153">
+        <v>0</v>
+      </c>
+      <c r="I95" s="161">
+        <v>0</v>
+      </c>
+      <c r="J95" s="161">
+        <v>0</v>
+      </c>
+      <c r="K95" s="161">
+        <v>0</v>
+      </c>
+      <c r="L95" s="161">
+        <v>0</v>
+      </c>
+      <c r="M95" s="161">
+        <v>0</v>
+      </c>
+      <c r="N95" s="161">
+        <v>0</v>
+      </c>
+      <c r="O95" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="156"/>
-      <c r="B96" s="159"/>
-      <c r="C96" s="146">
+      <c r="A96" s="144"/>
+      <c r="B96" s="147"/>
+      <c r="C96" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D96" s="148" t="s">
+      <c r="D96" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="140">
+      <c r="E96" s="137">
         <v>0.77</v>
       </c>
-      <c r="F96" s="141">
-        <v>0</v>
-      </c>
-      <c r="G96" s="142">
-        <v>4.96</v>
-      </c>
-      <c r="H96" s="142">
-        <v>0</v>
-      </c>
-      <c r="I96" s="142">
-        <v>16.52</v>
-      </c>
-      <c r="J96" s="142">
-        <v>8.26</v>
-      </c>
-      <c r="K96" s="142">
-        <v>0</v>
-      </c>
-      <c r="L96" s="142">
-        <v>0</v>
-      </c>
-      <c r="M96" s="142">
-        <v>8.26</v>
-      </c>
-      <c r="N96" s="142">
-        <v>0</v>
-      </c>
-      <c r="O96" s="143">
-        <v>13.74</v>
+      <c r="F96" s="138">
+        <v>0</v>
+      </c>
+      <c r="G96" s="153">
+        <v>5.89</v>
+      </c>
+      <c r="H96" s="153">
+        <v>0</v>
+      </c>
+      <c r="I96" s="161">
+        <v>0</v>
+      </c>
+      <c r="J96" s="161">
+        <v>0</v>
+      </c>
+      <c r="K96" s="161">
+        <v>0</v>
+      </c>
+      <c r="L96" s="161">
+        <v>0</v>
+      </c>
+      <c r="M96" s="161">
+        <v>0</v>
+      </c>
+      <c r="N96" s="161">
+        <v>0</v>
+      </c>
+      <c r="O96" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="156"/>
-      <c r="B97" s="159"/>
-      <c r="C97" s="146">
+      <c r="A97" s="144"/>
+      <c r="B97" s="147"/>
+      <c r="C97" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D97" s="148" t="s">
+      <c r="D97" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="140">
+      <c r="E97" s="137">
         <v>0.74</v>
       </c>
-      <c r="F97" s="141">
-        <v>0</v>
-      </c>
-      <c r="G97" s="142">
-        <v>4.76</v>
-      </c>
-      <c r="H97" s="142">
-        <v>0</v>
-      </c>
-      <c r="I97" s="142">
-        <v>15.88</v>
-      </c>
-      <c r="J97" s="142">
-        <v>7.94</v>
-      </c>
-      <c r="K97" s="142">
-        <v>0</v>
-      </c>
-      <c r="L97" s="142">
-        <v>0</v>
-      </c>
-      <c r="M97" s="142">
-        <v>7.94</v>
-      </c>
-      <c r="N97" s="142">
-        <v>0</v>
-      </c>
-      <c r="O97" s="143">
-        <v>13.2</v>
+      <c r="F97" s="138">
+        <v>0</v>
+      </c>
+      <c r="G97" s="153">
+        <v>5.66</v>
+      </c>
+      <c r="H97" s="153">
+        <v>0</v>
+      </c>
+      <c r="I97" s="161">
+        <v>0</v>
+      </c>
+      <c r="J97" s="161">
+        <v>0</v>
+      </c>
+      <c r="K97" s="161">
+        <v>0</v>
+      </c>
+      <c r="L97" s="161">
+        <v>0</v>
+      </c>
+      <c r="M97" s="161">
+        <v>8.06</v>
+      </c>
+      <c r="N97" s="161">
+        <v>0</v>
+      </c>
+      <c r="O97" s="153">
+        <v>29.57</v>
       </c>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="156"/>
-      <c r="B98" s="159"/>
-      <c r="C98" s="146">
+      <c r="A98" s="144"/>
+      <c r="B98" s="147"/>
+      <c r="C98" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D98" s="148" t="s">
+      <c r="D98" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="E98" s="140">
+      <c r="E98" s="137">
         <v>0.74</v>
       </c>
-      <c r="F98" s="141">
-        <v>0</v>
-      </c>
-      <c r="G98" s="142">
-        <v>4.76</v>
-      </c>
-      <c r="H98" s="142">
-        <v>0</v>
-      </c>
-      <c r="I98" s="142">
-        <v>15.88</v>
-      </c>
-      <c r="J98" s="142">
-        <v>7.94</v>
-      </c>
-      <c r="K98" s="142">
-        <v>0</v>
-      </c>
-      <c r="L98" s="142">
-        <v>0</v>
-      </c>
-      <c r="M98" s="142">
-        <v>7.94</v>
-      </c>
-      <c r="N98" s="142">
-        <v>0</v>
-      </c>
-      <c r="O98" s="143">
-        <v>13.2</v>
+      <c r="F98" s="138">
+        <v>0</v>
+      </c>
+      <c r="G98" s="153">
+        <v>5.66</v>
+      </c>
+      <c r="H98" s="153">
+        <v>0</v>
+      </c>
+      <c r="I98" s="161">
+        <v>0</v>
+      </c>
+      <c r="J98" s="161">
+        <v>0</v>
+      </c>
+      <c r="K98" s="161">
+        <v>0</v>
+      </c>
+      <c r="L98" s="161">
+        <v>0</v>
+      </c>
+      <c r="M98" s="161">
+        <v>0</v>
+      </c>
+      <c r="N98" s="161">
+        <v>0</v>
+      </c>
+      <c r="O98" s="153">
+        <v>29.57</v>
       </c>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="156"/>
-      <c r="B99" s="159"/>
-      <c r="C99" s="146">
+      <c r="A99" s="144"/>
+      <c r="B99" s="147"/>
+      <c r="C99" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D99" s="148" t="s">
+      <c r="D99" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="E99" s="140">
+      <c r="E99" s="137">
         <v>0.72</v>
       </c>
-      <c r="F99" s="141">
-        <v>0</v>
-      </c>
-      <c r="G99" s="142">
-        <v>4.63</v>
-      </c>
-      <c r="H99" s="142">
-        <v>0</v>
-      </c>
-      <c r="I99" s="142">
-        <v>15.45</v>
-      </c>
-      <c r="J99" s="142">
-        <v>7.72</v>
-      </c>
-      <c r="K99" s="142">
-        <v>0</v>
-      </c>
-      <c r="L99" s="142">
-        <v>0</v>
-      </c>
-      <c r="M99" s="142">
-        <v>7.72</v>
-      </c>
-      <c r="N99" s="142">
-        <v>0</v>
-      </c>
-      <c r="O99" s="143">
-        <v>12.85</v>
+      <c r="F99" s="138">
+        <v>0</v>
+      </c>
+      <c r="G99" s="153">
+        <v>5.51</v>
+      </c>
+      <c r="H99" s="153">
+        <v>0</v>
+      </c>
+      <c r="I99" s="161">
+        <v>0</v>
+      </c>
+      <c r="J99" s="161">
+        <v>0</v>
+      </c>
+      <c r="K99" s="161">
+        <v>0</v>
+      </c>
+      <c r="L99" s="161">
+        <v>0</v>
+      </c>
+      <c r="M99" s="161">
+        <v>0</v>
+      </c>
+      <c r="N99" s="161">
+        <v>0</v>
+      </c>
+      <c r="O99" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="156"/>
-      <c r="B100" s="159"/>
-      <c r="C100" s="146">
+      <c r="A100" s="144"/>
+      <c r="B100" s="147"/>
+      <c r="C100" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D100" s="148" t="s">
+      <c r="D100" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="E100" s="140">
+      <c r="E100" s="137">
         <v>0.7</v>
       </c>
-      <c r="F100" s="141">
-        <v>0</v>
-      </c>
-      <c r="G100" s="142">
-        <v>4.51</v>
-      </c>
-      <c r="H100" s="142">
-        <v>0</v>
-      </c>
-      <c r="I100" s="142">
-        <v>15.02</v>
-      </c>
-      <c r="J100" s="142">
-        <v>7.51</v>
-      </c>
-      <c r="K100" s="142">
-        <v>0</v>
-      </c>
-      <c r="L100" s="142">
-        <v>0</v>
-      </c>
-      <c r="M100" s="142">
-        <v>7.51</v>
-      </c>
-      <c r="N100" s="142">
-        <v>0</v>
-      </c>
-      <c r="O100" s="143">
-        <v>12.49</v>
+      <c r="F100" s="138">
+        <v>0</v>
+      </c>
+      <c r="G100" s="153">
+        <v>0</v>
+      </c>
+      <c r="H100" s="153">
+        <v>0</v>
+      </c>
+      <c r="I100" s="161">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J100" s="161">
+        <v>11.1</v>
+      </c>
+      <c r="K100" s="161">
+        <v>0</v>
+      </c>
+      <c r="L100" s="161">
+        <v>0</v>
+      </c>
+      <c r="M100" s="161">
+        <v>7.63</v>
+      </c>
+      <c r="N100" s="161">
+        <v>0</v>
+      </c>
+      <c r="O100" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="157"/>
-      <c r="B101" s="160"/>
-      <c r="C101" s="146">
+      <c r="A101" s="145"/>
+      <c r="B101" s="148"/>
+      <c r="C101" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D101" s="148" t="s">
+      <c r="D101" s="155" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="140">
+      <c r="E101" s="137">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F101" s="141">
-        <v>0</v>
-      </c>
-      <c r="G101" s="142">
-        <v>3.67</v>
-      </c>
-      <c r="H101" s="142">
-        <v>0</v>
-      </c>
-      <c r="I101" s="142">
-        <v>12.23</v>
-      </c>
-      <c r="J101" s="142">
-        <v>6.11</v>
-      </c>
-      <c r="K101" s="142">
-        <v>0</v>
-      </c>
-      <c r="L101" s="142">
-        <v>0</v>
-      </c>
-      <c r="M101" s="142">
-        <v>6.11</v>
-      </c>
-      <c r="N101" s="142">
-        <v>0</v>
-      </c>
-      <c r="O101" s="143">
-        <v>10.17</v>
+      <c r="F101" s="138">
+        <v>0</v>
+      </c>
+      <c r="G101" s="153">
+        <v>0</v>
+      </c>
+      <c r="H101" s="153">
+        <v>0</v>
+      </c>
+      <c r="I101" s="161">
+        <v>7.09</v>
+      </c>
+      <c r="J101" s="161">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="K101" s="161">
+        <v>0</v>
+      </c>
+      <c r="L101" s="161">
+        <v>0</v>
+      </c>
+      <c r="M101" s="161">
+        <v>6.21</v>
+      </c>
+      <c r="N101" s="161">
+        <v>0</v>
+      </c>
+      <c r="O101" s="153">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="155" t="s">
+      <c r="A102" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B102" s="158" t="s">
+      <c r="B102" s="146" t="s">
         <v>88</v>
       </c>
       <c r="C102" s="132">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D102" s="147" t="s">
+      <c r="D102" s="154" t="s">
         <v>137</v>
       </c>
       <c r="E102" s="134">
         <v>0.76</v>
       </c>
-      <c r="F102" s="135">
-        <v>0</v>
-      </c>
-      <c r="G102" s="136">
-        <v>0</v>
-      </c>
-      <c r="H102" s="136">
-        <v>0</v>
-      </c>
-      <c r="I102" s="136">
-        <v>0</v>
-      </c>
-      <c r="J102" s="136">
-        <v>47.96</v>
-      </c>
-      <c r="K102" s="136">
-        <v>0</v>
-      </c>
-      <c r="L102" s="136">
-        <v>0</v>
-      </c>
-      <c r="M102" s="136">
-        <v>0</v>
-      </c>
-      <c r="N102" s="136">
-        <v>60.46</v>
-      </c>
-      <c r="O102" s="137">
+      <c r="F102" s="151">
+        <v>0</v>
+      </c>
+      <c r="G102" s="152">
+        <v>0</v>
+      </c>
+      <c r="H102" s="152">
+        <v>0</v>
+      </c>
+      <c r="I102" s="162">
+        <v>0</v>
+      </c>
+      <c r="J102" s="162">
+        <v>13.05</v>
+      </c>
+      <c r="K102" s="162">
+        <v>0</v>
+      </c>
+      <c r="L102" s="162">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="M102" s="162">
+        <v>0</v>
+      </c>
+      <c r="N102" s="162">
+        <v>5.29</v>
+      </c>
+      <c r="O102" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="156"/>
-      <c r="B103" s="159"/>
-      <c r="C103" s="146">
+      <c r="A103" s="144"/>
+      <c r="B103" s="147"/>
+      <c r="C103" s="140">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D103" s="148" t="s">
+      <c r="D103" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="E103" s="140">
+      <c r="E103" s="137">
         <v>0.73</v>
       </c>
-      <c r="F103" s="141">
-        <v>0</v>
-      </c>
-      <c r="G103" s="142">
-        <v>0</v>
-      </c>
-      <c r="H103" s="142">
-        <v>0</v>
-      </c>
-      <c r="I103" s="142">
-        <v>0</v>
-      </c>
-      <c r="J103" s="142">
-        <v>46.07</v>
-      </c>
-      <c r="K103" s="142">
-        <v>0</v>
-      </c>
-      <c r="L103" s="142">
-        <v>0</v>
-      </c>
-      <c r="M103" s="142">
-        <v>0</v>
-      </c>
-      <c r="N103" s="142">
-        <v>58.07</v>
-      </c>
-      <c r="O103" s="143">
+      <c r="F103" s="138">
+        <v>0</v>
+      </c>
+      <c r="G103" s="153">
+        <v>0</v>
+      </c>
+      <c r="H103" s="153">
+        <v>0</v>
+      </c>
+      <c r="I103" s="161">
+        <v>0</v>
+      </c>
+      <c r="J103" s="161">
+        <v>0</v>
+      </c>
+      <c r="K103" s="161">
+        <v>0</v>
+      </c>
+      <c r="L103" s="161">
+        <v>0</v>
+      </c>
+      <c r="M103" s="161">
+        <v>0</v>
+      </c>
+      <c r="N103" s="161">
+        <v>5.08</v>
+      </c>
+      <c r="O103" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="161"/>
-      <c r="B104" s="162"/>
-      <c r="C104" s="149">
+      <c r="A104" s="149"/>
+      <c r="B104" s="150"/>
+      <c r="C104" s="140">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D104" s="150" t="s">
+      <c r="D104" s="155" t="s">
         <v>139</v>
       </c>
-      <c r="E104" s="151">
+      <c r="E104" s="137">
         <v>0.63</v>
       </c>
-      <c r="F104" s="152">
+      <c r="F104" s="138">
         <v>0</v>
       </c>
       <c r="G104" s="153">
@@ -10596,41 +10578,45 @@
       <c r="H104" s="153">
         <v>0</v>
       </c>
-      <c r="I104" s="153">
-        <v>0</v>
-      </c>
-      <c r="J104" s="153">
-        <v>39.76</v>
-      </c>
-      <c r="K104" s="153">
-        <v>0</v>
-      </c>
-      <c r="L104" s="153">
-        <v>0</v>
-      </c>
-      <c r="M104" s="153">
-        <v>0</v>
-      </c>
-      <c r="N104" s="153">
-        <v>50.12</v>
-      </c>
-      <c r="O104" s="154">
+      <c r="I104" s="161">
+        <v>0</v>
+      </c>
+      <c r="J104" s="161">
+        <v>0</v>
+      </c>
+      <c r="K104" s="161">
+        <v>0</v>
+      </c>
+      <c r="L104" s="161">
+        <v>0</v>
+      </c>
+      <c r="M104" s="161">
+        <v>0</v>
+      </c>
+      <c r="N104" s="161">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="O104" s="153">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B54:B60"/>
     <mergeCell ref="B61:B65"/>
     <mergeCell ref="A66:A69"/>
@@ -10643,27 +10629,23 @@
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B94:B101"/>
     <mergeCell ref="B102:B104"/>
     <mergeCell ref="B85:B91"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>

--- a/UVA模型数据底表.xlsx
+++ b/UVA模型数据底表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob.li/Documents/ROI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8781529-B952-CE4B-B3C0-CECA3E9F0183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF4ED67-9450-CE48-B15E-9C97B3AD5123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="86">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,12 +972,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="146">
     <border>
@@ -2538,7 +2532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2968,6 +2962,36 @@
     <xf numFmtId="10" fontId="7" fillId="84" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="84" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="84" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="84" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="84" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="84" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="84" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="84" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="84" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="84" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2977,52 +3001,13 @@
     <xf numFmtId="0" fontId="6" fillId="84" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="84" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="84" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="84" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="84" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="84" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="84" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="85" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="85" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="85" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6028,8 +6013,8 @@
   </sheetPr>
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -6088,10 +6073,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="151" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="132">
@@ -6103,40 +6088,40 @@
       <c r="E2" s="134">
         <v>0.82</v>
       </c>
-      <c r="F2" s="151">
-        <v>0</v>
-      </c>
-      <c r="G2" s="152">
+      <c r="F2" s="143">
+        <v>0</v>
+      </c>
+      <c r="G2" s="144">
         <v>41.82</v>
       </c>
-      <c r="H2" s="152">
-        <v>0</v>
-      </c>
-      <c r="I2" s="152">
+      <c r="H2" s="144">
+        <v>0</v>
+      </c>
+      <c r="I2" s="144">
         <v>45.32</v>
       </c>
-      <c r="J2" s="152">
+      <c r="J2" s="144">
         <v>63.89</v>
       </c>
-      <c r="K2" s="152">
+      <c r="K2" s="144">
         <v>33.94</v>
       </c>
-      <c r="L2" s="152">
+      <c r="L2" s="144">
         <v>53.72</v>
       </c>
-      <c r="M2" s="152">
-        <v>0</v>
-      </c>
-      <c r="N2" s="152">
+      <c r="M2" s="144">
+        <v>0</v>
+      </c>
+      <c r="N2" s="144">
         <v>36.94</v>
       </c>
-      <c r="O2" s="152">
+      <c r="O2" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="144"/>
-      <c r="B3" s="147"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6149,37 +6134,37 @@
       <c r="F3" s="138">
         <v>0</v>
       </c>
-      <c r="G3" s="153">
-        <v>0</v>
-      </c>
-      <c r="H3" s="153">
-        <v>0</v>
-      </c>
-      <c r="I3" s="153">
+      <c r="G3" s="145">
+        <v>0</v>
+      </c>
+      <c r="H3" s="145">
+        <v>0</v>
+      </c>
+      <c r="I3" s="145">
         <v>43.11</v>
       </c>
-      <c r="J3" s="153">
+      <c r="J3" s="145">
         <v>60.77</v>
       </c>
-      <c r="K3" s="153">
-        <v>0</v>
-      </c>
-      <c r="L3" s="153">
+      <c r="K3" s="145">
+        <v>0</v>
+      </c>
+      <c r="L3" s="145">
         <v>51.1</v>
       </c>
-      <c r="M3" s="153">
+      <c r="M3" s="145">
         <v>56.67</v>
       </c>
-      <c r="N3" s="153">
-        <v>0</v>
-      </c>
-      <c r="O3" s="153">
+      <c r="N3" s="145">
+        <v>0</v>
+      </c>
+      <c r="O3" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="144"/>
-      <c r="B4" s="147"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6192,37 +6177,37 @@
       <c r="F4" s="138">
         <v>37.44</v>
       </c>
-      <c r="G4" s="153">
+      <c r="G4" s="145">
         <v>38.76</v>
       </c>
-      <c r="H4" s="153">
-        <v>0</v>
-      </c>
-      <c r="I4" s="153">
+      <c r="H4" s="145">
+        <v>0</v>
+      </c>
+      <c r="I4" s="145">
         <v>42.01</v>
       </c>
-      <c r="J4" s="153">
+      <c r="J4" s="145">
         <v>59.21</v>
       </c>
-      <c r="K4" s="153">
-        <v>0</v>
-      </c>
-      <c r="L4" s="153">
+      <c r="K4" s="145">
+        <v>0</v>
+      </c>
+      <c r="L4" s="145">
         <v>49.79</v>
       </c>
-      <c r="M4" s="153">
-        <v>0</v>
-      </c>
-      <c r="N4" s="153">
+      <c r="M4" s="145">
+        <v>0</v>
+      </c>
+      <c r="N4" s="145">
         <v>34.24</v>
       </c>
-      <c r="O4" s="153">
+      <c r="O4" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="144"/>
-      <c r="B5" s="147"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="152"/>
       <c r="C5" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6235,37 +6220,37 @@
       <c r="F5" s="138">
         <v>0</v>
       </c>
-      <c r="G5" s="153">
+      <c r="G5" s="145">
         <v>36.72</v>
       </c>
-      <c r="H5" s="153">
-        <v>0</v>
-      </c>
-      <c r="I5" s="153">
-        <v>0</v>
-      </c>
-      <c r="J5" s="153">
+      <c r="H5" s="145">
+        <v>0</v>
+      </c>
+      <c r="I5" s="145">
+        <v>0</v>
+      </c>
+      <c r="J5" s="145">
         <v>56.1</v>
       </c>
-      <c r="K5" s="153">
-        <v>0</v>
-      </c>
-      <c r="L5" s="153">
-        <v>0</v>
-      </c>
-      <c r="M5" s="153">
+      <c r="K5" s="145">
+        <v>0</v>
+      </c>
+      <c r="L5" s="145">
+        <v>0</v>
+      </c>
+      <c r="M5" s="145">
         <v>52.31</v>
       </c>
-      <c r="N5" s="153">
+      <c r="N5" s="145">
         <v>32.43</v>
       </c>
-      <c r="O5" s="153">
+      <c r="O5" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="144"/>
-      <c r="B6" s="147"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6278,37 +6263,37 @@
       <c r="F6" s="138">
         <v>34.479999999999997</v>
       </c>
-      <c r="G6" s="153">
+      <c r="G6" s="145">
         <v>35.700000000000003</v>
       </c>
-      <c r="H6" s="153">
-        <v>0</v>
-      </c>
-      <c r="I6" s="153">
-        <v>0</v>
-      </c>
-      <c r="J6" s="153">
+      <c r="H6" s="145">
+        <v>0</v>
+      </c>
+      <c r="I6" s="145">
+        <v>0</v>
+      </c>
+      <c r="J6" s="145">
         <v>54.54</v>
       </c>
-      <c r="K6" s="153">
-        <v>0</v>
-      </c>
-      <c r="L6" s="153">
+      <c r="K6" s="145">
+        <v>0</v>
+      </c>
+      <c r="L6" s="145">
         <v>45.86</v>
       </c>
-      <c r="M6" s="153">
+      <c r="M6" s="145">
         <v>50.86</v>
       </c>
-      <c r="N6" s="153">
+      <c r="N6" s="145">
         <v>31.53</v>
       </c>
-      <c r="O6" s="153">
+      <c r="O6" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="144"/>
-      <c r="B7" s="147"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6321,37 +6306,37 @@
       <c r="F7" s="138">
         <v>0</v>
       </c>
-      <c r="G7" s="153">
+      <c r="G7" s="145">
         <v>34.17</v>
       </c>
-      <c r="H7" s="153">
-        <v>0</v>
-      </c>
-      <c r="I7" s="153">
+      <c r="H7" s="145">
+        <v>0</v>
+      </c>
+      <c r="I7" s="145">
         <v>37.03</v>
       </c>
-      <c r="J7" s="153">
+      <c r="J7" s="145">
         <v>52.2</v>
       </c>
-      <c r="K7" s="153">
+      <c r="K7" s="145">
         <v>27.73</v>
       </c>
-      <c r="L7" s="153">
-        <v>0</v>
-      </c>
-      <c r="M7" s="153">
-        <v>0</v>
-      </c>
-      <c r="N7" s="153">
-        <v>0</v>
-      </c>
-      <c r="O7" s="153">
+      <c r="L7" s="145">
+        <v>0</v>
+      </c>
+      <c r="M7" s="145">
+        <v>0</v>
+      </c>
+      <c r="N7" s="145">
+        <v>0</v>
+      </c>
+      <c r="O7" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="144"/>
-      <c r="B8" s="147"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6364,37 +6349,37 @@
       <c r="F8" s="138">
         <v>0</v>
       </c>
-      <c r="G8" s="153">
+      <c r="G8" s="145">
         <v>33.659999999999997</v>
       </c>
-      <c r="H8" s="153">
-        <v>0</v>
-      </c>
-      <c r="I8" s="153">
+      <c r="H8" s="145">
+        <v>0</v>
+      </c>
+      <c r="I8" s="145">
         <v>36.479999999999997</v>
       </c>
-      <c r="J8" s="153">
+      <c r="J8" s="145">
         <v>51.42</v>
       </c>
-      <c r="K8" s="153">
-        <v>0</v>
-      </c>
-      <c r="L8" s="153">
+      <c r="K8" s="145">
+        <v>0</v>
+      </c>
+      <c r="L8" s="145">
         <v>43.24</v>
       </c>
-      <c r="M8" s="153">
-        <v>0</v>
-      </c>
-      <c r="N8" s="153">
-        <v>0</v>
-      </c>
-      <c r="O8" s="153">
+      <c r="M8" s="145">
+        <v>0</v>
+      </c>
+      <c r="N8" s="145">
+        <v>0</v>
+      </c>
+      <c r="O8" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="144"/>
-      <c r="B9" s="147"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6407,37 +6392,37 @@
       <c r="F9" s="138">
         <v>32.020000000000003</v>
       </c>
-      <c r="G9" s="153">
+      <c r="G9" s="145">
         <v>33.15</v>
       </c>
-      <c r="H9" s="153">
-        <v>0</v>
-      </c>
-      <c r="I9" s="153">
+      <c r="H9" s="145">
+        <v>0</v>
+      </c>
+      <c r="I9" s="145">
         <v>35.93</v>
       </c>
-      <c r="J9" s="153">
+      <c r="J9" s="145">
         <v>50.64</v>
       </c>
-      <c r="K9" s="153">
+      <c r="K9" s="145">
         <v>26.9</v>
       </c>
-      <c r="L9" s="153">
+      <c r="L9" s="145">
         <v>42.58</v>
       </c>
-      <c r="M9" s="153">
-        <v>0</v>
-      </c>
-      <c r="N9" s="153">
+      <c r="M9" s="145">
+        <v>0</v>
+      </c>
+      <c r="N9" s="145">
         <v>29.28</v>
       </c>
-      <c r="O9" s="153">
+      <c r="O9" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="144"/>
-      <c r="B10" s="147"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6450,37 +6435,37 @@
       <c r="F10" s="138">
         <v>28.57</v>
       </c>
-      <c r="G10" s="153">
+      <c r="G10" s="145">
         <v>29.58</v>
       </c>
-      <c r="H10" s="153">
-        <v>0</v>
-      </c>
-      <c r="I10" s="153">
+      <c r="H10" s="145">
+        <v>0</v>
+      </c>
+      <c r="I10" s="145">
         <v>32.06</v>
       </c>
-      <c r="J10" s="153">
-        <v>0</v>
-      </c>
-      <c r="K10" s="153">
-        <v>0</v>
-      </c>
-      <c r="L10" s="153">
-        <v>0</v>
-      </c>
-      <c r="M10" s="153">
-        <v>0</v>
-      </c>
-      <c r="N10" s="153">
+      <c r="J10" s="145">
+        <v>0</v>
+      </c>
+      <c r="K10" s="145">
+        <v>0</v>
+      </c>
+      <c r="L10" s="145">
+        <v>0</v>
+      </c>
+      <c r="M10" s="145">
+        <v>0</v>
+      </c>
+      <c r="N10" s="145">
         <v>26.13</v>
       </c>
-      <c r="O10" s="153">
+      <c r="O10" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="144"/>
-      <c r="B11" s="147"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6493,37 +6478,37 @@
       <c r="F11" s="138">
         <v>22.66</v>
       </c>
-      <c r="G11" s="153">
+      <c r="G11" s="145">
         <v>23.46</v>
       </c>
-      <c r="H11" s="153">
-        <v>0</v>
-      </c>
-      <c r="I11" s="161">
+      <c r="H11" s="145">
+        <v>0</v>
+      </c>
+      <c r="I11" s="145">
         <v>25.43</v>
       </c>
-      <c r="J11" s="161">
+      <c r="J11" s="145">
         <v>35.840000000000003</v>
       </c>
-      <c r="K11" s="161">
-        <v>0</v>
-      </c>
-      <c r="L11" s="161">
+      <c r="K11" s="145">
+        <v>0</v>
+      </c>
+      <c r="L11" s="145">
         <v>30.14</v>
       </c>
-      <c r="M11" s="161">
-        <v>0</v>
-      </c>
-      <c r="N11" s="161">
+      <c r="M11" s="145">
+        <v>0</v>
+      </c>
+      <c r="N11" s="145">
         <v>20.72</v>
       </c>
-      <c r="O11" s="153">
+      <c r="O11" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="145"/>
-      <c r="B12" s="148"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6536,39 +6521,39 @@
       <c r="F12" s="138">
         <v>0</v>
       </c>
-      <c r="G12" s="153">
+      <c r="G12" s="145">
         <v>19.38</v>
       </c>
-      <c r="H12" s="153">
-        <v>0</v>
-      </c>
-      <c r="I12" s="161">
+      <c r="H12" s="145">
+        <v>0</v>
+      </c>
+      <c r="I12" s="145">
         <v>21</v>
       </c>
-      <c r="J12" s="161">
-        <v>0</v>
-      </c>
-      <c r="K12" s="161">
+      <c r="J12" s="145">
+        <v>0</v>
+      </c>
+      <c r="K12" s="145">
         <v>15.73</v>
       </c>
-      <c r="L12" s="161">
+      <c r="L12" s="145">
         <v>24.9</v>
       </c>
-      <c r="M12" s="161">
+      <c r="M12" s="145">
         <v>27.61</v>
       </c>
-      <c r="N12" s="161">
+      <c r="N12" s="145">
         <v>17.12</v>
       </c>
-      <c r="O12" s="153">
+      <c r="O12" s="145">
         <v>24.13</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="151" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="132">
@@ -6580,40 +6565,40 @@
       <c r="E13" s="134">
         <v>0.91</v>
       </c>
-      <c r="F13" s="151">
-        <v>0</v>
-      </c>
-      <c r="G13" s="152">
-        <v>0</v>
-      </c>
-      <c r="H13" s="152">
-        <v>0</v>
-      </c>
-      <c r="I13" s="162">
+      <c r="F13" s="143">
+        <v>0</v>
+      </c>
+      <c r="G13" s="144">
+        <v>0</v>
+      </c>
+      <c r="H13" s="144">
+        <v>0</v>
+      </c>
+      <c r="I13" s="144">
         <v>89.89</v>
       </c>
-      <c r="J13" s="162">
+      <c r="J13" s="144">
         <v>52.42</v>
       </c>
-      <c r="K13" s="162">
-        <v>0</v>
-      </c>
-      <c r="L13" s="162">
+      <c r="K13" s="144">
+        <v>0</v>
+      </c>
+      <c r="L13" s="144">
         <v>12.75</v>
       </c>
-      <c r="M13" s="162">
-        <v>0</v>
-      </c>
-      <c r="N13" s="162">
+      <c r="M13" s="144">
+        <v>0</v>
+      </c>
+      <c r="N13" s="144">
         <v>17.36</v>
       </c>
-      <c r="O13" s="152">
+      <c r="O13" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="144"/>
-      <c r="B14" s="147"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="140">
         <v>5.1799999999999999E-2</v>
       </c>
@@ -6626,37 +6611,37 @@
       <c r="F14" s="138">
         <v>0</v>
       </c>
-      <c r="G14" s="153">
-        <v>0</v>
-      </c>
-      <c r="H14" s="153">
-        <v>0</v>
-      </c>
-      <c r="I14" s="161">
+      <c r="G14" s="145">
+        <v>0</v>
+      </c>
+      <c r="H14" s="145">
+        <v>0</v>
+      </c>
+      <c r="I14" s="145">
         <v>61.24</v>
       </c>
-      <c r="J14" s="161">
+      <c r="J14" s="145">
         <v>35.72</v>
       </c>
-      <c r="K14" s="161">
-        <v>0</v>
-      </c>
-      <c r="L14" s="161">
+      <c r="K14" s="145">
+        <v>0</v>
+      </c>
+      <c r="L14" s="145">
         <v>8.69</v>
       </c>
-      <c r="M14" s="161">
-        <v>0</v>
-      </c>
-      <c r="N14" s="161">
+      <c r="M14" s="145">
+        <v>0</v>
+      </c>
+      <c r="N14" s="145">
         <v>11.83</v>
       </c>
-      <c r="O14" s="153">
+      <c r="O14" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="145"/>
-      <c r="B15" s="148"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="140">
         <v>5.1799999999999999E-2</v>
       </c>
@@ -6669,39 +6654,39 @@
       <c r="F15" s="138">
         <v>0</v>
       </c>
-      <c r="G15" s="153">
-        <v>0</v>
-      </c>
-      <c r="H15" s="153">
-        <v>0</v>
-      </c>
-      <c r="I15" s="161">
+      <c r="G15" s="145">
+        <v>0</v>
+      </c>
+      <c r="H15" s="145">
+        <v>0</v>
+      </c>
+      <c r="I15" s="145">
         <v>61.24</v>
       </c>
-      <c r="J15" s="161">
+      <c r="J15" s="145">
         <v>35.72</v>
       </c>
-      <c r="K15" s="161">
-        <v>0</v>
-      </c>
-      <c r="L15" s="161">
+      <c r="K15" s="145">
+        <v>0</v>
+      </c>
+      <c r="L15" s="145">
         <v>8.69</v>
       </c>
-      <c r="M15" s="161">
-        <v>0</v>
-      </c>
-      <c r="N15" s="161">
+      <c r="M15" s="145">
+        <v>0</v>
+      </c>
+      <c r="N15" s="145">
         <v>11.83</v>
       </c>
-      <c r="O15" s="153">
+      <c r="O15" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="151" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="132">
@@ -6713,40 +6698,40 @@
       <c r="E16" s="134">
         <v>0.92</v>
       </c>
-      <c r="F16" s="151">
-        <v>0</v>
-      </c>
-      <c r="G16" s="152">
+      <c r="F16" s="143">
+        <v>0</v>
+      </c>
+      <c r="G16" s="144">
         <v>26.17</v>
       </c>
-      <c r="H16" s="152">
+      <c r="H16" s="144">
         <v>15.82</v>
       </c>
-      <c r="I16" s="162">
+      <c r="I16" s="144">
         <v>53.18</v>
       </c>
-      <c r="J16" s="162">
-        <v>0</v>
-      </c>
-      <c r="K16" s="162">
+      <c r="J16" s="144">
+        <v>0</v>
+      </c>
+      <c r="K16" s="144">
         <v>18.690000000000001</v>
       </c>
-      <c r="L16" s="162">
+      <c r="L16" s="144">
         <v>31.03</v>
       </c>
-      <c r="M16" s="162">
+      <c r="M16" s="144">
         <v>27.96</v>
       </c>
-      <c r="N16" s="162">
+      <c r="N16" s="144">
         <v>32.36</v>
       </c>
-      <c r="O16" s="152">
+      <c r="O16" s="144">
         <v>24.67</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="144"/>
-      <c r="B17" s="147"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6759,37 +6744,37 @@
       <c r="F17" s="138">
         <v>0</v>
       </c>
-      <c r="G17" s="153">
+      <c r="G17" s="145">
         <v>24.75</v>
       </c>
-      <c r="H17" s="153">
+      <c r="H17" s="145">
         <v>14.96</v>
       </c>
-      <c r="I17" s="161">
+      <c r="I17" s="145">
         <v>50.29</v>
       </c>
-      <c r="J17" s="161">
-        <v>0</v>
-      </c>
-      <c r="K17" s="161">
+      <c r="J17" s="145">
+        <v>0</v>
+      </c>
+      <c r="K17" s="145">
         <v>17.68</v>
       </c>
-      <c r="L17" s="161">
+      <c r="L17" s="145">
         <v>29.35</v>
       </c>
-      <c r="M17" s="161">
+      <c r="M17" s="145">
         <v>26.44</v>
       </c>
-      <c r="N17" s="161">
+      <c r="N17" s="145">
         <v>30.6</v>
       </c>
-      <c r="O17" s="153">
+      <c r="O17" s="145">
         <v>23.33</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="144"/>
-      <c r="B18" s="147"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6802,37 +6787,37 @@
       <c r="F18" s="138">
         <v>0</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="145">
         <v>22.19</v>
       </c>
-      <c r="H18" s="153">
+      <c r="H18" s="145">
         <v>13.42</v>
       </c>
-      <c r="I18" s="161">
+      <c r="I18" s="145">
         <v>45.09</v>
       </c>
-      <c r="J18" s="161">
-        <v>0</v>
-      </c>
-      <c r="K18" s="161">
+      <c r="J18" s="145">
+        <v>0</v>
+      </c>
+      <c r="K18" s="145">
         <v>15.85</v>
       </c>
-      <c r="L18" s="161">
+      <c r="L18" s="145">
         <v>26.31</v>
       </c>
-      <c r="M18" s="161">
+      <c r="M18" s="145">
         <v>23.71</v>
       </c>
-      <c r="N18" s="161">
+      <c r="N18" s="145">
         <v>27.44</v>
       </c>
-      <c r="O18" s="153">
+      <c r="O18" s="145">
         <v>20.91</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="144"/>
-      <c r="B19" s="147"/>
+      <c r="A19" s="156"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6845,37 +6830,37 @@
       <c r="F19" s="138">
         <v>0</v>
       </c>
-      <c r="G19" s="153">
+      <c r="G19" s="145">
         <v>19.34</v>
       </c>
-      <c r="H19" s="153">
+      <c r="H19" s="145">
         <v>11.7</v>
       </c>
-      <c r="I19" s="161">
+      <c r="I19" s="145">
         <v>39.31</v>
       </c>
-      <c r="J19" s="161">
-        <v>0</v>
-      </c>
-      <c r="K19" s="161">
+      <c r="J19" s="145">
+        <v>0</v>
+      </c>
+      <c r="K19" s="145">
         <v>13.82</v>
       </c>
-      <c r="L19" s="161">
+      <c r="L19" s="145">
         <v>22.94</v>
       </c>
-      <c r="M19" s="161">
+      <c r="M19" s="145">
         <v>20.67</v>
       </c>
-      <c r="N19" s="161">
+      <c r="N19" s="145">
         <v>23.92</v>
       </c>
-      <c r="O19" s="153">
+      <c r="O19" s="145">
         <v>18.23</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="144"/>
-      <c r="B20" s="147"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6888,37 +6873,37 @@
       <c r="F20" s="138">
         <v>0</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="145">
         <v>18.21</v>
       </c>
-      <c r="H20" s="153">
+      <c r="H20" s="145">
         <v>11.01</v>
       </c>
-      <c r="I20" s="161">
+      <c r="I20" s="145">
         <v>37</v>
       </c>
-      <c r="J20" s="161">
-        <v>0</v>
-      </c>
-      <c r="K20" s="161">
+      <c r="J20" s="145">
+        <v>0</v>
+      </c>
+      <c r="K20" s="145">
         <v>13</v>
       </c>
-      <c r="L20" s="161">
+      <c r="L20" s="145">
         <v>21.59</v>
       </c>
-      <c r="M20" s="161">
+      <c r="M20" s="145">
         <v>19.45</v>
       </c>
-      <c r="N20" s="161">
+      <c r="N20" s="145">
         <v>22.51</v>
       </c>
-      <c r="O20" s="153">
+      <c r="O20" s="145">
         <v>17.16</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="144"/>
-      <c r="B21" s="147"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6931,37 +6916,37 @@
       <c r="F21" s="138">
         <v>0</v>
       </c>
-      <c r="G21" s="153">
+      <c r="G21" s="145">
         <v>11.09</v>
       </c>
-      <c r="H21" s="153">
+      <c r="H21" s="145">
         <v>6.71</v>
       </c>
-      <c r="I21" s="161">
+      <c r="I21" s="145">
         <v>22.54</v>
       </c>
-      <c r="J21" s="161">
-        <v>0</v>
-      </c>
-      <c r="K21" s="161">
+      <c r="J21" s="145">
+        <v>0</v>
+      </c>
+      <c r="K21" s="145">
         <v>7.92</v>
       </c>
-      <c r="L21" s="161">
+      <c r="L21" s="145">
         <v>13.16</v>
       </c>
-      <c r="M21" s="161">
+      <c r="M21" s="145">
         <v>11.85</v>
       </c>
-      <c r="N21" s="161">
+      <c r="N21" s="145">
         <v>13.72</v>
       </c>
-      <c r="O21" s="153">
+      <c r="O21" s="145">
         <v>10.46</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="145"/>
-      <c r="B22" s="148"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6974,39 +6959,39 @@
       <c r="F22" s="138">
         <v>0</v>
       </c>
-      <c r="G22" s="153">
+      <c r="G22" s="145">
         <v>3.7</v>
       </c>
-      <c r="H22" s="153">
+      <c r="H22" s="145">
         <v>2.2400000000000002</v>
       </c>
-      <c r="I22" s="161">
+      <c r="I22" s="145">
         <v>7.51</v>
       </c>
-      <c r="J22" s="161">
-        <v>0</v>
-      </c>
-      <c r="K22" s="161">
+      <c r="J22" s="145">
+        <v>0</v>
+      </c>
+      <c r="K22" s="145">
         <v>2.64</v>
       </c>
-      <c r="L22" s="161">
+      <c r="L22" s="145">
         <v>4.3899999999999997</v>
       </c>
-      <c r="M22" s="161">
+      <c r="M22" s="145">
         <v>3.95</v>
       </c>
-      <c r="N22" s="161">
+      <c r="N22" s="145">
         <v>4.57</v>
       </c>
-      <c r="O22" s="153">
+      <c r="O22" s="145">
         <v>3.49</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="151" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="132">
@@ -7018,40 +7003,40 @@
       <c r="E23" s="134">
         <v>0.76</v>
       </c>
-      <c r="F23" s="151">
-        <v>0</v>
-      </c>
-      <c r="G23" s="152">
-        <v>0</v>
-      </c>
-      <c r="H23" s="152">
-        <v>0</v>
-      </c>
-      <c r="I23" s="162">
+      <c r="F23" s="143">
+        <v>0</v>
+      </c>
+      <c r="G23" s="144">
+        <v>0</v>
+      </c>
+      <c r="H23" s="144">
+        <v>0</v>
+      </c>
+      <c r="I23" s="144">
         <v>34.32</v>
       </c>
-      <c r="J23" s="162">
+      <c r="J23" s="144">
         <v>20.3</v>
       </c>
-      <c r="K23" s="162">
+      <c r="K23" s="144">
         <v>5.05</v>
       </c>
-      <c r="L23" s="162">
-        <v>0</v>
-      </c>
-      <c r="M23" s="162">
-        <v>0</v>
-      </c>
-      <c r="N23" s="162">
-        <v>0</v>
-      </c>
-      <c r="O23" s="152">
+      <c r="L23" s="144">
+        <v>0</v>
+      </c>
+      <c r="M23" s="144">
+        <v>0</v>
+      </c>
+      <c r="N23" s="144">
+        <v>0</v>
+      </c>
+      <c r="O23" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="144"/>
-      <c r="B24" s="147"/>
+      <c r="A24" s="156"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="140">
         <v>2.7300000000000001E-2</v>
       </c>
@@ -7064,37 +7049,37 @@
       <c r="F24" s="138">
         <v>0</v>
       </c>
-      <c r="G24" s="153">
+      <c r="G24" s="145">
         <v>2.67</v>
       </c>
-      <c r="H24" s="153">
-        <v>0</v>
-      </c>
-      <c r="I24" s="161">
+      <c r="H24" s="145">
+        <v>0</v>
+      </c>
+      <c r="I24" s="145">
         <v>33.869999999999997</v>
       </c>
-      <c r="J24" s="161">
+      <c r="J24" s="145">
         <v>20.03</v>
       </c>
-      <c r="K24" s="161">
+      <c r="K24" s="145">
         <v>4.99</v>
       </c>
-      <c r="L24" s="161">
-        <v>0</v>
-      </c>
-      <c r="M24" s="161">
-        <v>0</v>
-      </c>
-      <c r="N24" s="161">
-        <v>0</v>
-      </c>
-      <c r="O24" s="153">
+      <c r="L24" s="145">
+        <v>0</v>
+      </c>
+      <c r="M24" s="145">
+        <v>0</v>
+      </c>
+      <c r="N24" s="145">
+        <v>0</v>
+      </c>
+      <c r="O24" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="145"/>
-      <c r="B25" s="148"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="140">
         <v>2.7300000000000001E-2</v>
       </c>
@@ -7107,39 +7092,39 @@
       <c r="F25" s="138">
         <v>5.2</v>
       </c>
-      <c r="G25" s="153">
-        <v>0</v>
-      </c>
-      <c r="H25" s="153">
-        <v>0</v>
-      </c>
-      <c r="I25" s="161">
+      <c r="G25" s="145">
+        <v>0</v>
+      </c>
+      <c r="H25" s="145">
+        <v>0</v>
+      </c>
+      <c r="I25" s="145">
         <v>28.45</v>
       </c>
-      <c r="J25" s="161">
-        <v>0</v>
-      </c>
-      <c r="K25" s="161">
+      <c r="J25" s="145">
+        <v>0</v>
+      </c>
+      <c r="K25" s="145">
         <v>4.1900000000000004</v>
       </c>
-      <c r="L25" s="161">
-        <v>0</v>
-      </c>
-      <c r="M25" s="161">
-        <v>0</v>
-      </c>
-      <c r="N25" s="161">
-        <v>0</v>
-      </c>
-      <c r="O25" s="153">
+      <c r="L25" s="145">
+        <v>0</v>
+      </c>
+      <c r="M25" s="145">
+        <v>0</v>
+      </c>
+      <c r="N25" s="145">
+        <v>0</v>
+      </c>
+      <c r="O25" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="151" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="132">
@@ -7151,40 +7136,40 @@
       <c r="E26" s="134">
         <v>0.75</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="143">
         <v>70.63</v>
       </c>
-      <c r="G26" s="152">
+      <c r="G26" s="144">
         <v>58.38</v>
       </c>
-      <c r="H26" s="152">
-        <v>0</v>
-      </c>
-      <c r="I26" s="162">
+      <c r="H26" s="144">
+        <v>0</v>
+      </c>
+      <c r="I26" s="144">
         <v>41.71</v>
       </c>
-      <c r="J26" s="162">
+      <c r="J26" s="144">
         <v>27.94</v>
       </c>
-      <c r="K26" s="162">
+      <c r="K26" s="144">
         <v>25.66</v>
       </c>
-      <c r="L26" s="162">
-        <v>0</v>
-      </c>
-      <c r="M26" s="162">
-        <v>0</v>
-      </c>
-      <c r="N26" s="162">
-        <v>0</v>
-      </c>
-      <c r="O26" s="152">
+      <c r="L26" s="144">
+        <v>0</v>
+      </c>
+      <c r="M26" s="144">
+        <v>0</v>
+      </c>
+      <c r="N26" s="144">
+        <v>0</v>
+      </c>
+      <c r="O26" s="144">
         <v>60.46</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="145"/>
-      <c r="B27" s="148"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="153"/>
       <c r="C27" s="140">
         <v>6.5600000000000006E-2</v>
       </c>
@@ -7197,39 +7182,39 @@
       <c r="F27" s="138">
         <v>23.54</v>
       </c>
-      <c r="G27" s="153">
+      <c r="G27" s="145">
         <v>19.46</v>
       </c>
-      <c r="H27" s="153">
-        <v>0</v>
-      </c>
-      <c r="I27" s="161">
+      <c r="H27" s="145">
+        <v>0</v>
+      </c>
+      <c r="I27" s="145">
         <v>13.9</v>
       </c>
-      <c r="J27" s="161">
+      <c r="J27" s="145">
         <v>9.31</v>
       </c>
-      <c r="K27" s="161">
+      <c r="K27" s="145">
         <v>8.5500000000000007</v>
       </c>
-      <c r="L27" s="161">
-        <v>0</v>
-      </c>
-      <c r="M27" s="161">
-        <v>0</v>
-      </c>
-      <c r="N27" s="161">
-        <v>0</v>
-      </c>
-      <c r="O27" s="153">
+      <c r="L27" s="145">
+        <v>0</v>
+      </c>
+      <c r="M27" s="145">
+        <v>0</v>
+      </c>
+      <c r="N27" s="145">
+        <v>0</v>
+      </c>
+      <c r="O27" s="145">
         <v>20.149999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="146" t="s">
+      <c r="B28" s="151" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="132">
@@ -7241,40 +7226,40 @@
       <c r="E28" s="134">
         <v>0.86</v>
       </c>
-      <c r="F28" s="151">
+      <c r="F28" s="143">
         <v>42.3</v>
       </c>
-      <c r="G28" s="152">
+      <c r="G28" s="144">
         <v>14.04</v>
       </c>
-      <c r="H28" s="152">
+      <c r="H28" s="144">
         <v>38.07</v>
       </c>
-      <c r="I28" s="162">
-        <v>0</v>
-      </c>
-      <c r="J28" s="162">
+      <c r="I28" s="144">
+        <v>0</v>
+      </c>
+      <c r="J28" s="144">
         <v>26.51</v>
       </c>
-      <c r="K28" s="162">
+      <c r="K28" s="144">
         <v>41.06</v>
       </c>
-      <c r="L28" s="162">
+      <c r="L28" s="144">
         <v>8.32</v>
       </c>
-      <c r="M28" s="162">
-        <v>0</v>
-      </c>
-      <c r="N28" s="162">
-        <v>0</v>
-      </c>
-      <c r="O28" s="152">
+      <c r="M28" s="144">
+        <v>0</v>
+      </c>
+      <c r="N28" s="144">
+        <v>0</v>
+      </c>
+      <c r="O28" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="144"/>
-      <c r="B29" s="147"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7287,37 +7272,37 @@
       <c r="F29" s="138">
         <v>41.32</v>
       </c>
-      <c r="G29" s="153">
-        <v>0</v>
-      </c>
-      <c r="H29" s="153">
+      <c r="G29" s="145">
+        <v>0</v>
+      </c>
+      <c r="H29" s="145">
         <v>37.19</v>
       </c>
-      <c r="I29" s="161">
-        <v>0</v>
-      </c>
-      <c r="J29" s="161">
-        <v>0</v>
-      </c>
-      <c r="K29" s="161">
+      <c r="I29" s="145">
+        <v>0</v>
+      </c>
+      <c r="J29" s="145">
+        <v>0</v>
+      </c>
+      <c r="K29" s="145">
         <v>40.11</v>
       </c>
-      <c r="L29" s="161">
+      <c r="L29" s="145">
         <v>8.1300000000000008</v>
       </c>
-      <c r="M29" s="161">
-        <v>0</v>
-      </c>
-      <c r="N29" s="161">
-        <v>0</v>
-      </c>
-      <c r="O29" s="153">
+      <c r="M29" s="145">
+        <v>0</v>
+      </c>
+      <c r="N29" s="145">
+        <v>0</v>
+      </c>
+      <c r="O29" s="145">
         <v>47.28</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="144"/>
-      <c r="B30" s="147"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7330,37 +7315,37 @@
       <c r="F30" s="138">
         <v>38.86</v>
       </c>
-      <c r="G30" s="153">
+      <c r="G30" s="145">
         <v>12.89</v>
       </c>
-      <c r="H30" s="153">
+      <c r="H30" s="145">
         <v>34.97</v>
       </c>
-      <c r="I30" s="161">
-        <v>0</v>
-      </c>
-      <c r="J30" s="161">
-        <v>0</v>
-      </c>
-      <c r="K30" s="161">
+      <c r="I30" s="145">
+        <v>0</v>
+      </c>
+      <c r="J30" s="145">
+        <v>0</v>
+      </c>
+      <c r="K30" s="145">
         <v>37.72</v>
       </c>
-      <c r="L30" s="161">
-        <v>0</v>
-      </c>
-      <c r="M30" s="161">
-        <v>0</v>
-      </c>
-      <c r="N30" s="161">
-        <v>0</v>
-      </c>
-      <c r="O30" s="153">
+      <c r="L30" s="145">
+        <v>0</v>
+      </c>
+      <c r="M30" s="145">
+        <v>0</v>
+      </c>
+      <c r="N30" s="145">
+        <v>0</v>
+      </c>
+      <c r="O30" s="145">
         <v>44.47</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="144"/>
-      <c r="B31" s="147"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7373,37 +7358,37 @@
       <c r="F31" s="138">
         <v>36.89</v>
       </c>
-      <c r="G31" s="153">
+      <c r="G31" s="145">
         <v>12.24</v>
       </c>
-      <c r="H31" s="153">
+      <c r="H31" s="145">
         <v>33.200000000000003</v>
       </c>
-      <c r="I31" s="161">
-        <v>0</v>
-      </c>
-      <c r="J31" s="161">
-        <v>0</v>
-      </c>
-      <c r="K31" s="161">
-        <v>0</v>
-      </c>
-      <c r="L31" s="161">
-        <v>0</v>
-      </c>
-      <c r="M31" s="161">
-        <v>0</v>
-      </c>
-      <c r="N31" s="161">
-        <v>0</v>
-      </c>
-      <c r="O31" s="153">
+      <c r="I31" s="145">
+        <v>0</v>
+      </c>
+      <c r="J31" s="145">
+        <v>0</v>
+      </c>
+      <c r="K31" s="145">
+        <v>0</v>
+      </c>
+      <c r="L31" s="145">
+        <v>0</v>
+      </c>
+      <c r="M31" s="145">
+        <v>0</v>
+      </c>
+      <c r="N31" s="145">
+        <v>0</v>
+      </c>
+      <c r="O31" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="144"/>
-      <c r="B32" s="147"/>
+      <c r="A32" s="156"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7416,37 +7401,37 @@
       <c r="F32" s="138">
         <v>30.99</v>
       </c>
-      <c r="G32" s="153">
+      <c r="G32" s="145">
         <v>10.28</v>
       </c>
-      <c r="H32" s="153">
+      <c r="H32" s="145">
         <v>27.89</v>
       </c>
-      <c r="I32" s="161">
-        <v>0</v>
-      </c>
-      <c r="J32" s="161">
+      <c r="I32" s="145">
+        <v>0</v>
+      </c>
+      <c r="J32" s="145">
         <v>19.420000000000002</v>
       </c>
-      <c r="K32" s="161">
+      <c r="K32" s="145">
         <v>30.08</v>
       </c>
-      <c r="L32" s="161">
+      <c r="L32" s="145">
         <v>6.1</v>
       </c>
-      <c r="M32" s="161">
-        <v>0</v>
-      </c>
-      <c r="N32" s="161">
-        <v>0</v>
-      </c>
-      <c r="O32" s="153">
+      <c r="M32" s="145">
+        <v>0</v>
+      </c>
+      <c r="N32" s="145">
+        <v>0</v>
+      </c>
+      <c r="O32" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="144"/>
-      <c r="B33" s="147"/>
+      <c r="A33" s="156"/>
+      <c r="B33" s="152"/>
       <c r="C33" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7459,37 +7444,37 @@
       <c r="F33" s="138">
         <v>0</v>
       </c>
-      <c r="G33" s="153">
-        <v>0</v>
-      </c>
-      <c r="H33" s="153">
+      <c r="G33" s="145">
+        <v>0</v>
+      </c>
+      <c r="H33" s="145">
         <v>26.56</v>
       </c>
-      <c r="I33" s="161">
-        <v>0</v>
-      </c>
-      <c r="J33" s="161">
+      <c r="I33" s="145">
+        <v>0</v>
+      </c>
+      <c r="J33" s="145">
         <v>18.5</v>
       </c>
-      <c r="K33" s="161">
-        <v>0</v>
-      </c>
-      <c r="L33" s="161">
+      <c r="K33" s="145">
+        <v>0</v>
+      </c>
+      <c r="L33" s="145">
         <v>5.81</v>
       </c>
-      <c r="M33" s="161">
-        <v>0</v>
-      </c>
-      <c r="N33" s="161">
+      <c r="M33" s="145">
+        <v>0</v>
+      </c>
+      <c r="N33" s="145">
         <v>9.69</v>
       </c>
-      <c r="O33" s="153">
+      <c r="O33" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="144"/>
-      <c r="B34" s="147"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7502,37 +7487,37 @@
       <c r="F34" s="138">
         <v>0</v>
       </c>
-      <c r="G34" s="153">
+      <c r="G34" s="145">
         <v>12.57</v>
       </c>
-      <c r="H34" s="153">
+      <c r="H34" s="145">
         <v>34.090000000000003</v>
       </c>
-      <c r="I34" s="161">
-        <v>0</v>
-      </c>
-      <c r="J34" s="161">
-        <v>0</v>
-      </c>
-      <c r="K34" s="161">
-        <v>0</v>
-      </c>
-      <c r="L34" s="161">
-        <v>0</v>
-      </c>
-      <c r="M34" s="161">
-        <v>0</v>
-      </c>
-      <c r="N34" s="161">
-        <v>0</v>
-      </c>
-      <c r="O34" s="153">
+      <c r="I34" s="145">
+        <v>0</v>
+      </c>
+      <c r="J34" s="145">
+        <v>0</v>
+      </c>
+      <c r="K34" s="145">
+        <v>0</v>
+      </c>
+      <c r="L34" s="145">
+        <v>0</v>
+      </c>
+      <c r="M34" s="145">
+        <v>0</v>
+      </c>
+      <c r="N34" s="145">
+        <v>0</v>
+      </c>
+      <c r="O34" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="145"/>
-      <c r="B35" s="148"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="153"/>
       <c r="C35" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7545,39 +7530,39 @@
       <c r="F35" s="138">
         <v>0</v>
       </c>
-      <c r="G35" s="153">
+      <c r="G35" s="145">
         <v>6.53</v>
       </c>
-      <c r="H35" s="153">
+      <c r="H35" s="145">
         <v>17.71</v>
       </c>
-      <c r="I35" s="161">
-        <v>0</v>
-      </c>
-      <c r="J35" s="161">
+      <c r="I35" s="145">
+        <v>0</v>
+      </c>
+      <c r="J35" s="145">
         <v>12.33</v>
       </c>
-      <c r="K35" s="161">
-        <v>0</v>
-      </c>
-      <c r="L35" s="161">
-        <v>0</v>
-      </c>
-      <c r="M35" s="161">
-        <v>0</v>
-      </c>
-      <c r="N35" s="161">
-        <v>0</v>
-      </c>
-      <c r="O35" s="153">
+      <c r="K35" s="145">
+        <v>0</v>
+      </c>
+      <c r="L35" s="145">
+        <v>0</v>
+      </c>
+      <c r="M35" s="145">
+        <v>0</v>
+      </c>
+      <c r="N35" s="145">
+        <v>0</v>
+      </c>
+      <c r="O35" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="151" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="132">
@@ -7589,40 +7574,40 @@
       <c r="E36" s="134">
         <v>0.8</v>
       </c>
-      <c r="F36" s="151">
-        <v>0</v>
-      </c>
-      <c r="G36" s="152">
-        <v>0</v>
-      </c>
-      <c r="H36" s="152">
-        <v>0</v>
-      </c>
-      <c r="I36" s="162">
+      <c r="F36" s="143">
+        <v>0</v>
+      </c>
+      <c r="G36" s="144">
+        <v>0</v>
+      </c>
+      <c r="H36" s="144">
+        <v>0</v>
+      </c>
+      <c r="I36" s="144">
         <v>44.78</v>
       </c>
-      <c r="J36" s="162">
+      <c r="J36" s="144">
         <v>7.04</v>
       </c>
-      <c r="K36" s="162">
-        <v>0</v>
-      </c>
-      <c r="L36" s="162">
+      <c r="K36" s="144">
+        <v>0</v>
+      </c>
+      <c r="L36" s="144">
         <v>4.47</v>
       </c>
-      <c r="M36" s="162">
+      <c r="M36" s="144">
         <v>9.68</v>
       </c>
-      <c r="N36" s="162">
+      <c r="N36" s="144">
         <v>5.33</v>
       </c>
-      <c r="O36" s="152">
+      <c r="O36" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="144"/>
-      <c r="B37" s="147"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="152"/>
       <c r="C37" s="140">
         <v>3.6200000000000003E-2</v>
       </c>
@@ -7635,37 +7620,37 @@
       <c r="F37" s="138">
         <v>0</v>
       </c>
-      <c r="G37" s="153">
-        <v>0</v>
-      </c>
-      <c r="H37" s="153">
-        <v>0</v>
-      </c>
-      <c r="I37" s="161">
+      <c r="G37" s="145">
+        <v>0</v>
+      </c>
+      <c r="H37" s="145">
+        <v>0</v>
+      </c>
+      <c r="I37" s="145">
         <v>39.18</v>
       </c>
-      <c r="J37" s="161">
+      <c r="J37" s="145">
         <v>6.16</v>
       </c>
-      <c r="K37" s="161">
-        <v>0</v>
-      </c>
-      <c r="L37" s="161">
+      <c r="K37" s="145">
+        <v>0</v>
+      </c>
+      <c r="L37" s="145">
         <v>3.91</v>
       </c>
-      <c r="M37" s="161">
+      <c r="M37" s="145">
         <v>8.4700000000000006</v>
       </c>
-      <c r="N37" s="161">
+      <c r="N37" s="145">
         <v>4.67</v>
       </c>
-      <c r="O37" s="153">
+      <c r="O37" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="145"/>
-      <c r="B38" s="148"/>
+      <c r="A38" s="157"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="140">
         <v>3.6200000000000003E-2</v>
       </c>
@@ -7678,39 +7663,39 @@
       <c r="F38" s="138">
         <v>0</v>
       </c>
-      <c r="G38" s="153">
-        <v>0</v>
-      </c>
-      <c r="H38" s="153">
-        <v>0</v>
-      </c>
-      <c r="I38" s="161">
+      <c r="G38" s="145">
+        <v>0</v>
+      </c>
+      <c r="H38" s="145">
+        <v>0</v>
+      </c>
+      <c r="I38" s="145">
         <v>35.82</v>
       </c>
-      <c r="J38" s="161">
+      <c r="J38" s="145">
         <v>5.63</v>
       </c>
-      <c r="K38" s="161">
-        <v>0</v>
-      </c>
-      <c r="L38" s="161">
+      <c r="K38" s="145">
+        <v>0</v>
+      </c>
+      <c r="L38" s="145">
         <v>3.58</v>
       </c>
-      <c r="M38" s="161">
+      <c r="M38" s="145">
         <v>7.74</v>
       </c>
-      <c r="N38" s="161">
+      <c r="N38" s="145">
         <v>4.2699999999999996</v>
       </c>
-      <c r="O38" s="153">
+      <c r="O38" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="143" t="s">
+      <c r="A39" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="146" t="s">
+      <c r="B39" s="151" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="132">
@@ -7722,40 +7707,40 @@
       <c r="E39" s="134">
         <v>0.74</v>
       </c>
-      <c r="F39" s="151">
-        <v>0</v>
-      </c>
-      <c r="G39" s="152">
-        <v>0</v>
-      </c>
-      <c r="H39" s="152">
-        <v>0</v>
-      </c>
-      <c r="I39" s="162">
+      <c r="F39" s="143">
+        <v>0</v>
+      </c>
+      <c r="G39" s="144">
+        <v>0</v>
+      </c>
+      <c r="H39" s="144">
+        <v>0</v>
+      </c>
+      <c r="I39" s="144">
         <v>19.38</v>
       </c>
-      <c r="J39" s="162">
+      <c r="J39" s="144">
         <v>10.38</v>
       </c>
-      <c r="K39" s="162">
-        <v>0</v>
-      </c>
-      <c r="L39" s="162">
-        <v>0</v>
-      </c>
-      <c r="M39" s="162">
-        <v>0</v>
-      </c>
-      <c r="N39" s="162">
-        <v>0</v>
-      </c>
-      <c r="O39" s="152">
+      <c r="K39" s="144">
+        <v>0</v>
+      </c>
+      <c r="L39" s="144">
+        <v>0</v>
+      </c>
+      <c r="M39" s="144">
+        <v>0</v>
+      </c>
+      <c r="N39" s="144">
+        <v>0</v>
+      </c>
+      <c r="O39" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="144"/>
-      <c r="B40" s="147"/>
+      <c r="A40" s="156"/>
+      <c r="B40" s="152"/>
       <c r="C40" s="140">
         <v>2.47E-2</v>
       </c>
@@ -7768,37 +7753,37 @@
       <c r="F40" s="138">
         <v>0</v>
       </c>
-      <c r="G40" s="153">
-        <v>0</v>
-      </c>
-      <c r="H40" s="153">
-        <v>0</v>
-      </c>
-      <c r="I40" s="161">
+      <c r="G40" s="145">
+        <v>0</v>
+      </c>
+      <c r="H40" s="145">
+        <v>0</v>
+      </c>
+      <c r="I40" s="145">
         <v>17.55</v>
       </c>
-      <c r="J40" s="161">
+      <c r="J40" s="145">
         <v>9.4</v>
       </c>
-      <c r="K40" s="161">
-        <v>0</v>
-      </c>
-      <c r="L40" s="161">
-        <v>0</v>
-      </c>
-      <c r="M40" s="161">
-        <v>0</v>
-      </c>
-      <c r="N40" s="161">
-        <v>0</v>
-      </c>
-      <c r="O40" s="153">
+      <c r="K40" s="145">
+        <v>0</v>
+      </c>
+      <c r="L40" s="145">
+        <v>0</v>
+      </c>
+      <c r="M40" s="145">
+        <v>0</v>
+      </c>
+      <c r="N40" s="145">
+        <v>0</v>
+      </c>
+      <c r="O40" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="145"/>
-      <c r="B41" s="148"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="153"/>
       <c r="C41" s="140">
         <v>2.47E-2</v>
       </c>
@@ -7811,39 +7796,39 @@
       <c r="F41" s="138">
         <v>0</v>
       </c>
-      <c r="G41" s="153">
-        <v>0</v>
-      </c>
-      <c r="H41" s="153">
-        <v>0</v>
-      </c>
-      <c r="I41" s="161">
+      <c r="G41" s="145">
+        <v>0</v>
+      </c>
+      <c r="H41" s="145">
+        <v>0</v>
+      </c>
+      <c r="I41" s="145">
         <v>16.5</v>
       </c>
-      <c r="J41" s="161">
+      <c r="J41" s="145">
         <v>8.84</v>
       </c>
-      <c r="K41" s="161">
-        <v>0</v>
-      </c>
-      <c r="L41" s="161">
-        <v>0</v>
-      </c>
-      <c r="M41" s="161">
-        <v>0</v>
-      </c>
-      <c r="N41" s="161">
-        <v>0</v>
-      </c>
-      <c r="O41" s="153">
+      <c r="K41" s="145">
+        <v>0</v>
+      </c>
+      <c r="L41" s="145">
+        <v>0</v>
+      </c>
+      <c r="M41" s="145">
+        <v>0</v>
+      </c>
+      <c r="N41" s="145">
+        <v>0</v>
+      </c>
+      <c r="O41" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="143" t="s">
+      <c r="A42" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="146" t="s">
+      <c r="B42" s="151" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="132">
@@ -7855,40 +7840,40 @@
       <c r="E42" s="134">
         <v>0.86</v>
       </c>
-      <c r="F42" s="151">
+      <c r="F42" s="143">
         <v>14.39</v>
       </c>
-      <c r="G42" s="152">
-        <v>0</v>
-      </c>
-      <c r="H42" s="152">
-        <v>0</v>
-      </c>
-      <c r="I42" s="162">
-        <v>0</v>
-      </c>
-      <c r="J42" s="162">
-        <v>0</v>
-      </c>
-      <c r="K42" s="162">
+      <c r="G42" s="144">
+        <v>0</v>
+      </c>
+      <c r="H42" s="144">
+        <v>0</v>
+      </c>
+      <c r="I42" s="144">
+        <v>0</v>
+      </c>
+      <c r="J42" s="144">
+        <v>0</v>
+      </c>
+      <c r="K42" s="144">
         <v>17.03</v>
       </c>
-      <c r="L42" s="162">
-        <v>0</v>
-      </c>
-      <c r="M42" s="162">
-        <v>0</v>
-      </c>
-      <c r="N42" s="162">
-        <v>0</v>
-      </c>
-      <c r="O42" s="152">
+      <c r="L42" s="144">
+        <v>0</v>
+      </c>
+      <c r="M42" s="144">
+        <v>0</v>
+      </c>
+      <c r="N42" s="144">
+        <v>0</v>
+      </c>
+      <c r="O42" s="144">
         <v>39.97</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="144"/>
-      <c r="B43" s="147"/>
+      <c r="A43" s="156"/>
+      <c r="B43" s="152"/>
       <c r="C43" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
@@ -7901,37 +7886,37 @@
       <c r="F43" s="138">
         <v>13.89</v>
       </c>
-      <c r="G43" s="153">
-        <v>0</v>
-      </c>
-      <c r="H43" s="153">
-        <v>0</v>
-      </c>
-      <c r="I43" s="161">
-        <v>0</v>
-      </c>
-      <c r="J43" s="161">
-        <v>0</v>
-      </c>
-      <c r="K43" s="161">
-        <v>0</v>
-      </c>
-      <c r="L43" s="161">
-        <v>0</v>
-      </c>
-      <c r="M43" s="161">
+      <c r="G43" s="145">
+        <v>0</v>
+      </c>
+      <c r="H43" s="145">
+        <v>0</v>
+      </c>
+      <c r="I43" s="145">
+        <v>0</v>
+      </c>
+      <c r="J43" s="145">
+        <v>0</v>
+      </c>
+      <c r="K43" s="145">
+        <v>0</v>
+      </c>
+      <c r="L43" s="145">
+        <v>0</v>
+      </c>
+      <c r="M43" s="145">
         <v>14.34</v>
       </c>
-      <c r="N43" s="161">
+      <c r="N43" s="145">
         <v>6.78</v>
       </c>
-      <c r="O43" s="153">
+      <c r="O43" s="145">
         <v>38.58</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="144"/>
-      <c r="B44" s="147"/>
+      <c r="A44" s="156"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
@@ -7944,37 +7929,37 @@
       <c r="F44" s="138">
         <v>13.22</v>
       </c>
-      <c r="G44" s="153">
-        <v>0</v>
-      </c>
-      <c r="H44" s="153">
-        <v>0</v>
-      </c>
-      <c r="I44" s="161">
-        <v>0</v>
-      </c>
-      <c r="J44" s="161">
-        <v>0</v>
-      </c>
-      <c r="K44" s="161">
-        <v>0</v>
-      </c>
-      <c r="L44" s="161">
-        <v>0</v>
-      </c>
-      <c r="M44" s="161">
-        <v>0</v>
-      </c>
-      <c r="N44" s="161">
-        <v>0</v>
-      </c>
-      <c r="O44" s="153">
+      <c r="G44" s="145">
+        <v>0</v>
+      </c>
+      <c r="H44" s="145">
+        <v>0</v>
+      </c>
+      <c r="I44" s="145">
+        <v>0</v>
+      </c>
+      <c r="J44" s="145">
+        <v>0</v>
+      </c>
+      <c r="K44" s="145">
+        <v>0</v>
+      </c>
+      <c r="L44" s="145">
+        <v>0</v>
+      </c>
+      <c r="M44" s="145">
+        <v>0</v>
+      </c>
+      <c r="N44" s="145">
+        <v>0</v>
+      </c>
+      <c r="O44" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="144"/>
-      <c r="B45" s="147"/>
+      <c r="A45" s="156"/>
+      <c r="B45" s="152"/>
       <c r="C45" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
@@ -7987,37 +7972,37 @@
       <c r="F45" s="138">
         <v>10.54</v>
       </c>
-      <c r="G45" s="153">
-        <v>0</v>
-      </c>
-      <c r="H45" s="153">
-        <v>0</v>
-      </c>
-      <c r="I45" s="161">
-        <v>0</v>
-      </c>
-      <c r="J45" s="161">
-        <v>0</v>
-      </c>
-      <c r="K45" s="161">
+      <c r="G45" s="145">
+        <v>0</v>
+      </c>
+      <c r="H45" s="145">
+        <v>0</v>
+      </c>
+      <c r="I45" s="145">
+        <v>0</v>
+      </c>
+      <c r="J45" s="145">
+        <v>0</v>
+      </c>
+      <c r="K45" s="145">
         <v>12.48</v>
       </c>
-      <c r="L45" s="161">
-        <v>0</v>
-      </c>
-      <c r="M45" s="161">
-        <v>0</v>
-      </c>
-      <c r="N45" s="161">
-        <v>0</v>
-      </c>
-      <c r="O45" s="153">
+      <c r="L45" s="145">
+        <v>0</v>
+      </c>
+      <c r="M45" s="145">
+        <v>0</v>
+      </c>
+      <c r="N45" s="145">
+        <v>0</v>
+      </c>
+      <c r="O45" s="145">
         <v>29.28</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="145"/>
-      <c r="B46" s="148"/>
+      <c r="A46" s="157"/>
+      <c r="B46" s="153"/>
       <c r="C46" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
@@ -8030,39 +8015,39 @@
       <c r="F46" s="138">
         <v>0</v>
       </c>
-      <c r="G46" s="153">
-        <v>0</v>
-      </c>
-      <c r="H46" s="153">
-        <v>0</v>
-      </c>
-      <c r="I46" s="161">
-        <v>0</v>
-      </c>
-      <c r="J46" s="161">
-        <v>0</v>
-      </c>
-      <c r="K46" s="161">
+      <c r="G46" s="145">
+        <v>0</v>
+      </c>
+      <c r="H46" s="145">
+        <v>0</v>
+      </c>
+      <c r="I46" s="145">
+        <v>0</v>
+      </c>
+      <c r="J46" s="145">
+        <v>0</v>
+      </c>
+      <c r="K46" s="145">
         <v>9.11</v>
       </c>
-      <c r="L46" s="161">
-        <v>0</v>
-      </c>
-      <c r="M46" s="161">
+      <c r="L46" s="145">
+        <v>0</v>
+      </c>
+      <c r="M46" s="145">
         <v>7.95</v>
       </c>
-      <c r="N46" s="161">
+      <c r="N46" s="145">
         <v>3.76</v>
       </c>
-      <c r="O46" s="153">
+      <c r="O46" s="145">
         <v>21.38</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="143" t="s">
+      <c r="A47" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="146" t="s">
+      <c r="B47" s="151" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="132">
@@ -8074,40 +8059,40 @@
       <c r="E47" s="134">
         <v>0.86</v>
       </c>
-      <c r="F47" s="151">
-        <v>0</v>
-      </c>
-      <c r="G47" s="152">
-        <v>0</v>
-      </c>
-      <c r="H47" s="152">
-        <v>0</v>
-      </c>
-      <c r="I47" s="162">
+      <c r="F47" s="143">
+        <v>0</v>
+      </c>
+      <c r="G47" s="144">
+        <v>0</v>
+      </c>
+      <c r="H47" s="144">
+        <v>0</v>
+      </c>
+      <c r="I47" s="144">
         <v>14.93</v>
       </c>
-      <c r="J47" s="162">
+      <c r="J47" s="144">
         <v>9.14</v>
       </c>
-      <c r="K47" s="162">
-        <v>0</v>
-      </c>
-      <c r="L47" s="162">
-        <v>0</v>
-      </c>
-      <c r="M47" s="162">
-        <v>0</v>
-      </c>
-      <c r="N47" s="162">
-        <v>0</v>
-      </c>
-      <c r="O47" s="152">
+      <c r="K47" s="144">
+        <v>0</v>
+      </c>
+      <c r="L47" s="144">
+        <v>0</v>
+      </c>
+      <c r="M47" s="144">
+        <v>0</v>
+      </c>
+      <c r="N47" s="144">
+        <v>0</v>
+      </c>
+      <c r="O47" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="144"/>
-      <c r="B48" s="147"/>
+      <c r="A48" s="156"/>
+      <c r="B48" s="152"/>
       <c r="C48" s="140">
         <v>3.2800000000000003E-2</v>
       </c>
@@ -8120,37 +8105,37 @@
       <c r="F48" s="138">
         <v>0</v>
       </c>
-      <c r="G48" s="153">
-        <v>0</v>
-      </c>
-      <c r="H48" s="153">
-        <v>0</v>
-      </c>
-      <c r="I48" s="161">
+      <c r="G48" s="145">
+        <v>0</v>
+      </c>
+      <c r="H48" s="145">
+        <v>0</v>
+      </c>
+      <c r="I48" s="145">
         <v>11.63</v>
       </c>
-      <c r="J48" s="161">
+      <c r="J48" s="145">
         <v>7.12</v>
       </c>
-      <c r="K48" s="161">
-        <v>0</v>
-      </c>
-      <c r="L48" s="161">
-        <v>0</v>
-      </c>
-      <c r="M48" s="161">
-        <v>0</v>
-      </c>
-      <c r="N48" s="161">
-        <v>0</v>
-      </c>
-      <c r="O48" s="153">
+      <c r="K48" s="145">
+        <v>0</v>
+      </c>
+      <c r="L48" s="145">
+        <v>0</v>
+      </c>
+      <c r="M48" s="145">
+        <v>0</v>
+      </c>
+      <c r="N48" s="145">
+        <v>0</v>
+      </c>
+      <c r="O48" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="145"/>
-      <c r="B49" s="148"/>
+      <c r="A49" s="157"/>
+      <c r="B49" s="153"/>
       <c r="C49" s="140">
         <v>3.2800000000000003E-2</v>
       </c>
@@ -8163,39 +8148,39 @@
       <c r="F49" s="138">
         <v>0</v>
       </c>
-      <c r="G49" s="153">
-        <v>0</v>
-      </c>
-      <c r="H49" s="153">
-        <v>0</v>
-      </c>
-      <c r="I49" s="161">
+      <c r="G49" s="145">
+        <v>0</v>
+      </c>
+      <c r="H49" s="145">
+        <v>0</v>
+      </c>
+      <c r="I49" s="145">
         <v>8.68</v>
       </c>
-      <c r="J49" s="161">
+      <c r="J49" s="145">
         <v>5.31</v>
       </c>
-      <c r="K49" s="161">
-        <v>0</v>
-      </c>
-      <c r="L49" s="161">
-        <v>0</v>
-      </c>
-      <c r="M49" s="161">
-        <v>0</v>
-      </c>
-      <c r="N49" s="161">
-        <v>0</v>
-      </c>
-      <c r="O49" s="153">
+      <c r="K49" s="145">
+        <v>0</v>
+      </c>
+      <c r="L49" s="145">
+        <v>0</v>
+      </c>
+      <c r="M49" s="145">
+        <v>0</v>
+      </c>
+      <c r="N49" s="145">
+        <v>0</v>
+      </c>
+      <c r="O49" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="146" t="s">
+      <c r="B50" s="151" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="132">
@@ -8207,40 +8192,40 @@
       <c r="E50" s="134">
         <v>0.7</v>
       </c>
-      <c r="F50" s="151">
-        <v>0</v>
-      </c>
-      <c r="G50" s="152">
-        <v>0</v>
-      </c>
-      <c r="H50" s="152">
-        <v>0</v>
-      </c>
-      <c r="I50" s="162">
-        <v>0</v>
-      </c>
-      <c r="J50" s="162">
-        <v>0</v>
-      </c>
-      <c r="K50" s="162">
-        <v>0</v>
-      </c>
-      <c r="L50" s="162">
-        <v>0</v>
-      </c>
-      <c r="M50" s="162">
-        <v>0</v>
-      </c>
-      <c r="N50" s="162">
-        <v>0</v>
-      </c>
-      <c r="O50" s="152">
+      <c r="F50" s="143">
+        <v>0</v>
+      </c>
+      <c r="G50" s="144">
+        <v>0</v>
+      </c>
+      <c r="H50" s="144">
+        <v>0</v>
+      </c>
+      <c r="I50" s="144">
+        <v>0</v>
+      </c>
+      <c r="J50" s="144">
+        <v>0</v>
+      </c>
+      <c r="K50" s="144">
+        <v>0</v>
+      </c>
+      <c r="L50" s="144">
+        <v>0</v>
+      </c>
+      <c r="M50" s="144">
+        <v>0</v>
+      </c>
+      <c r="N50" s="144">
+        <v>0</v>
+      </c>
+      <c r="O50" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="144"/>
-      <c r="B51" s="147"/>
+      <c r="A51" s="156"/>
+      <c r="B51" s="152"/>
       <c r="C51" s="140">
         <v>1.72E-2</v>
       </c>
@@ -8253,37 +8238,37 @@
       <c r="F51" s="138">
         <v>0</v>
       </c>
-      <c r="G51" s="153">
-        <v>0</v>
-      </c>
-      <c r="H51" s="153">
-        <v>0</v>
-      </c>
-      <c r="I51" s="161">
-        <v>0</v>
-      </c>
-      <c r="J51" s="161">
+      <c r="G51" s="145">
+        <v>0</v>
+      </c>
+      <c r="H51" s="145">
+        <v>0</v>
+      </c>
+      <c r="I51" s="145">
+        <v>0</v>
+      </c>
+      <c r="J51" s="145">
         <v>0.92</v>
       </c>
-      <c r="K51" s="161">
-        <v>0</v>
-      </c>
-      <c r="L51" s="161">
-        <v>0</v>
-      </c>
-      <c r="M51" s="161">
-        <v>0</v>
-      </c>
-      <c r="N51" s="161">
-        <v>0</v>
-      </c>
-      <c r="O51" s="153">
+      <c r="K51" s="145">
+        <v>0</v>
+      </c>
+      <c r="L51" s="145">
+        <v>0</v>
+      </c>
+      <c r="M51" s="145">
+        <v>0</v>
+      </c>
+      <c r="N51" s="145">
+        <v>0</v>
+      </c>
+      <c r="O51" s="145">
         <v>2.8</v>
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="144"/>
-      <c r="B52" s="147"/>
+      <c r="A52" s="156"/>
+      <c r="B52" s="152"/>
       <c r="C52" s="140">
         <v>1.72E-2</v>
       </c>
@@ -8296,37 +8281,37 @@
       <c r="F52" s="138">
         <v>0</v>
       </c>
-      <c r="G52" s="153">
-        <v>0</v>
-      </c>
-      <c r="H52" s="153">
-        <v>0</v>
-      </c>
-      <c r="I52" s="161">
-        <v>0</v>
-      </c>
-      <c r="J52" s="161">
-        <v>0</v>
-      </c>
-      <c r="K52" s="161">
-        <v>0</v>
-      </c>
-      <c r="L52" s="161">
-        <v>0</v>
-      </c>
-      <c r="M52" s="161">
-        <v>0</v>
-      </c>
-      <c r="N52" s="161">
-        <v>0</v>
-      </c>
-      <c r="O52" s="153">
+      <c r="G52" s="145">
+        <v>0</v>
+      </c>
+      <c r="H52" s="145">
+        <v>0</v>
+      </c>
+      <c r="I52" s="145">
+        <v>0</v>
+      </c>
+      <c r="J52" s="145">
+        <v>0</v>
+      </c>
+      <c r="K52" s="145">
+        <v>0</v>
+      </c>
+      <c r="L52" s="145">
+        <v>0</v>
+      </c>
+      <c r="M52" s="145">
+        <v>0</v>
+      </c>
+      <c r="N52" s="145">
+        <v>0</v>
+      </c>
+      <c r="O52" s="145">
         <v>2.46</v>
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="145"/>
-      <c r="B53" s="148"/>
+      <c r="A53" s="157"/>
+      <c r="B53" s="153"/>
       <c r="C53" s="140">
         <v>1.72E-2</v>
       </c>
@@ -8339,88 +8324,88 @@
       <c r="F53" s="138">
         <v>0</v>
       </c>
-      <c r="G53" s="153">
-        <v>0</v>
-      </c>
-      <c r="H53" s="153">
-        <v>0</v>
-      </c>
-      <c r="I53" s="161">
-        <v>0</v>
-      </c>
-      <c r="J53" s="161">
-        <v>0</v>
-      </c>
-      <c r="K53" s="161">
-        <v>0</v>
-      </c>
-      <c r="L53" s="161">
-        <v>0</v>
-      </c>
-      <c r="M53" s="161">
-        <v>0</v>
-      </c>
-      <c r="N53" s="161">
-        <v>0</v>
-      </c>
-      <c r="O53" s="153">
+      <c r="G53" s="145">
+        <v>0</v>
+      </c>
+      <c r="H53" s="145">
+        <v>0</v>
+      </c>
+      <c r="I53" s="145">
+        <v>0</v>
+      </c>
+      <c r="J53" s="145">
+        <v>0</v>
+      </c>
+      <c r="K53" s="145">
+        <v>0</v>
+      </c>
+      <c r="L53" s="145">
+        <v>0</v>
+      </c>
+      <c r="M53" s="145">
+        <v>0</v>
+      </c>
+      <c r="N53" s="145">
+        <v>0</v>
+      </c>
+      <c r="O53" s="145">
         <v>2.29</v>
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="146" t="s">
+      <c r="B54" s="151" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="132">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D54" s="154" t="s">
+      <c r="D54" s="146" t="s">
         <v>96</v>
       </c>
       <c r="E54" s="134">
         <v>0.92</v>
       </c>
-      <c r="F54" s="151">
+      <c r="F54" s="143">
         <v>20.65</v>
       </c>
-      <c r="G54" s="152">
-        <v>0</v>
-      </c>
-      <c r="H54" s="152">
-        <v>0</v>
-      </c>
-      <c r="I54" s="162">
-        <v>0</v>
-      </c>
-      <c r="J54" s="162">
-        <v>0</v>
-      </c>
-      <c r="K54" s="162">
-        <v>0</v>
-      </c>
-      <c r="L54" s="162">
+      <c r="G54" s="144">
+        <v>0</v>
+      </c>
+      <c r="H54" s="144">
+        <v>0</v>
+      </c>
+      <c r="I54" s="144">
+        <v>0</v>
+      </c>
+      <c r="J54" s="144">
+        <v>0</v>
+      </c>
+      <c r="K54" s="144">
+        <v>0</v>
+      </c>
+      <c r="L54" s="144">
         <v>42.26</v>
       </c>
-      <c r="M54" s="162">
+      <c r="M54" s="144">
         <v>45.7</v>
       </c>
-      <c r="N54" s="162">
+      <c r="N54" s="144">
         <v>65.599999999999994</v>
       </c>
-      <c r="O54" s="152">
+      <c r="O54" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="144"/>
-      <c r="B55" s="147"/>
+      <c r="A55" s="156"/>
+      <c r="B55" s="152"/>
       <c r="C55" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D55" s="155" t="s">
+      <c r="D55" s="147" t="s">
         <v>97</v>
       </c>
       <c r="E55" s="137">
@@ -8429,41 +8414,41 @@
       <c r="F55" s="138">
         <v>19.53</v>
       </c>
-      <c r="G55" s="153">
-        <v>0</v>
-      </c>
-      <c r="H55" s="153">
-        <v>0</v>
-      </c>
-      <c r="I55" s="161">
-        <v>0</v>
-      </c>
-      <c r="J55" s="161">
-        <v>0</v>
-      </c>
-      <c r="K55" s="161">
+      <c r="G55" s="145">
+        <v>0</v>
+      </c>
+      <c r="H55" s="145">
+        <v>0</v>
+      </c>
+      <c r="I55" s="145">
+        <v>0</v>
+      </c>
+      <c r="J55" s="145">
+        <v>0</v>
+      </c>
+      <c r="K55" s="145">
         <v>55.46</v>
       </c>
-      <c r="L55" s="161">
-        <v>0</v>
-      </c>
-      <c r="M55" s="161">
-        <v>0</v>
-      </c>
-      <c r="N55" s="161">
+      <c r="L55" s="145">
+        <v>0</v>
+      </c>
+      <c r="M55" s="145">
+        <v>0</v>
+      </c>
+      <c r="N55" s="145">
         <v>62.04</v>
       </c>
-      <c r="O55" s="153">
+      <c r="O55" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="144"/>
-      <c r="B56" s="147"/>
+      <c r="A56" s="156"/>
+      <c r="B56" s="152"/>
       <c r="C56" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D56" s="155" t="s">
+      <c r="D56" s="147" t="s">
         <v>98</v>
       </c>
       <c r="E56" s="137">
@@ -8472,41 +8457,41 @@
       <c r="F56" s="138">
         <v>0</v>
       </c>
-      <c r="G56" s="153">
-        <v>0</v>
-      </c>
-      <c r="H56" s="153">
-        <v>0</v>
-      </c>
-      <c r="I56" s="161">
-        <v>0</v>
-      </c>
-      <c r="J56" s="161">
+      <c r="G56" s="145">
+        <v>0</v>
+      </c>
+      <c r="H56" s="145">
+        <v>0</v>
+      </c>
+      <c r="I56" s="145">
+        <v>0</v>
+      </c>
+      <c r="J56" s="145">
         <v>51.8</v>
       </c>
-      <c r="K56" s="161">
-        <v>0</v>
-      </c>
-      <c r="L56" s="161">
+      <c r="K56" s="145">
+        <v>0</v>
+      </c>
+      <c r="L56" s="145">
         <v>38.130000000000003</v>
       </c>
-      <c r="M56" s="161">
+      <c r="M56" s="145">
         <v>41.23</v>
       </c>
-      <c r="N56" s="161">
+      <c r="N56" s="145">
         <v>59.18</v>
       </c>
-      <c r="O56" s="153">
+      <c r="O56" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="144"/>
-      <c r="B57" s="147"/>
+      <c r="A57" s="156"/>
+      <c r="B57" s="152"/>
       <c r="C57" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D57" s="155" t="s">
+      <c r="D57" s="147" t="s">
         <v>99</v>
       </c>
       <c r="E57" s="137">
@@ -8515,41 +8500,41 @@
       <c r="F57" s="138">
         <v>0</v>
       </c>
-      <c r="G57" s="153">
+      <c r="G57" s="145">
         <v>45.91</v>
       </c>
-      <c r="H57" s="153">
-        <v>0</v>
-      </c>
-      <c r="I57" s="161">
-        <v>0</v>
-      </c>
-      <c r="J57" s="161">
-        <v>0</v>
-      </c>
-      <c r="K57" s="161">
-        <v>0</v>
-      </c>
-      <c r="L57" s="161">
-        <v>0</v>
-      </c>
-      <c r="M57" s="161">
-        <v>0</v>
-      </c>
-      <c r="N57" s="161">
+      <c r="H57" s="145">
+        <v>0</v>
+      </c>
+      <c r="I57" s="145">
+        <v>0</v>
+      </c>
+      <c r="J57" s="145">
+        <v>0</v>
+      </c>
+      <c r="K57" s="145">
+        <v>0</v>
+      </c>
+      <c r="L57" s="145">
+        <v>0</v>
+      </c>
+      <c r="M57" s="145">
+        <v>0</v>
+      </c>
+      <c r="N57" s="145">
         <v>56.33</v>
       </c>
-      <c r="O57" s="153">
+      <c r="O57" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="144"/>
-      <c r="B58" s="147"/>
+      <c r="A58" s="156"/>
+      <c r="B58" s="152"/>
       <c r="C58" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D58" s="155" t="s">
+      <c r="D58" s="147" t="s">
         <v>100</v>
       </c>
       <c r="E58" s="137">
@@ -8558,41 +8543,41 @@
       <c r="F58" s="138">
         <v>0</v>
       </c>
-      <c r="G58" s="153">
+      <c r="G58" s="145">
         <v>44.16</v>
       </c>
-      <c r="H58" s="153">
-        <v>0</v>
-      </c>
-      <c r="I58" s="161">
-        <v>0</v>
-      </c>
-      <c r="J58" s="161">
+      <c r="H58" s="145">
+        <v>0</v>
+      </c>
+      <c r="I58" s="145">
+        <v>0</v>
+      </c>
+      <c r="J58" s="145">
         <v>47.43</v>
       </c>
-      <c r="K58" s="161">
-        <v>0</v>
-      </c>
-      <c r="L58" s="161">
+      <c r="K58" s="145">
+        <v>0</v>
+      </c>
+      <c r="L58" s="145">
         <v>34.909999999999997</v>
       </c>
-      <c r="M58" s="161">
+      <c r="M58" s="145">
         <v>37.75</v>
       </c>
-      <c r="N58" s="161">
+      <c r="N58" s="145">
         <v>54.19</v>
       </c>
-      <c r="O58" s="153">
+      <c r="O58" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="144"/>
-      <c r="B59" s="147"/>
+      <c r="A59" s="156"/>
+      <c r="B59" s="152"/>
       <c r="C59" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D59" s="155" t="s">
+      <c r="D59" s="147" t="s">
         <v>101</v>
       </c>
       <c r="E59" s="137">
@@ -8601,41 +8586,41 @@
       <c r="F59" s="138">
         <v>0</v>
       </c>
-      <c r="G59" s="153">
-        <v>0</v>
-      </c>
-      <c r="H59" s="153">
-        <v>0</v>
-      </c>
-      <c r="I59" s="161">
-        <v>0</v>
-      </c>
-      <c r="J59" s="161">
-        <v>0</v>
-      </c>
-      <c r="K59" s="161">
-        <v>0</v>
-      </c>
-      <c r="L59" s="161">
-        <v>0</v>
-      </c>
-      <c r="M59" s="161">
-        <v>0</v>
-      </c>
-      <c r="N59" s="161">
+      <c r="G59" s="145">
+        <v>0</v>
+      </c>
+      <c r="H59" s="145">
+        <v>0</v>
+      </c>
+      <c r="I59" s="145">
+        <v>0</v>
+      </c>
+      <c r="J59" s="145">
+        <v>0</v>
+      </c>
+      <c r="K59" s="145">
+        <v>0</v>
+      </c>
+      <c r="L59" s="145">
+        <v>0</v>
+      </c>
+      <c r="M59" s="145">
+        <v>0</v>
+      </c>
+      <c r="N59" s="145">
         <v>47.78</v>
       </c>
-      <c r="O59" s="153">
+      <c r="O59" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="145"/>
-      <c r="B60" s="148"/>
+      <c r="A60" s="157"/>
+      <c r="B60" s="153"/>
       <c r="C60" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D60" s="155" t="s">
+      <c r="D60" s="147" t="s">
         <v>102</v>
       </c>
       <c r="E60" s="137">
@@ -8644,88 +8629,88 @@
       <c r="F60" s="138">
         <v>0</v>
       </c>
-      <c r="G60" s="153">
-        <v>0</v>
-      </c>
-      <c r="H60" s="153">
-        <v>0</v>
-      </c>
-      <c r="I60" s="161">
-        <v>0</v>
-      </c>
-      <c r="J60" s="161">
-        <v>0</v>
-      </c>
-      <c r="K60" s="161">
-        <v>0</v>
-      </c>
-      <c r="L60" s="161">
-        <v>0</v>
-      </c>
-      <c r="M60" s="161">
-        <v>0</v>
-      </c>
-      <c r="N60" s="161">
+      <c r="G60" s="145">
+        <v>0</v>
+      </c>
+      <c r="H60" s="145">
+        <v>0</v>
+      </c>
+      <c r="I60" s="145">
+        <v>0</v>
+      </c>
+      <c r="J60" s="145">
+        <v>0</v>
+      </c>
+      <c r="K60" s="145">
+        <v>0</v>
+      </c>
+      <c r="L60" s="145">
+        <v>0</v>
+      </c>
+      <c r="M60" s="145">
+        <v>0</v>
+      </c>
+      <c r="N60" s="145">
         <v>39.93</v>
       </c>
-      <c r="O60" s="153">
+      <c r="O60" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="143" t="s">
+      <c r="A61" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="146" t="s">
+      <c r="B61" s="151" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="132">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="D61" s="154" t="s">
+      <c r="D61" s="146" t="s">
         <v>103</v>
       </c>
       <c r="E61" s="134">
         <v>0.86</v>
       </c>
-      <c r="F61" s="151">
-        <v>0</v>
-      </c>
-      <c r="G61" s="152">
-        <v>0</v>
-      </c>
-      <c r="H61" s="152">
-        <v>0</v>
-      </c>
-      <c r="I61" s="162">
-        <v>0</v>
-      </c>
-      <c r="J61" s="162">
+      <c r="F61" s="143">
+        <v>0</v>
+      </c>
+      <c r="G61" s="144">
+        <v>0</v>
+      </c>
+      <c r="H61" s="144">
+        <v>0</v>
+      </c>
+      <c r="I61" s="144">
+        <v>0</v>
+      </c>
+      <c r="J61" s="144">
         <v>25.6</v>
       </c>
-      <c r="K61" s="162">
-        <v>0</v>
-      </c>
-      <c r="L61" s="162">
+      <c r="K61" s="144">
+        <v>0</v>
+      </c>
+      <c r="L61" s="144">
         <v>32.21</v>
       </c>
-      <c r="M61" s="162">
+      <c r="M61" s="144">
         <v>84.43</v>
       </c>
-      <c r="N61" s="162">
-        <v>0</v>
-      </c>
-      <c r="O61" s="152">
+      <c r="N61" s="144">
+        <v>0</v>
+      </c>
+      <c r="O61" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="144"/>
-      <c r="B62" s="147"/>
+      <c r="A62" s="156"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="D62" s="155" t="s">
+      <c r="D62" s="147" t="s">
         <v>104</v>
       </c>
       <c r="E62" s="137">
@@ -8734,41 +8719,41 @@
       <c r="F62" s="138">
         <v>0</v>
       </c>
-      <c r="G62" s="153">
-        <v>0</v>
-      </c>
-      <c r="H62" s="153">
-        <v>0</v>
-      </c>
-      <c r="I62" s="161">
-        <v>0</v>
-      </c>
-      <c r="J62" s="161">
+      <c r="G62" s="145">
+        <v>0</v>
+      </c>
+      <c r="H62" s="145">
+        <v>0</v>
+      </c>
+      <c r="I62" s="145">
+        <v>0</v>
+      </c>
+      <c r="J62" s="145">
         <v>24.71</v>
       </c>
-      <c r="K62" s="161">
-        <v>0</v>
-      </c>
-      <c r="L62" s="161">
-        <v>0</v>
-      </c>
-      <c r="M62" s="161">
+      <c r="K62" s="145">
+        <v>0</v>
+      </c>
+      <c r="L62" s="145">
+        <v>0</v>
+      </c>
+      <c r="M62" s="145">
         <v>81.48</v>
       </c>
-      <c r="N62" s="161">
+      <c r="N62" s="145">
         <v>25.26</v>
       </c>
-      <c r="O62" s="153">
+      <c r="O62" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="144"/>
-      <c r="B63" s="147"/>
+      <c r="A63" s="156"/>
+      <c r="B63" s="152"/>
       <c r="C63" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="D63" s="155" t="s">
+      <c r="D63" s="147" t="s">
         <v>105</v>
       </c>
       <c r="E63" s="137">
@@ -8777,41 +8762,41 @@
       <c r="F63" s="138">
         <v>0</v>
       </c>
-      <c r="G63" s="153">
-        <v>0</v>
-      </c>
-      <c r="H63" s="153">
-        <v>0</v>
-      </c>
-      <c r="I63" s="161">
-        <v>0</v>
-      </c>
-      <c r="J63" s="161">
-        <v>0</v>
-      </c>
-      <c r="K63" s="161">
-        <v>0</v>
-      </c>
-      <c r="L63" s="161">
+      <c r="G63" s="145">
+        <v>0</v>
+      </c>
+      <c r="H63" s="145">
+        <v>0</v>
+      </c>
+      <c r="I63" s="145">
+        <v>0</v>
+      </c>
+      <c r="J63" s="145">
+        <v>0</v>
+      </c>
+      <c r="K63" s="145">
+        <v>0</v>
+      </c>
+      <c r="L63" s="145">
         <v>29.59</v>
       </c>
-      <c r="M63" s="161">
+      <c r="M63" s="145">
         <v>77.55</v>
       </c>
-      <c r="N63" s="161">
+      <c r="N63" s="145">
         <v>24.04</v>
       </c>
-      <c r="O63" s="153">
+      <c r="O63" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="144"/>
-      <c r="B64" s="147"/>
+      <c r="A64" s="156"/>
+      <c r="B64" s="152"/>
       <c r="C64" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="D64" s="155" t="s">
+      <c r="D64" s="147" t="s">
         <v>106</v>
       </c>
       <c r="E64" s="137">
@@ -8820,41 +8805,41 @@
       <c r="F64" s="138">
         <v>0</v>
       </c>
-      <c r="G64" s="153">
-        <v>0</v>
-      </c>
-      <c r="H64" s="153">
-        <v>0</v>
-      </c>
-      <c r="I64" s="161">
-        <v>0</v>
-      </c>
-      <c r="J64" s="161">
+      <c r="G64" s="145">
+        <v>0</v>
+      </c>
+      <c r="H64" s="145">
+        <v>0</v>
+      </c>
+      <c r="I64" s="145">
+        <v>0</v>
+      </c>
+      <c r="J64" s="145">
         <v>22.03</v>
       </c>
-      <c r="K64" s="161">
-        <v>0</v>
-      </c>
-      <c r="L64" s="161">
+      <c r="K64" s="145">
+        <v>0</v>
+      </c>
+      <c r="L64" s="145">
         <v>27.71</v>
       </c>
-      <c r="M64" s="161">
+      <c r="M64" s="145">
         <v>72.650000000000006</v>
       </c>
-      <c r="N64" s="161">
-        <v>0</v>
-      </c>
-      <c r="O64" s="153">
+      <c r="N64" s="145">
+        <v>0</v>
+      </c>
+      <c r="O64" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="145"/>
-      <c r="B65" s="148"/>
+      <c r="A65" s="157"/>
+      <c r="B65" s="153"/>
       <c r="C65" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="D65" s="155" t="s">
+      <c r="D65" s="147" t="s">
         <v>107</v>
       </c>
       <c r="E65" s="137">
@@ -8863,88 +8848,88 @@
       <c r="F65" s="138">
         <v>0</v>
       </c>
-      <c r="G65" s="153">
-        <v>0</v>
-      </c>
-      <c r="H65" s="153">
-        <v>0</v>
-      </c>
-      <c r="I65" s="161">
-        <v>0</v>
-      </c>
-      <c r="J65" s="161">
+      <c r="G65" s="145">
+        <v>0</v>
+      </c>
+      <c r="H65" s="145">
+        <v>0</v>
+      </c>
+      <c r="I65" s="145">
+        <v>0</v>
+      </c>
+      <c r="J65" s="145">
         <v>21.73</v>
       </c>
-      <c r="K65" s="161">
-        <v>0</v>
-      </c>
-      <c r="L65" s="161">
+      <c r="K65" s="145">
+        <v>0</v>
+      </c>
+      <c r="L65" s="145">
         <v>27.34</v>
       </c>
-      <c r="M65" s="161">
+      <c r="M65" s="145">
         <v>71.66</v>
       </c>
-      <c r="N65" s="161">
-        <v>0</v>
-      </c>
-      <c r="O65" s="153">
+      <c r="N65" s="145">
+        <v>0</v>
+      </c>
+      <c r="O65" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="143" t="s">
+      <c r="A66" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="146" t="s">
+      <c r="B66" s="151" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="132">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="D66" s="154" t="s">
+      <c r="D66" s="146" t="s">
         <v>108</v>
       </c>
       <c r="E66" s="134">
         <v>0.85</v>
       </c>
-      <c r="F66" s="151">
-        <v>0</v>
-      </c>
-      <c r="G66" s="152">
-        <v>0</v>
-      </c>
-      <c r="H66" s="152">
-        <v>0</v>
-      </c>
-      <c r="I66" s="162">
-        <v>0</v>
-      </c>
-      <c r="J66" s="162">
-        <v>0</v>
-      </c>
-      <c r="K66" s="162">
+      <c r="F66" s="143">
+        <v>0</v>
+      </c>
+      <c r="G66" s="144">
+        <v>0</v>
+      </c>
+      <c r="H66" s="144">
+        <v>0</v>
+      </c>
+      <c r="I66" s="144">
+        <v>0</v>
+      </c>
+      <c r="J66" s="144">
+        <v>0</v>
+      </c>
+      <c r="K66" s="144">
         <v>59.02</v>
       </c>
-      <c r="L66" s="162">
-        <v>0</v>
-      </c>
-      <c r="M66" s="162">
-        <v>0</v>
-      </c>
-      <c r="N66" s="162">
-        <v>0</v>
-      </c>
-      <c r="O66" s="152">
+      <c r="L66" s="144">
+        <v>0</v>
+      </c>
+      <c r="M66" s="144">
+        <v>0</v>
+      </c>
+      <c r="N66" s="144">
+        <v>0</v>
+      </c>
+      <c r="O66" s="144">
         <v>106.01</v>
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="144"/>
-      <c r="B67" s="147"/>
+      <c r="A67" s="156"/>
+      <c r="B67" s="152"/>
       <c r="C67" s="140">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="D67" s="155" t="s">
+      <c r="D67" s="147" t="s">
         <v>109</v>
       </c>
       <c r="E67" s="137">
@@ -8953,41 +8938,41 @@
       <c r="F67" s="138">
         <v>0</v>
       </c>
-      <c r="G67" s="153">
-        <v>0</v>
-      </c>
-      <c r="H67" s="153">
+      <c r="G67" s="145">
+        <v>0</v>
+      </c>
+      <c r="H67" s="145">
         <v>17.899999999999999</v>
       </c>
-      <c r="I67" s="161">
-        <v>0</v>
-      </c>
-      <c r="J67" s="161">
-        <v>0</v>
-      </c>
-      <c r="K67" s="161">
+      <c r="I67" s="145">
+        <v>0</v>
+      </c>
+      <c r="J67" s="145">
+        <v>0</v>
+      </c>
+      <c r="K67" s="145">
         <v>58.33</v>
       </c>
-      <c r="L67" s="161">
-        <v>0</v>
-      </c>
-      <c r="M67" s="161">
-        <v>0</v>
-      </c>
-      <c r="N67" s="161">
-        <v>0</v>
-      </c>
-      <c r="O67" s="153">
+      <c r="L67" s="145">
+        <v>0</v>
+      </c>
+      <c r="M67" s="145">
+        <v>0</v>
+      </c>
+      <c r="N67" s="145">
+        <v>0</v>
+      </c>
+      <c r="O67" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="144"/>
-      <c r="B68" s="147"/>
+      <c r="A68" s="156"/>
+      <c r="B68" s="152"/>
       <c r="C68" s="140">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="D68" s="155" t="s">
+      <c r="D68" s="147" t="s">
         <v>110</v>
       </c>
       <c r="E68" s="137">
@@ -8996,41 +8981,41 @@
       <c r="F68" s="138">
         <v>41.25</v>
       </c>
-      <c r="G68" s="153">
-        <v>0</v>
-      </c>
-      <c r="H68" s="153">
-        <v>0</v>
-      </c>
-      <c r="I68" s="161">
-        <v>0</v>
-      </c>
-      <c r="J68" s="161">
-        <v>0</v>
-      </c>
-      <c r="K68" s="161">
+      <c r="G68" s="145">
+        <v>0</v>
+      </c>
+      <c r="H68" s="145">
+        <v>0</v>
+      </c>
+      <c r="I68" s="145">
+        <v>0</v>
+      </c>
+      <c r="J68" s="145">
+        <v>0</v>
+      </c>
+      <c r="K68" s="145">
         <v>56.94</v>
       </c>
-      <c r="L68" s="161">
-        <v>0</v>
-      </c>
-      <c r="M68" s="161">
-        <v>0</v>
-      </c>
-      <c r="N68" s="161">
-        <v>0</v>
-      </c>
-      <c r="O68" s="153">
+      <c r="L68" s="145">
+        <v>0</v>
+      </c>
+      <c r="M68" s="145">
+        <v>0</v>
+      </c>
+      <c r="N68" s="145">
+        <v>0</v>
+      </c>
+      <c r="O68" s="145">
         <v>102.27</v>
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="145"/>
-      <c r="B69" s="148"/>
+      <c r="A69" s="157"/>
+      <c r="B69" s="153"/>
       <c r="C69" s="140">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="D69" s="155" t="s">
+      <c r="D69" s="147" t="s">
         <v>111</v>
       </c>
       <c r="E69" s="137">
@@ -9039,88 +9024,88 @@
       <c r="F69" s="138">
         <v>37.729999999999997</v>
       </c>
-      <c r="G69" s="153">
-        <v>0</v>
-      </c>
-      <c r="H69" s="153">
-        <v>0</v>
-      </c>
-      <c r="I69" s="161">
-        <v>0</v>
-      </c>
-      <c r="J69" s="161">
-        <v>0</v>
-      </c>
-      <c r="K69" s="161">
+      <c r="G69" s="145">
+        <v>0</v>
+      </c>
+      <c r="H69" s="145">
+        <v>0</v>
+      </c>
+      <c r="I69" s="145">
+        <v>0</v>
+      </c>
+      <c r="J69" s="145">
+        <v>0</v>
+      </c>
+      <c r="K69" s="145">
         <v>52.08</v>
       </c>
-      <c r="L69" s="161">
-        <v>0</v>
-      </c>
-      <c r="M69" s="161">
-        <v>0</v>
-      </c>
-      <c r="N69" s="161">
-        <v>0</v>
-      </c>
-      <c r="O69" s="153">
+      <c r="L69" s="145">
+        <v>0</v>
+      </c>
+      <c r="M69" s="145">
+        <v>0</v>
+      </c>
+      <c r="N69" s="145">
+        <v>0</v>
+      </c>
+      <c r="O69" s="145">
         <v>93.54</v>
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="143" t="s">
+      <c r="A70" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="146" t="s">
+      <c r="B70" s="151" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="132">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D70" s="154" t="s">
+      <c r="D70" s="146" t="s">
         <v>69</v>
       </c>
       <c r="E70" s="134">
         <v>0.86</v>
       </c>
-      <c r="F70" s="151">
+      <c r="F70" s="143">
         <v>52.36</v>
       </c>
-      <c r="G70" s="152">
+      <c r="G70" s="144">
         <v>30.12</v>
       </c>
-      <c r="H70" s="152">
+      <c r="H70" s="144">
         <v>83.15</v>
       </c>
-      <c r="I70" s="162">
-        <v>0</v>
-      </c>
-      <c r="J70" s="162">
-        <v>0</v>
-      </c>
-      <c r="K70" s="162">
+      <c r="I70" s="144">
+        <v>0</v>
+      </c>
+      <c r="J70" s="144">
+        <v>0</v>
+      </c>
+      <c r="K70" s="144">
         <v>38.72</v>
       </c>
-      <c r="L70" s="162">
+      <c r="L70" s="144">
         <v>8.93</v>
       </c>
-      <c r="M70" s="162">
-        <v>0</v>
-      </c>
-      <c r="N70" s="162">
-        <v>0</v>
-      </c>
-      <c r="O70" s="152">
+      <c r="M70" s="144">
+        <v>0</v>
+      </c>
+      <c r="N70" s="144">
+        <v>0</v>
+      </c>
+      <c r="O70" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="144"/>
-      <c r="B71" s="147"/>
+      <c r="A71" s="156"/>
+      <c r="B71" s="152"/>
       <c r="C71" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D71" s="155" t="s">
+      <c r="D71" s="147" t="s">
         <v>70</v>
       </c>
       <c r="E71" s="137">
@@ -9129,41 +9114,41 @@
       <c r="F71" s="138">
         <v>51.14</v>
       </c>
-      <c r="G71" s="153">
-        <v>0</v>
-      </c>
-      <c r="H71" s="153">
+      <c r="G71" s="145">
+        <v>0</v>
+      </c>
+      <c r="H71" s="145">
         <v>81.22</v>
       </c>
-      <c r="I71" s="161">
-        <v>0</v>
-      </c>
-      <c r="J71" s="161">
-        <v>0</v>
-      </c>
-      <c r="K71" s="161">
-        <v>0</v>
-      </c>
-      <c r="L71" s="161">
-        <v>0</v>
-      </c>
-      <c r="M71" s="161">
-        <v>0</v>
-      </c>
-      <c r="N71" s="161">
-        <v>0</v>
-      </c>
-      <c r="O71" s="153">
+      <c r="I71" s="145">
+        <v>0</v>
+      </c>
+      <c r="J71" s="145">
+        <v>0</v>
+      </c>
+      <c r="K71" s="145">
+        <v>0</v>
+      </c>
+      <c r="L71" s="145">
+        <v>0</v>
+      </c>
+      <c r="M71" s="145">
+        <v>0</v>
+      </c>
+      <c r="N71" s="145">
+        <v>0</v>
+      </c>
+      <c r="O71" s="145">
         <v>41.59</v>
       </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="144"/>
-      <c r="B72" s="147"/>
+      <c r="A72" s="156"/>
+      <c r="B72" s="152"/>
       <c r="C72" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D72" s="155" t="s">
+      <c r="D72" s="147" t="s">
         <v>75</v>
       </c>
       <c r="E72" s="137">
@@ -9172,41 +9157,41 @@
       <c r="F72" s="138">
         <v>45.66</v>
       </c>
-      <c r="G72" s="153">
+      <c r="G72" s="145">
         <v>26.26</v>
       </c>
-      <c r="H72" s="153">
+      <c r="H72" s="145">
         <v>72.52</v>
       </c>
-      <c r="I72" s="161">
-        <v>0</v>
-      </c>
-      <c r="J72" s="161">
-        <v>0</v>
-      </c>
-      <c r="K72" s="161">
+      <c r="I72" s="145">
+        <v>0</v>
+      </c>
+      <c r="J72" s="145">
+        <v>0</v>
+      </c>
+      <c r="K72" s="145">
         <v>33.76</v>
       </c>
-      <c r="L72" s="161">
-        <v>0</v>
-      </c>
-      <c r="M72" s="161">
-        <v>0</v>
-      </c>
-      <c r="N72" s="161">
-        <v>0</v>
-      </c>
-      <c r="O72" s="153">
+      <c r="L72" s="145">
+        <v>0</v>
+      </c>
+      <c r="M72" s="145">
+        <v>0</v>
+      </c>
+      <c r="N72" s="145">
+        <v>0</v>
+      </c>
+      <c r="O72" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="144"/>
-      <c r="B73" s="147"/>
+      <c r="A73" s="156"/>
+      <c r="B73" s="152"/>
       <c r="C73" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D73" s="155" t="s">
+      <c r="D73" s="147" t="s">
         <v>72</v>
       </c>
       <c r="E73" s="137">
@@ -9215,41 +9200,41 @@
       <c r="F73" s="138">
         <v>38.35</v>
       </c>
-      <c r="G73" s="153">
+      <c r="G73" s="145">
         <v>22.06</v>
       </c>
-      <c r="H73" s="153">
+      <c r="H73" s="145">
         <v>60.91</v>
       </c>
-      <c r="I73" s="161">
-        <v>0</v>
-      </c>
-      <c r="J73" s="161">
-        <v>0</v>
-      </c>
-      <c r="K73" s="161">
+      <c r="I73" s="145">
+        <v>0</v>
+      </c>
+      <c r="J73" s="145">
+        <v>0</v>
+      </c>
+      <c r="K73" s="145">
         <v>28.36</v>
       </c>
-      <c r="L73" s="161">
+      <c r="L73" s="145">
         <v>6.54</v>
       </c>
-      <c r="M73" s="161">
-        <v>0</v>
-      </c>
-      <c r="N73" s="161">
-        <v>0</v>
-      </c>
-      <c r="O73" s="153">
+      <c r="M73" s="145">
+        <v>0</v>
+      </c>
+      <c r="N73" s="145">
+        <v>0</v>
+      </c>
+      <c r="O73" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="144"/>
-      <c r="B74" s="147"/>
+      <c r="A74" s="156"/>
+      <c r="B74" s="152"/>
       <c r="C74" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D74" s="155" t="s">
+      <c r="D74" s="147" t="s">
         <v>73</v>
       </c>
       <c r="E74" s="137">
@@ -9258,41 +9243,41 @@
       <c r="F74" s="138">
         <v>0</v>
       </c>
-      <c r="G74" s="153">
-        <v>0</v>
-      </c>
-      <c r="H74" s="153">
+      <c r="G74" s="145">
+        <v>0</v>
+      </c>
+      <c r="H74" s="145">
         <v>58.01</v>
       </c>
-      <c r="I74" s="161">
-        <v>0</v>
-      </c>
-      <c r="J74" s="161">
-        <v>0</v>
-      </c>
-      <c r="K74" s="161">
-        <v>0</v>
-      </c>
-      <c r="L74" s="161">
+      <c r="I74" s="145">
+        <v>0</v>
+      </c>
+      <c r="J74" s="145">
+        <v>0</v>
+      </c>
+      <c r="K74" s="145">
+        <v>0</v>
+      </c>
+      <c r="L74" s="145">
         <v>6.23</v>
       </c>
-      <c r="M74" s="161">
-        <v>0</v>
-      </c>
-      <c r="N74" s="161">
-        <v>0</v>
-      </c>
-      <c r="O74" s="153">
+      <c r="M74" s="145">
+        <v>0</v>
+      </c>
+      <c r="N74" s="145">
+        <v>0</v>
+      </c>
+      <c r="O74" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="144"/>
-      <c r="B75" s="147"/>
+      <c r="A75" s="156"/>
+      <c r="B75" s="152"/>
       <c r="C75" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D75" s="155" t="s">
+      <c r="D75" s="147" t="s">
         <v>74</v>
       </c>
       <c r="E75" s="137">
@@ -9301,41 +9286,41 @@
       <c r="F75" s="138">
         <v>0</v>
       </c>
-      <c r="G75" s="153">
+      <c r="G75" s="145">
         <v>26.96</v>
       </c>
-      <c r="H75" s="153">
+      <c r="H75" s="145">
         <v>74.45</v>
       </c>
-      <c r="I75" s="161">
-        <v>0</v>
-      </c>
-      <c r="J75" s="161">
-        <v>0</v>
-      </c>
-      <c r="K75" s="161">
-        <v>0</v>
-      </c>
-      <c r="L75" s="161">
-        <v>0</v>
-      </c>
-      <c r="M75" s="161">
-        <v>0</v>
-      </c>
-      <c r="N75" s="161">
-        <v>0</v>
-      </c>
-      <c r="O75" s="153">
+      <c r="I75" s="145">
+        <v>0</v>
+      </c>
+      <c r="J75" s="145">
+        <v>0</v>
+      </c>
+      <c r="K75" s="145">
+        <v>0</v>
+      </c>
+      <c r="L75" s="145">
+        <v>0</v>
+      </c>
+      <c r="M75" s="145">
+        <v>0</v>
+      </c>
+      <c r="N75" s="145">
+        <v>0</v>
+      </c>
+      <c r="O75" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="145"/>
-      <c r="B76" s="148"/>
+      <c r="A76" s="157"/>
+      <c r="B76" s="153"/>
       <c r="C76" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="D76" s="155" t="s">
+      <c r="D76" s="147" t="s">
         <v>76</v>
       </c>
       <c r="E76" s="137">
@@ -9344,88 +9329,88 @@
       <c r="F76" s="138">
         <v>0</v>
       </c>
-      <c r="G76" s="153">
+      <c r="G76" s="145">
         <v>14.01</v>
       </c>
-      <c r="H76" s="153">
+      <c r="H76" s="145">
         <v>38.68</v>
       </c>
-      <c r="I76" s="161">
-        <v>0</v>
-      </c>
-      <c r="J76" s="161">
-        <v>0</v>
-      </c>
-      <c r="K76" s="161">
-        <v>0</v>
-      </c>
-      <c r="L76" s="161">
-        <v>0</v>
-      </c>
-      <c r="M76" s="161">
-        <v>0</v>
-      </c>
-      <c r="N76" s="161">
-        <v>0</v>
-      </c>
-      <c r="O76" s="153">
+      <c r="I76" s="145">
+        <v>0</v>
+      </c>
+      <c r="J76" s="145">
+        <v>0</v>
+      </c>
+      <c r="K76" s="145">
+        <v>0</v>
+      </c>
+      <c r="L76" s="145">
+        <v>0</v>
+      </c>
+      <c r="M76" s="145">
+        <v>0</v>
+      </c>
+      <c r="N76" s="145">
+        <v>0</v>
+      </c>
+      <c r="O76" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="143" t="s">
+      <c r="A77" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="146" t="s">
+      <c r="B77" s="151" t="s">
         <v>88</v>
       </c>
       <c r="C77" s="132">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D77" s="154" t="s">
+      <c r="D77" s="146" t="s">
         <v>112</v>
       </c>
       <c r="E77" s="134">
         <v>0.82</v>
       </c>
-      <c r="F77" s="151">
+      <c r="F77" s="143">
         <v>34.549999999999997</v>
       </c>
-      <c r="G77" s="152">
+      <c r="G77" s="144">
         <v>17.03</v>
       </c>
-      <c r="H77" s="152">
-        <v>0</v>
-      </c>
-      <c r="I77" s="162">
-        <v>0</v>
-      </c>
-      <c r="J77" s="162">
-        <v>0</v>
-      </c>
-      <c r="K77" s="162">
+      <c r="H77" s="144">
+        <v>0</v>
+      </c>
+      <c r="I77" s="144">
+        <v>0</v>
+      </c>
+      <c r="J77" s="144">
+        <v>0</v>
+      </c>
+      <c r="K77" s="144">
         <v>26.77</v>
       </c>
-      <c r="L77" s="162">
-        <v>0</v>
-      </c>
-      <c r="M77" s="162">
-        <v>0</v>
-      </c>
-      <c r="N77" s="162">
-        <v>0</v>
-      </c>
-      <c r="O77" s="152">
+      <c r="L77" s="144">
+        <v>0</v>
+      </c>
+      <c r="M77" s="144">
+        <v>0</v>
+      </c>
+      <c r="N77" s="144">
+        <v>0</v>
+      </c>
+      <c r="O77" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="144"/>
-      <c r="B78" s="147"/>
+      <c r="A78" s="156"/>
+      <c r="B78" s="152"/>
       <c r="C78" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D78" s="155" t="s">
+      <c r="D78" s="147" t="s">
         <v>113</v>
       </c>
       <c r="E78" s="137">
@@ -9434,41 +9419,41 @@
       <c r="F78" s="138">
         <v>34.130000000000003</v>
       </c>
-      <c r="G78" s="153">
+      <c r="G78" s="145">
         <v>16.829999999999998</v>
       </c>
-      <c r="H78" s="153">
-        <v>0</v>
-      </c>
-      <c r="I78" s="161">
-        <v>0</v>
-      </c>
-      <c r="J78" s="161">
-        <v>0</v>
-      </c>
-      <c r="K78" s="161">
+      <c r="H78" s="145">
+        <v>0</v>
+      </c>
+      <c r="I78" s="145">
+        <v>0</v>
+      </c>
+      <c r="J78" s="145">
+        <v>0</v>
+      </c>
+      <c r="K78" s="145">
         <v>26.44</v>
       </c>
-      <c r="L78" s="161">
-        <v>0</v>
-      </c>
-      <c r="M78" s="161">
-        <v>0</v>
-      </c>
-      <c r="N78" s="161">
-        <v>0</v>
-      </c>
-      <c r="O78" s="153">
+      <c r="L78" s="145">
+        <v>0</v>
+      </c>
+      <c r="M78" s="145">
+        <v>0</v>
+      </c>
+      <c r="N78" s="145">
+        <v>0</v>
+      </c>
+      <c r="O78" s="145">
         <v>19.829999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="144"/>
-      <c r="B79" s="147"/>
+      <c r="A79" s="156"/>
+      <c r="B79" s="152"/>
       <c r="C79" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D79" s="155" t="s">
+      <c r="D79" s="147" t="s">
         <v>114</v>
       </c>
       <c r="E79" s="137">
@@ -9477,41 +9462,41 @@
       <c r="F79" s="138">
         <v>0</v>
       </c>
-      <c r="G79" s="153">
+      <c r="G79" s="145">
         <v>15.58</v>
       </c>
-      <c r="H79" s="153">
-        <v>0</v>
-      </c>
-      <c r="I79" s="161">
-        <v>0</v>
-      </c>
-      <c r="J79" s="161">
-        <v>0</v>
-      </c>
-      <c r="K79" s="161">
-        <v>0</v>
-      </c>
-      <c r="L79" s="161">
-        <v>0</v>
-      </c>
-      <c r="M79" s="161">
-        <v>0</v>
-      </c>
-      <c r="N79" s="161">
-        <v>0</v>
-      </c>
-      <c r="O79" s="153">
+      <c r="H79" s="145">
+        <v>0</v>
+      </c>
+      <c r="I79" s="145">
+        <v>0</v>
+      </c>
+      <c r="J79" s="145">
+        <v>0</v>
+      </c>
+      <c r="K79" s="145">
+        <v>0</v>
+      </c>
+      <c r="L79" s="145">
+        <v>0</v>
+      </c>
+      <c r="M79" s="145">
+        <v>0</v>
+      </c>
+      <c r="N79" s="145">
+        <v>0</v>
+      </c>
+      <c r="O79" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="144"/>
-      <c r="B80" s="147"/>
+      <c r="A80" s="156"/>
+      <c r="B80" s="152"/>
       <c r="C80" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D80" s="155" t="s">
+      <c r="D80" s="147" t="s">
         <v>115</v>
       </c>
       <c r="E80" s="137">
@@ -9520,41 +9505,41 @@
       <c r="F80" s="138">
         <v>0</v>
       </c>
-      <c r="G80" s="153">
+      <c r="G80" s="145">
         <v>15.37</v>
       </c>
-      <c r="H80" s="153">
-        <v>0</v>
-      </c>
-      <c r="I80" s="161">
-        <v>0</v>
-      </c>
-      <c r="J80" s="161">
-        <v>0</v>
-      </c>
-      <c r="K80" s="161">
-        <v>0</v>
-      </c>
-      <c r="L80" s="161">
-        <v>0</v>
-      </c>
-      <c r="M80" s="161">
-        <v>0</v>
-      </c>
-      <c r="N80" s="161">
-        <v>0</v>
-      </c>
-      <c r="O80" s="153">
+      <c r="H80" s="145">
+        <v>0</v>
+      </c>
+      <c r="I80" s="145">
+        <v>0</v>
+      </c>
+      <c r="J80" s="145">
+        <v>0</v>
+      </c>
+      <c r="K80" s="145">
+        <v>0</v>
+      </c>
+      <c r="L80" s="145">
+        <v>0</v>
+      </c>
+      <c r="M80" s="145">
+        <v>0</v>
+      </c>
+      <c r="N80" s="145">
+        <v>0</v>
+      </c>
+      <c r="O80" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="145"/>
-      <c r="B81" s="148"/>
+      <c r="A81" s="157"/>
+      <c r="B81" s="153"/>
       <c r="C81" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D81" s="155" t="s">
+      <c r="D81" s="147" t="s">
         <v>116</v>
       </c>
       <c r="E81" s="137">
@@ -9563,88 +9548,88 @@
       <c r="F81" s="138">
         <v>30.34</v>
       </c>
-      <c r="G81" s="153">
+      <c r="G81" s="145">
         <v>14.96</v>
       </c>
-      <c r="H81" s="153">
-        <v>0</v>
-      </c>
-      <c r="I81" s="161">
-        <v>0</v>
-      </c>
-      <c r="J81" s="161">
-        <v>0</v>
-      </c>
-      <c r="K81" s="161">
+      <c r="H81" s="145">
+        <v>0</v>
+      </c>
+      <c r="I81" s="145">
+        <v>0</v>
+      </c>
+      <c r="J81" s="145">
+        <v>0</v>
+      </c>
+      <c r="K81" s="145">
         <v>23.5</v>
       </c>
-      <c r="L81" s="161">
-        <v>0</v>
-      </c>
-      <c r="M81" s="161">
-        <v>0</v>
-      </c>
-      <c r="N81" s="161">
-        <v>0</v>
-      </c>
-      <c r="O81" s="153">
+      <c r="L81" s="145">
+        <v>0</v>
+      </c>
+      <c r="M81" s="145">
+        <v>0</v>
+      </c>
+      <c r="N81" s="145">
+        <v>0</v>
+      </c>
+      <c r="O81" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="143" t="s">
+      <c r="A82" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="146" t="s">
+      <c r="B82" s="151" t="s">
         <v>66</v>
       </c>
       <c r="C82" s="132">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="D82" s="154" t="s">
+      <c r="D82" s="146" t="s">
         <v>117</v>
       </c>
       <c r="E82" s="134">
         <v>0.95</v>
       </c>
-      <c r="F82" s="151">
+      <c r="F82" s="143">
         <v>34.82</v>
       </c>
-      <c r="G82" s="152">
+      <c r="G82" s="144">
         <v>33.14</v>
       </c>
-      <c r="H82" s="152">
+      <c r="H82" s="144">
         <v>14.75</v>
       </c>
-      <c r="I82" s="162">
-        <v>0</v>
-      </c>
-      <c r="J82" s="162">
-        <v>0</v>
-      </c>
-      <c r="K82" s="162">
+      <c r="I82" s="144">
+        <v>0</v>
+      </c>
+      <c r="J82" s="144">
+        <v>0</v>
+      </c>
+      <c r="K82" s="144">
         <v>38.72</v>
       </c>
-      <c r="L82" s="162">
-        <v>0</v>
-      </c>
-      <c r="M82" s="162">
-        <v>0</v>
-      </c>
-      <c r="N82" s="162">
-        <v>0</v>
-      </c>
-      <c r="O82" s="152">
+      <c r="L82" s="144">
+        <v>0</v>
+      </c>
+      <c r="M82" s="144">
+        <v>0</v>
+      </c>
+      <c r="N82" s="144">
+        <v>0</v>
+      </c>
+      <c r="O82" s="144">
         <v>92.04</v>
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="144"/>
-      <c r="B83" s="147"/>
+      <c r="A83" s="156"/>
+      <c r="B83" s="152"/>
       <c r="C83" s="140">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="D83" s="155" t="s">
+      <c r="D83" s="147" t="s">
         <v>118</v>
       </c>
       <c r="E83" s="137">
@@ -9653,41 +9638,41 @@
       <c r="F83" s="138">
         <v>0</v>
       </c>
-      <c r="G83" s="153">
-        <v>0</v>
-      </c>
-      <c r="H83" s="153">
-        <v>0</v>
-      </c>
-      <c r="I83" s="161">
-        <v>0</v>
-      </c>
-      <c r="J83" s="161">
-        <v>0</v>
-      </c>
-      <c r="K83" s="161">
-        <v>0</v>
-      </c>
-      <c r="L83" s="161">
-        <v>0</v>
-      </c>
-      <c r="M83" s="161">
-        <v>0</v>
-      </c>
-      <c r="N83" s="161">
-        <v>0</v>
-      </c>
-      <c r="O83" s="153">
+      <c r="G83" s="145">
+        <v>0</v>
+      </c>
+      <c r="H83" s="145">
+        <v>0</v>
+      </c>
+      <c r="I83" s="145">
+        <v>0</v>
+      </c>
+      <c r="J83" s="145">
+        <v>0</v>
+      </c>
+      <c r="K83" s="145">
+        <v>0</v>
+      </c>
+      <c r="L83" s="145">
+        <v>0</v>
+      </c>
+      <c r="M83" s="145">
+        <v>0</v>
+      </c>
+      <c r="N83" s="145">
+        <v>0</v>
+      </c>
+      <c r="O83" s="145">
         <v>87.2</v>
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="145"/>
-      <c r="B84" s="148"/>
+      <c r="A84" s="157"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="140">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="D84" s="155" t="s">
+      <c r="D84" s="147" t="s">
         <v>119</v>
       </c>
       <c r="E84" s="137">
@@ -9696,88 +9681,88 @@
       <c r="F84" s="138">
         <v>0</v>
       </c>
-      <c r="G84" s="153">
-        <v>0</v>
-      </c>
-      <c r="H84" s="153">
-        <v>0</v>
-      </c>
-      <c r="I84" s="161">
-        <v>0</v>
-      </c>
-      <c r="J84" s="161">
-        <v>0</v>
-      </c>
-      <c r="K84" s="161">
-        <v>0</v>
-      </c>
-      <c r="L84" s="161">
-        <v>0</v>
-      </c>
-      <c r="M84" s="161">
-        <v>0</v>
-      </c>
-      <c r="N84" s="161">
-        <v>0</v>
-      </c>
-      <c r="O84" s="153">
+      <c r="G84" s="145">
+        <v>0</v>
+      </c>
+      <c r="H84" s="145">
+        <v>0</v>
+      </c>
+      <c r="I84" s="145">
+        <v>0</v>
+      </c>
+      <c r="J84" s="145">
+        <v>0</v>
+      </c>
+      <c r="K84" s="145">
+        <v>0</v>
+      </c>
+      <c r="L84" s="145">
+        <v>0</v>
+      </c>
+      <c r="M84" s="145">
+        <v>0</v>
+      </c>
+      <c r="N84" s="145">
+        <v>0</v>
+      </c>
+      <c r="O84" s="145">
         <v>81.38</v>
       </c>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="143" t="s">
+      <c r="A85" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="146" t="s">
+      <c r="B85" s="151" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="132">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D85" s="154" t="s">
+      <c r="D85" s="146" t="s">
         <v>120</v>
       </c>
       <c r="E85" s="134">
         <v>0.84</v>
       </c>
-      <c r="F85" s="151">
-        <v>0</v>
-      </c>
-      <c r="G85" s="152">
-        <v>0</v>
-      </c>
-      <c r="H85" s="152">
-        <v>0</v>
-      </c>
-      <c r="I85" s="162">
-        <v>0</v>
-      </c>
-      <c r="J85" s="162">
-        <v>0</v>
-      </c>
-      <c r="K85" s="162">
-        <v>0</v>
-      </c>
-      <c r="L85" s="162">
-        <v>0</v>
-      </c>
-      <c r="M85" s="162">
-        <v>0</v>
-      </c>
-      <c r="N85" s="162">
-        <v>0</v>
-      </c>
-      <c r="O85" s="152">
+      <c r="F85" s="143">
+        <v>0</v>
+      </c>
+      <c r="G85" s="144">
+        <v>0</v>
+      </c>
+      <c r="H85" s="144">
+        <v>0</v>
+      </c>
+      <c r="I85" s="144">
+        <v>0</v>
+      </c>
+      <c r="J85" s="144">
+        <v>0</v>
+      </c>
+      <c r="K85" s="144">
+        <v>0</v>
+      </c>
+      <c r="L85" s="144">
+        <v>0</v>
+      </c>
+      <c r="M85" s="144">
+        <v>0</v>
+      </c>
+      <c r="N85" s="144">
+        <v>0</v>
+      </c>
+      <c r="O85" s="144">
         <v>48.4</v>
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="144"/>
-      <c r="B86" s="147"/>
+      <c r="A86" s="156"/>
+      <c r="B86" s="152"/>
       <c r="C86" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D86" s="155" t="s">
+      <c r="D86" s="147" t="s">
         <v>121</v>
       </c>
       <c r="E86" s="137">
@@ -9786,41 +9771,41 @@
       <c r="F86" s="138">
         <v>0</v>
       </c>
-      <c r="G86" s="153">
-        <v>0</v>
-      </c>
-      <c r="H86" s="153">
-        <v>0</v>
-      </c>
-      <c r="I86" s="161">
-        <v>0</v>
-      </c>
-      <c r="J86" s="161">
-        <v>0</v>
-      </c>
-      <c r="K86" s="161">
-        <v>0</v>
-      </c>
-      <c r="L86" s="161">
-        <v>0</v>
-      </c>
-      <c r="M86" s="161">
-        <v>0</v>
-      </c>
-      <c r="N86" s="161">
-        <v>0</v>
-      </c>
-      <c r="O86" s="153">
+      <c r="G86" s="145">
+        <v>0</v>
+      </c>
+      <c r="H86" s="145">
+        <v>0</v>
+      </c>
+      <c r="I86" s="145">
+        <v>0</v>
+      </c>
+      <c r="J86" s="145">
+        <v>0</v>
+      </c>
+      <c r="K86" s="145">
+        <v>0</v>
+      </c>
+      <c r="L86" s="145">
+        <v>0</v>
+      </c>
+      <c r="M86" s="145">
+        <v>0</v>
+      </c>
+      <c r="N86" s="145">
+        <v>0</v>
+      </c>
+      <c r="O86" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="144"/>
-      <c r="B87" s="147"/>
+      <c r="A87" s="156"/>
+      <c r="B87" s="152"/>
       <c r="C87" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D87" s="155" t="s">
+      <c r="D87" s="147" t="s">
         <v>122</v>
       </c>
       <c r="E87" s="137">
@@ -9829,41 +9814,41 @@
       <c r="F87" s="138">
         <v>0</v>
       </c>
-      <c r="G87" s="153">
-        <v>0</v>
-      </c>
-      <c r="H87" s="153">
-        <v>0</v>
-      </c>
-      <c r="I87" s="161">
+      <c r="G87" s="145">
+        <v>0</v>
+      </c>
+      <c r="H87" s="145">
+        <v>0</v>
+      </c>
+      <c r="I87" s="145">
         <v>6.81</v>
       </c>
-      <c r="J87" s="161">
-        <v>0</v>
-      </c>
-      <c r="K87" s="161">
-        <v>0</v>
-      </c>
-      <c r="L87" s="161">
-        <v>0</v>
-      </c>
-      <c r="M87" s="161">
-        <v>0</v>
-      </c>
-      <c r="N87" s="161">
-        <v>0</v>
-      </c>
-      <c r="O87" s="153">
+      <c r="J87" s="145">
+        <v>0</v>
+      </c>
+      <c r="K87" s="145">
+        <v>0</v>
+      </c>
+      <c r="L87" s="145">
+        <v>0</v>
+      </c>
+      <c r="M87" s="145">
+        <v>0</v>
+      </c>
+      <c r="N87" s="145">
+        <v>0</v>
+      </c>
+      <c r="O87" s="145">
         <v>42.63</v>
       </c>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="144"/>
-      <c r="B88" s="147"/>
+      <c r="A88" s="156"/>
+      <c r="B88" s="152"/>
       <c r="C88" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D88" s="155" t="s">
+      <c r="D88" s="147" t="s">
         <v>123</v>
       </c>
       <c r="E88" s="137">
@@ -9872,41 +9857,41 @@
       <c r="F88" s="138">
         <v>0</v>
       </c>
-      <c r="G88" s="153">
-        <v>0</v>
-      </c>
-      <c r="H88" s="153">
-        <v>0</v>
-      </c>
-      <c r="I88" s="161">
+      <c r="G88" s="145">
+        <v>0</v>
+      </c>
+      <c r="H88" s="145">
+        <v>0</v>
+      </c>
+      <c r="I88" s="145">
         <v>6.62</v>
       </c>
-      <c r="J88" s="161">
-        <v>0</v>
-      </c>
-      <c r="K88" s="161">
-        <v>0</v>
-      </c>
-      <c r="L88" s="161">
-        <v>0</v>
-      </c>
-      <c r="M88" s="161">
-        <v>0</v>
-      </c>
-      <c r="N88" s="161">
-        <v>0</v>
-      </c>
-      <c r="O88" s="153">
+      <c r="J88" s="145">
+        <v>0</v>
+      </c>
+      <c r="K88" s="145">
+        <v>0</v>
+      </c>
+      <c r="L88" s="145">
+        <v>0</v>
+      </c>
+      <c r="M88" s="145">
+        <v>0</v>
+      </c>
+      <c r="N88" s="145">
+        <v>0</v>
+      </c>
+      <c r="O88" s="145">
         <v>41.48</v>
       </c>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="144"/>
-      <c r="B89" s="147"/>
+      <c r="A89" s="156"/>
+      <c r="B89" s="152"/>
       <c r="C89" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D89" s="155" t="s">
+      <c r="D89" s="147" t="s">
         <v>124</v>
       </c>
       <c r="E89" s="137">
@@ -9915,41 +9900,41 @@
       <c r="F89" s="138">
         <v>0</v>
       </c>
-      <c r="G89" s="153">
-        <v>0</v>
-      </c>
-      <c r="H89" s="153">
-        <v>0</v>
-      </c>
-      <c r="I89" s="161">
+      <c r="G89" s="145">
+        <v>0</v>
+      </c>
+      <c r="H89" s="145">
+        <v>0</v>
+      </c>
+      <c r="I89" s="145">
         <v>5.0599999999999996</v>
       </c>
-      <c r="J89" s="161">
-        <v>0</v>
-      </c>
-      <c r="K89" s="161">
-        <v>0</v>
-      </c>
-      <c r="L89" s="161">
-        <v>0</v>
-      </c>
-      <c r="M89" s="161">
-        <v>0</v>
-      </c>
-      <c r="N89" s="161">
-        <v>0</v>
-      </c>
-      <c r="O89" s="153">
+      <c r="J89" s="145">
+        <v>0</v>
+      </c>
+      <c r="K89" s="145">
+        <v>0</v>
+      </c>
+      <c r="L89" s="145">
+        <v>0</v>
+      </c>
+      <c r="M89" s="145">
+        <v>0</v>
+      </c>
+      <c r="N89" s="145">
+        <v>0</v>
+      </c>
+      <c r="O89" s="145">
         <v>31.69</v>
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="144"/>
-      <c r="B90" s="147"/>
+      <c r="A90" s="156"/>
+      <c r="B90" s="152"/>
       <c r="C90" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D90" s="155" t="s">
+      <c r="D90" s="147" t="s">
         <v>125</v>
       </c>
       <c r="E90" s="137">
@@ -9958,41 +9943,41 @@
       <c r="F90" s="138">
         <v>0</v>
       </c>
-      <c r="G90" s="153">
-        <v>0</v>
-      </c>
-      <c r="H90" s="153">
-        <v>0</v>
-      </c>
-      <c r="I90" s="161">
+      <c r="G90" s="145">
+        <v>0</v>
+      </c>
+      <c r="H90" s="145">
+        <v>0</v>
+      </c>
+      <c r="I90" s="145">
         <v>5.24</v>
       </c>
-      <c r="J90" s="161">
-        <v>0</v>
-      </c>
-      <c r="K90" s="161">
-        <v>0</v>
-      </c>
-      <c r="L90" s="161">
-        <v>0</v>
-      </c>
-      <c r="M90" s="161">
-        <v>0</v>
-      </c>
-      <c r="N90" s="161">
-        <v>0</v>
-      </c>
-      <c r="O90" s="153">
+      <c r="J90" s="145">
+        <v>0</v>
+      </c>
+      <c r="K90" s="145">
+        <v>0</v>
+      </c>
+      <c r="L90" s="145">
+        <v>0</v>
+      </c>
+      <c r="M90" s="145">
+        <v>0</v>
+      </c>
+      <c r="N90" s="145">
+        <v>0</v>
+      </c>
+      <c r="O90" s="145">
         <v>32.840000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="145"/>
-      <c r="B91" s="148"/>
+      <c r="A91" s="157"/>
+      <c r="B91" s="153"/>
       <c r="C91" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="D91" s="155" t="s">
+      <c r="D91" s="147" t="s">
         <v>126</v>
       </c>
       <c r="E91" s="137">
@@ -10001,126 +9986,126 @@
       <c r="F91" s="138">
         <v>0</v>
       </c>
-      <c r="G91" s="153">
-        <v>0</v>
-      </c>
-      <c r="H91" s="153">
-        <v>0</v>
-      </c>
-      <c r="I91" s="161">
-        <v>0</v>
-      </c>
-      <c r="J91" s="161">
-        <v>0</v>
-      </c>
-      <c r="K91" s="161">
-        <v>0</v>
-      </c>
-      <c r="L91" s="161">
-        <v>0</v>
-      </c>
-      <c r="M91" s="161">
-        <v>0</v>
-      </c>
-      <c r="N91" s="161">
-        <v>0</v>
-      </c>
-      <c r="O91" s="153">
+      <c r="G91" s="145">
+        <v>0</v>
+      </c>
+      <c r="H91" s="145">
+        <v>0</v>
+      </c>
+      <c r="I91" s="145">
+        <v>0</v>
+      </c>
+      <c r="J91" s="145">
+        <v>0</v>
+      </c>
+      <c r="K91" s="145">
+        <v>0</v>
+      </c>
+      <c r="L91" s="145">
+        <v>0</v>
+      </c>
+      <c r="M91" s="145">
+        <v>0</v>
+      </c>
+      <c r="N91" s="145">
+        <v>0</v>
+      </c>
+      <c r="O91" s="145">
         <v>22.47</v>
       </c>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="143" t="s">
+      <c r="A92" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="146" t="s">
+      <c r="B92" s="151" t="s">
         <v>66</v>
       </c>
       <c r="C92" s="132">
         <v>5.04E-2</v>
       </c>
-      <c r="D92" s="154" t="s">
+      <c r="D92" s="146" t="s">
         <v>127</v>
       </c>
       <c r="E92" s="134">
         <v>0.91</v>
       </c>
-      <c r="F92" s="151">
-        <v>0</v>
-      </c>
-      <c r="G92" s="152">
+      <c r="F92" s="143">
+        <v>0</v>
+      </c>
+      <c r="G92" s="144">
         <v>35.880000000000003</v>
       </c>
-      <c r="H92" s="152">
-        <v>0</v>
-      </c>
-      <c r="I92" s="162">
-        <v>0</v>
-      </c>
-      <c r="J92" s="162">
-        <v>0</v>
-      </c>
-      <c r="K92" s="162">
-        <v>0</v>
-      </c>
-      <c r="L92" s="162">
-        <v>0</v>
-      </c>
-      <c r="M92" s="162">
-        <v>0</v>
-      </c>
-      <c r="N92" s="162">
+      <c r="H92" s="144">
+        <v>0</v>
+      </c>
+      <c r="I92" s="144">
+        <v>0</v>
+      </c>
+      <c r="J92" s="144">
+        <v>0</v>
+      </c>
+      <c r="K92" s="144">
+        <v>0</v>
+      </c>
+      <c r="L92" s="144">
+        <v>0</v>
+      </c>
+      <c r="M92" s="144">
+        <v>0</v>
+      </c>
+      <c r="N92" s="144">
         <v>17.54</v>
       </c>
-      <c r="O92" s="152">
+      <c r="O92" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="149"/>
-      <c r="B93" s="150"/>
+      <c r="A93" s="159"/>
+      <c r="B93" s="154"/>
       <c r="C93" s="141">
         <v>5.04E-2</v>
       </c>
-      <c r="D93" s="156" t="s">
+      <c r="D93" s="148" t="s">
         <v>128</v>
       </c>
       <c r="E93" s="142">
         <v>0.71</v>
       </c>
-      <c r="F93" s="157">
-        <v>0</v>
-      </c>
-      <c r="G93" s="158">
+      <c r="F93" s="149">
+        <v>0</v>
+      </c>
+      <c r="G93" s="150">
         <v>27.99</v>
       </c>
-      <c r="H93" s="158">
-        <v>0</v>
-      </c>
-      <c r="I93" s="163">
+      <c r="H93" s="150">
+        <v>0</v>
+      </c>
+      <c r="I93" s="150">
         <v>11.38</v>
       </c>
-      <c r="J93" s="163">
-        <v>0</v>
-      </c>
-      <c r="K93" s="163">
-        <v>0</v>
-      </c>
-      <c r="L93" s="163">
-        <v>0</v>
-      </c>
-      <c r="M93" s="163">
-        <v>0</v>
-      </c>
-      <c r="N93" s="163">
+      <c r="J93" s="150">
+        <v>0</v>
+      </c>
+      <c r="K93" s="150">
+        <v>0</v>
+      </c>
+      <c r="L93" s="150">
+        <v>0</v>
+      </c>
+      <c r="M93" s="150">
+        <v>0</v>
+      </c>
+      <c r="N93" s="150">
         <v>13.68</v>
       </c>
-      <c r="O93" s="158">
+      <c r="O93" s="150">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="159" t="s">
+      <c r="A94" s="158" t="s">
         <v>30</v>
       </c>
       <c r="B94" s="160" t="s">
@@ -10129,7 +10114,7 @@
       <c r="C94" s="135">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D94" s="155" t="s">
+      <c r="D94" s="147" t="s">
         <v>129</v>
       </c>
       <c r="E94" s="137">
@@ -10138,41 +10123,41 @@
       <c r="F94" s="138">
         <v>0</v>
       </c>
-      <c r="G94" s="153">
+      <c r="G94" s="145">
         <v>6.12</v>
       </c>
-      <c r="H94" s="153">
-        <v>0</v>
-      </c>
-      <c r="I94" s="161">
-        <v>0</v>
-      </c>
-      <c r="J94" s="161">
+      <c r="H94" s="145">
+        <v>0</v>
+      </c>
+      <c r="I94" s="145">
+        <v>0</v>
+      </c>
+      <c r="J94" s="145">
         <v>12.69</v>
       </c>
-      <c r="K94" s="161">
-        <v>0</v>
-      </c>
-      <c r="L94" s="161">
-        <v>0</v>
-      </c>
-      <c r="M94" s="161">
-        <v>0</v>
-      </c>
-      <c r="N94" s="161">
-        <v>0</v>
-      </c>
-      <c r="O94" s="153">
+      <c r="K94" s="145">
+        <v>0</v>
+      </c>
+      <c r="L94" s="145">
+        <v>0</v>
+      </c>
+      <c r="M94" s="145">
+        <v>0</v>
+      </c>
+      <c r="N94" s="145">
+        <v>0</v>
+      </c>
+      <c r="O94" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="144"/>
-      <c r="B95" s="147"/>
+      <c r="A95" s="156"/>
+      <c r="B95" s="152"/>
       <c r="C95" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D95" s="155" t="s">
+      <c r="D95" s="147" t="s">
         <v>130</v>
       </c>
       <c r="E95" s="137">
@@ -10181,41 +10166,41 @@
       <c r="F95" s="138">
         <v>0</v>
       </c>
-      <c r="G95" s="153">
+      <c r="G95" s="145">
         <v>5.96</v>
       </c>
-      <c r="H95" s="153">
-        <v>0</v>
-      </c>
-      <c r="I95" s="161">
-        <v>0</v>
-      </c>
-      <c r="J95" s="161">
-        <v>0</v>
-      </c>
-      <c r="K95" s="161">
-        <v>0</v>
-      </c>
-      <c r="L95" s="161">
-        <v>0</v>
-      </c>
-      <c r="M95" s="161">
-        <v>0</v>
-      </c>
-      <c r="N95" s="161">
-        <v>0</v>
-      </c>
-      <c r="O95" s="153">
+      <c r="H95" s="145">
+        <v>0</v>
+      </c>
+      <c r="I95" s="145">
+        <v>0</v>
+      </c>
+      <c r="J95" s="145">
+        <v>0</v>
+      </c>
+      <c r="K95" s="145">
+        <v>0</v>
+      </c>
+      <c r="L95" s="145">
+        <v>0</v>
+      </c>
+      <c r="M95" s="145">
+        <v>0</v>
+      </c>
+      <c r="N95" s="145">
+        <v>0</v>
+      </c>
+      <c r="O95" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="144"/>
-      <c r="B96" s="147"/>
+      <c r="A96" s="156"/>
+      <c r="B96" s="152"/>
       <c r="C96" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D96" s="155" t="s">
+      <c r="D96" s="147" t="s">
         <v>131</v>
       </c>
       <c r="E96" s="137">
@@ -10224,41 +10209,41 @@
       <c r="F96" s="138">
         <v>0</v>
       </c>
-      <c r="G96" s="153">
+      <c r="G96" s="145">
         <v>5.89</v>
       </c>
-      <c r="H96" s="153">
-        <v>0</v>
-      </c>
-      <c r="I96" s="161">
-        <v>0</v>
-      </c>
-      <c r="J96" s="161">
-        <v>0</v>
-      </c>
-      <c r="K96" s="161">
-        <v>0</v>
-      </c>
-      <c r="L96" s="161">
-        <v>0</v>
-      </c>
-      <c r="M96" s="161">
-        <v>0</v>
-      </c>
-      <c r="N96" s="161">
-        <v>0</v>
-      </c>
-      <c r="O96" s="153">
+      <c r="H96" s="145">
+        <v>0</v>
+      </c>
+      <c r="I96" s="145">
+        <v>0</v>
+      </c>
+      <c r="J96" s="145">
+        <v>0</v>
+      </c>
+      <c r="K96" s="145">
+        <v>0</v>
+      </c>
+      <c r="L96" s="145">
+        <v>0</v>
+      </c>
+      <c r="M96" s="145">
+        <v>0</v>
+      </c>
+      <c r="N96" s="145">
+        <v>0</v>
+      </c>
+      <c r="O96" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="144"/>
-      <c r="B97" s="147"/>
+      <c r="A97" s="156"/>
+      <c r="B97" s="152"/>
       <c r="C97" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D97" s="155" t="s">
+      <c r="D97" s="147" t="s">
         <v>132</v>
       </c>
       <c r="E97" s="137">
@@ -10267,41 +10252,41 @@
       <c r="F97" s="138">
         <v>0</v>
       </c>
-      <c r="G97" s="153">
+      <c r="G97" s="145">
         <v>5.66</v>
       </c>
-      <c r="H97" s="153">
-        <v>0</v>
-      </c>
-      <c r="I97" s="161">
-        <v>0</v>
-      </c>
-      <c r="J97" s="161">
-        <v>0</v>
-      </c>
-      <c r="K97" s="161">
-        <v>0</v>
-      </c>
-      <c r="L97" s="161">
-        <v>0</v>
-      </c>
-      <c r="M97" s="161">
+      <c r="H97" s="145">
+        <v>0</v>
+      </c>
+      <c r="I97" s="145">
+        <v>0</v>
+      </c>
+      <c r="J97" s="145">
+        <v>0</v>
+      </c>
+      <c r="K97" s="145">
+        <v>0</v>
+      </c>
+      <c r="L97" s="145">
+        <v>0</v>
+      </c>
+      <c r="M97" s="145">
         <v>8.06</v>
       </c>
-      <c r="N97" s="161">
-        <v>0</v>
-      </c>
-      <c r="O97" s="153">
+      <c r="N97" s="145">
+        <v>0</v>
+      </c>
+      <c r="O97" s="145">
         <v>29.57</v>
       </c>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="144"/>
-      <c r="B98" s="147"/>
+      <c r="A98" s="156"/>
+      <c r="B98" s="152"/>
       <c r="C98" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D98" s="155" t="s">
+      <c r="D98" s="147" t="s">
         <v>133</v>
       </c>
       <c r="E98" s="137">
@@ -10310,41 +10295,41 @@
       <c r="F98" s="138">
         <v>0</v>
       </c>
-      <c r="G98" s="153">
+      <c r="G98" s="145">
         <v>5.66</v>
       </c>
-      <c r="H98" s="153">
-        <v>0</v>
-      </c>
-      <c r="I98" s="161">
-        <v>0</v>
-      </c>
-      <c r="J98" s="161">
-        <v>0</v>
-      </c>
-      <c r="K98" s="161">
-        <v>0</v>
-      </c>
-      <c r="L98" s="161">
-        <v>0</v>
-      </c>
-      <c r="M98" s="161">
-        <v>0</v>
-      </c>
-      <c r="N98" s="161">
-        <v>0</v>
-      </c>
-      <c r="O98" s="153">
+      <c r="H98" s="145">
+        <v>0</v>
+      </c>
+      <c r="I98" s="145">
+        <v>0</v>
+      </c>
+      <c r="J98" s="145">
+        <v>0</v>
+      </c>
+      <c r="K98" s="145">
+        <v>0</v>
+      </c>
+      <c r="L98" s="145">
+        <v>0</v>
+      </c>
+      <c r="M98" s="145">
+        <v>0</v>
+      </c>
+      <c r="N98" s="145">
+        <v>0</v>
+      </c>
+      <c r="O98" s="145">
         <v>29.57</v>
       </c>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="144"/>
-      <c r="B99" s="147"/>
+      <c r="A99" s="156"/>
+      <c r="B99" s="152"/>
       <c r="C99" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D99" s="155" t="s">
+      <c r="D99" s="147" t="s">
         <v>134</v>
       </c>
       <c r="E99" s="137">
@@ -10353,41 +10338,41 @@
       <c r="F99" s="138">
         <v>0</v>
       </c>
-      <c r="G99" s="153">
+      <c r="G99" s="145">
         <v>5.51</v>
       </c>
-      <c r="H99" s="153">
-        <v>0</v>
-      </c>
-      <c r="I99" s="161">
-        <v>0</v>
-      </c>
-      <c r="J99" s="161">
-        <v>0</v>
-      </c>
-      <c r="K99" s="161">
-        <v>0</v>
-      </c>
-      <c r="L99" s="161">
-        <v>0</v>
-      </c>
-      <c r="M99" s="161">
-        <v>0</v>
-      </c>
-      <c r="N99" s="161">
-        <v>0</v>
-      </c>
-      <c r="O99" s="153">
+      <c r="H99" s="145">
+        <v>0</v>
+      </c>
+      <c r="I99" s="145">
+        <v>0</v>
+      </c>
+      <c r="J99" s="145">
+        <v>0</v>
+      </c>
+      <c r="K99" s="145">
+        <v>0</v>
+      </c>
+      <c r="L99" s="145">
+        <v>0</v>
+      </c>
+      <c r="M99" s="145">
+        <v>0</v>
+      </c>
+      <c r="N99" s="145">
+        <v>0</v>
+      </c>
+      <c r="O99" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="144"/>
-      <c r="B100" s="147"/>
+      <c r="A100" s="156"/>
+      <c r="B100" s="152"/>
       <c r="C100" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D100" s="155" t="s">
+      <c r="D100" s="147" t="s">
         <v>135</v>
       </c>
       <c r="E100" s="137">
@@ -10396,41 +10381,41 @@
       <c r="F100" s="138">
         <v>0</v>
       </c>
-      <c r="G100" s="153">
-        <v>0</v>
-      </c>
-      <c r="H100" s="153">
-        <v>0</v>
-      </c>
-      <c r="I100" s="161">
+      <c r="G100" s="145">
+        <v>0</v>
+      </c>
+      <c r="H100" s="145">
+        <v>0</v>
+      </c>
+      <c r="I100" s="145">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J100" s="161">
+      <c r="J100" s="145">
         <v>11.1</v>
       </c>
-      <c r="K100" s="161">
-        <v>0</v>
-      </c>
-      <c r="L100" s="161">
-        <v>0</v>
-      </c>
-      <c r="M100" s="161">
+      <c r="K100" s="145">
+        <v>0</v>
+      </c>
+      <c r="L100" s="145">
+        <v>0</v>
+      </c>
+      <c r="M100" s="145">
         <v>7.63</v>
       </c>
-      <c r="N100" s="161">
-        <v>0</v>
-      </c>
-      <c r="O100" s="153">
+      <c r="N100" s="145">
+        <v>0</v>
+      </c>
+      <c r="O100" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="145"/>
-      <c r="B101" s="148"/>
+      <c r="A101" s="157"/>
+      <c r="B101" s="153"/>
       <c r="C101" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D101" s="155" t="s">
+      <c r="D101" s="147" t="s">
         <v>136</v>
       </c>
       <c r="E101" s="137">
@@ -10439,88 +10424,88 @@
       <c r="F101" s="138">
         <v>0</v>
       </c>
-      <c r="G101" s="153">
-        <v>0</v>
-      </c>
-      <c r="H101" s="153">
-        <v>0</v>
-      </c>
-      <c r="I101" s="161">
+      <c r="G101" s="145">
+        <v>0</v>
+      </c>
+      <c r="H101" s="145">
+        <v>0</v>
+      </c>
+      <c r="I101" s="145">
         <v>7.09</v>
       </c>
-      <c r="J101" s="161">
+      <c r="J101" s="145">
         <v>9.0399999999999991</v>
       </c>
-      <c r="K101" s="161">
-        <v>0</v>
-      </c>
-      <c r="L101" s="161">
-        <v>0</v>
-      </c>
-      <c r="M101" s="161">
+      <c r="K101" s="145">
+        <v>0</v>
+      </c>
+      <c r="L101" s="145">
+        <v>0</v>
+      </c>
+      <c r="M101" s="145">
         <v>6.21</v>
       </c>
-      <c r="N101" s="161">
-        <v>0</v>
-      </c>
-      <c r="O101" s="153">
+      <c r="N101" s="145">
+        <v>0</v>
+      </c>
+      <c r="O101" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="143" t="s">
+      <c r="A102" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="B102" s="146" t="s">
+      <c r="B102" s="151" t="s">
         <v>88</v>
       </c>
       <c r="C102" s="132">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D102" s="154" t="s">
+      <c r="D102" s="146" t="s">
         <v>137</v>
       </c>
       <c r="E102" s="134">
         <v>0.76</v>
       </c>
-      <c r="F102" s="151">
-        <v>0</v>
-      </c>
-      <c r="G102" s="152">
-        <v>0</v>
-      </c>
-      <c r="H102" s="152">
-        <v>0</v>
-      </c>
-      <c r="I102" s="162">
-        <v>0</v>
-      </c>
-      <c r="J102" s="162">
+      <c r="F102" s="143">
+        <v>0</v>
+      </c>
+      <c r="G102" s="144">
+        <v>0</v>
+      </c>
+      <c r="H102" s="144">
+        <v>0</v>
+      </c>
+      <c r="I102" s="144">
+        <v>0</v>
+      </c>
+      <c r="J102" s="144">
         <v>13.05</v>
       </c>
-      <c r="K102" s="162">
-        <v>0</v>
-      </c>
-      <c r="L102" s="162">
+      <c r="K102" s="144">
+        <v>0</v>
+      </c>
+      <c r="L102" s="144">
         <v>4.4400000000000004</v>
       </c>
-      <c r="M102" s="162">
-        <v>0</v>
-      </c>
-      <c r="N102" s="162">
+      <c r="M102" s="144">
+        <v>0</v>
+      </c>
+      <c r="N102" s="144">
         <v>5.29</v>
       </c>
-      <c r="O102" s="152">
+      <c r="O102" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="144"/>
-      <c r="B103" s="147"/>
+      <c r="A103" s="156"/>
+      <c r="B103" s="152"/>
       <c r="C103" s="140">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D103" s="155" t="s">
+      <c r="D103" s="147" t="s">
         <v>138</v>
       </c>
       <c r="E103" s="137">
@@ -10529,41 +10514,41 @@
       <c r="F103" s="138">
         <v>0</v>
       </c>
-      <c r="G103" s="153">
-        <v>0</v>
-      </c>
-      <c r="H103" s="153">
-        <v>0</v>
-      </c>
-      <c r="I103" s="161">
-        <v>0</v>
-      </c>
-      <c r="J103" s="161">
-        <v>0</v>
-      </c>
-      <c r="K103" s="161">
-        <v>0</v>
-      </c>
-      <c r="L103" s="161">
-        <v>0</v>
-      </c>
-      <c r="M103" s="161">
-        <v>0</v>
-      </c>
-      <c r="N103" s="161">
+      <c r="G103" s="145">
+        <v>0</v>
+      </c>
+      <c r="H103" s="145">
+        <v>0</v>
+      </c>
+      <c r="I103" s="145">
+        <v>0</v>
+      </c>
+      <c r="J103" s="145">
+        <v>0</v>
+      </c>
+      <c r="K103" s="145">
+        <v>0</v>
+      </c>
+      <c r="L103" s="145">
+        <v>0</v>
+      </c>
+      <c r="M103" s="145">
+        <v>0</v>
+      </c>
+      <c r="N103" s="145">
         <v>5.08</v>
       </c>
-      <c r="O103" s="153">
+      <c r="O103" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="149"/>
-      <c r="B104" s="150"/>
+      <c r="A104" s="159"/>
+      <c r="B104" s="154"/>
       <c r="C104" s="140">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D104" s="155" t="s">
+      <c r="D104" s="147" t="s">
         <v>139</v>
       </c>
       <c r="E104" s="137">
@@ -10572,36 +10557,62 @@
       <c r="F104" s="138">
         <v>0</v>
       </c>
-      <c r="G104" s="153">
-        <v>0</v>
-      </c>
-      <c r="H104" s="153">
-        <v>0</v>
-      </c>
-      <c r="I104" s="161">
-        <v>0</v>
-      </c>
-      <c r="J104" s="161">
-        <v>0</v>
-      </c>
-      <c r="K104" s="161">
-        <v>0</v>
-      </c>
-      <c r="L104" s="161">
-        <v>0</v>
-      </c>
-      <c r="M104" s="161">
-        <v>0</v>
-      </c>
-      <c r="N104" s="161">
+      <c r="G104" s="145">
+        <v>0</v>
+      </c>
+      <c r="H104" s="145">
+        <v>0</v>
+      </c>
+      <c r="I104" s="145">
+        <v>0</v>
+      </c>
+      <c r="J104" s="145">
+        <v>0</v>
+      </c>
+      <c r="K104" s="145">
+        <v>0</v>
+      </c>
+      <c r="L104" s="145">
+        <v>0</v>
+      </c>
+      <c r="M104" s="145">
+        <v>0</v>
+      </c>
+      <c r="N104" s="145">
         <v>4.3899999999999997</v>
       </c>
-      <c r="O104" s="153">
+      <c r="O104" s="145">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A92:A93"/>
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="B70:B76"/>
     <mergeCell ref="B77:B81"/>
@@ -10618,32 +10629,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B54:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UVA模型数据底表.xlsx
+++ b/UVA模型数据底表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob.li/Documents/ROI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF4ED67-9450-CE48-B15E-9C97B3AD5123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6F8244-6598-0E44-9CDF-4BD2737B7684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵（副本）" sheetId="2" state="hidden" r:id="rId1"/>
@@ -2980,18 +2980,6 @@
     <xf numFmtId="0" fontId="8" fillId="84" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="84" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3001,14 +2989,26 @@
     <xf numFmtId="0" fontId="6" fillId="84" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="84" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="84" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6013,8 +6013,8 @@
   </sheetPr>
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -6073,10 +6073,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="154" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="132">
@@ -6120,8 +6120,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="156"/>
-      <c r="B3" s="152"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6163,8 +6163,8 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="156"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6206,8 +6206,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="156"/>
-      <c r="B5" s="152"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6249,8 +6249,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="156"/>
-      <c r="B6" s="152"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6292,8 +6292,8 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="156"/>
-      <c r="B7" s="152"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6335,8 +6335,8 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="156"/>
-      <c r="B8" s="152"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6378,8 +6378,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="156"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="152"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6421,8 +6421,8 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="156"/>
-      <c r="B10" s="152"/>
+      <c r="A10" s="152"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6464,8 +6464,8 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="156"/>
-      <c r="B11" s="152"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6507,8 +6507,8 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="157"/>
-      <c r="B12" s="153"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="135">
         <v>6.5199999999999994E-2</v>
       </c>
@@ -6550,10 +6550,10 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="154" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="132">
@@ -6597,8 +6597,8 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="156"/>
-      <c r="B14" s="152"/>
+      <c r="A14" s="152"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="140">
         <v>5.1799999999999999E-2</v>
       </c>
@@ -6640,8 +6640,8 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="157"/>
-      <c r="B15" s="153"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="140">
         <v>5.1799999999999999E-2</v>
       </c>
@@ -6683,10 +6683,10 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="154" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="132">
@@ -6730,8 +6730,8 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="156"/>
-      <c r="B17" s="152"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6773,8 +6773,8 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="156"/>
-      <c r="B18" s="152"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6816,8 +6816,8 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="156"/>
-      <c r="B19" s="152"/>
+      <c r="A19" s="152"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6859,8 +6859,8 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="156"/>
-      <c r="B20" s="152"/>
+      <c r="A20" s="152"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6902,8 +6902,8 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="156"/>
-      <c r="B21" s="152"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="155"/>
       <c r="C21" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6945,8 +6945,8 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="157"/>
-      <c r="B22" s="153"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="140">
         <v>5.4600000000000003E-2</v>
       </c>
@@ -6988,10 +6988,10 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="155" t="s">
+      <c r="A23" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="154" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="132">
@@ -7035,8 +7035,8 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="156"/>
-      <c r="B24" s="152"/>
+      <c r="A24" s="152"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="140">
         <v>2.7300000000000001E-2</v>
       </c>
@@ -7078,8 +7078,8 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="157"/>
-      <c r="B25" s="153"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="140">
         <v>2.7300000000000001E-2</v>
       </c>
@@ -7121,10 +7121,10 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="154" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="132">
@@ -7168,8 +7168,8 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="157"/>
-      <c r="B27" s="153"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="156"/>
       <c r="C27" s="140">
         <v>6.5600000000000006E-2</v>
       </c>
@@ -7211,10 +7211,10 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="154" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="132">
@@ -7258,8 +7258,8 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="156"/>
-      <c r="B29" s="152"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7301,8 +7301,8 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="156"/>
-      <c r="B30" s="152"/>
+      <c r="A30" s="152"/>
+      <c r="B30" s="155"/>
       <c r="C30" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7344,8 +7344,8 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="156"/>
-      <c r="B31" s="152"/>
+      <c r="A31" s="152"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7387,8 +7387,8 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="156"/>
-      <c r="B32" s="152"/>
+      <c r="A32" s="152"/>
+      <c r="B32" s="155"/>
       <c r="C32" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7430,8 +7430,8 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="156"/>
-      <c r="B33" s="152"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7473,8 +7473,8 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="156"/>
-      <c r="B34" s="152"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="155"/>
       <c r="C34" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7516,8 +7516,8 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="157"/>
-      <c r="B35" s="153"/>
+      <c r="A35" s="153"/>
+      <c r="B35" s="156"/>
       <c r="C35" s="140">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -7559,10 +7559,10 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="154" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="132">
@@ -7606,8 +7606,8 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="156"/>
-      <c r="B37" s="152"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="155"/>
       <c r="C37" s="140">
         <v>3.6200000000000003E-2</v>
       </c>
@@ -7649,8 +7649,8 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="157"/>
-      <c r="B38" s="153"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="156"/>
       <c r="C38" s="140">
         <v>3.6200000000000003E-2</v>
       </c>
@@ -7692,10 +7692,10 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="155" t="s">
+      <c r="A39" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="154" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="132">
@@ -7739,8 +7739,8 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="156"/>
-      <c r="B40" s="152"/>
+      <c r="A40" s="152"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="140">
         <v>2.47E-2</v>
       </c>
@@ -7782,8 +7782,8 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="157"/>
-      <c r="B41" s="153"/>
+      <c r="A41" s="153"/>
+      <c r="B41" s="156"/>
       <c r="C41" s="140">
         <v>2.47E-2</v>
       </c>
@@ -7825,10 +7825,10 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="151" t="s">
+      <c r="B42" s="154" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="132">
@@ -7872,8 +7872,8 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="156"/>
-      <c r="B43" s="152"/>
+      <c r="A43" s="152"/>
+      <c r="B43" s="155"/>
       <c r="C43" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
@@ -7915,8 +7915,8 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="156"/>
-      <c r="B44" s="152"/>
+      <c r="A44" s="152"/>
+      <c r="B44" s="155"/>
       <c r="C44" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
@@ -7958,8 +7958,8 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="156"/>
-      <c r="B45" s="152"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="155"/>
       <c r="C45" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
@@ -8001,8 +8001,8 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="157"/>
-      <c r="B46" s="153"/>
+      <c r="A46" s="153"/>
+      <c r="B46" s="156"/>
       <c r="C46" s="140">
         <v>4.4299999999999999E-2</v>
       </c>
@@ -8044,10 +8044,10 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="155" t="s">
+      <c r="A47" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="151" t="s">
+      <c r="B47" s="154" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="132">
@@ -8091,8 +8091,8 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="156"/>
-      <c r="B48" s="152"/>
+      <c r="A48" s="152"/>
+      <c r="B48" s="155"/>
       <c r="C48" s="140">
         <v>3.2800000000000003E-2</v>
       </c>
@@ -8134,8 +8134,8 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="157"/>
-      <c r="B49" s="153"/>
+      <c r="A49" s="153"/>
+      <c r="B49" s="156"/>
       <c r="C49" s="140">
         <v>3.2800000000000003E-2</v>
       </c>
@@ -8177,10 +8177,10 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="155" t="s">
+      <c r="A50" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="151" t="s">
+      <c r="B50" s="154" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="132">
@@ -8224,8 +8224,8 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="156"/>
-      <c r="B51" s="152"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="155"/>
       <c r="C51" s="140">
         <v>1.72E-2</v>
       </c>
@@ -8267,8 +8267,8 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="156"/>
-      <c r="B52" s="152"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="155"/>
       <c r="C52" s="140">
         <v>1.72E-2</v>
       </c>
@@ -8310,8 +8310,8 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="157"/>
-      <c r="B53" s="153"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="156"/>
       <c r="C53" s="140">
         <v>1.72E-2</v>
       </c>
@@ -8353,10 +8353,10 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="155" t="s">
+      <c r="A54" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="151" t="s">
+      <c r="B54" s="154" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="132">
@@ -8400,8 +8400,8 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="156"/>
-      <c r="B55" s="152"/>
+      <c r="A55" s="152"/>
+      <c r="B55" s="155"/>
       <c r="C55" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
@@ -8443,8 +8443,8 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="156"/>
-      <c r="B56" s="152"/>
+      <c r="A56" s="152"/>
+      <c r="B56" s="155"/>
       <c r="C56" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
@@ -8486,8 +8486,8 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="156"/>
-      <c r="B57" s="152"/>
+      <c r="A57" s="152"/>
+      <c r="B57" s="155"/>
       <c r="C57" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
@@ -8529,8 +8529,8 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="156"/>
-      <c r="B58" s="152"/>
+      <c r="A58" s="152"/>
+      <c r="B58" s="155"/>
       <c r="C58" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
@@ -8572,8 +8572,8 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="156"/>
-      <c r="B59" s="152"/>
+      <c r="A59" s="152"/>
+      <c r="B59" s="155"/>
       <c r="C59" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
@@ -8615,8 +8615,8 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="157"/>
-      <c r="B60" s="153"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="156"/>
       <c r="C60" s="140">
         <v>5.9400000000000001E-2</v>
       </c>
@@ -8658,10 +8658,10 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="155" t="s">
+      <c r="A61" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="151" t="s">
+      <c r="B61" s="154" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="132">
@@ -8705,8 +8705,8 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="156"/>
-      <c r="B62" s="152"/>
+      <c r="A62" s="152"/>
+      <c r="B62" s="155"/>
       <c r="C62" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
@@ -8748,8 +8748,8 @@
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="156"/>
-      <c r="B63" s="152"/>
+      <c r="A63" s="152"/>
+      <c r="B63" s="155"/>
       <c r="C63" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
@@ -8791,8 +8791,8 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="156"/>
-      <c r="B64" s="152"/>
+      <c r="A64" s="152"/>
+      <c r="B64" s="155"/>
       <c r="C64" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
@@ -8834,8 +8834,8 @@
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="157"/>
-      <c r="B65" s="153"/>
+      <c r="A65" s="153"/>
+      <c r="B65" s="156"/>
       <c r="C65" s="140">
         <v>7.3400000000000007E-2</v>
       </c>
@@ -8877,10 +8877,10 @@
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="155" t="s">
+      <c r="A66" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="151" t="s">
+      <c r="B66" s="154" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="132">
@@ -8924,8 +8924,8 @@
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="156"/>
-      <c r="B67" s="152"/>
+      <c r="A67" s="152"/>
+      <c r="B67" s="155"/>
       <c r="C67" s="140">
         <v>6.6600000000000006E-2</v>
       </c>
@@ -8967,8 +8967,8 @@
       </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="156"/>
-      <c r="B68" s="152"/>
+      <c r="A68" s="152"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="140">
         <v>6.6600000000000006E-2</v>
       </c>
@@ -9010,8 +9010,8 @@
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="157"/>
-      <c r="B69" s="153"/>
+      <c r="A69" s="153"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="140">
         <v>6.6600000000000006E-2</v>
       </c>
@@ -9053,10 +9053,10 @@
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="155" t="s">
+      <c r="A70" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="151" t="s">
+      <c r="B70" s="154" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="132">
@@ -9100,8 +9100,8 @@
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="156"/>
-      <c r="B71" s="152"/>
+      <c r="A71" s="152"/>
+      <c r="B71" s="155"/>
       <c r="C71" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
@@ -9143,8 +9143,8 @@
       </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="156"/>
-      <c r="B72" s="152"/>
+      <c r="A72" s="152"/>
+      <c r="B72" s="155"/>
       <c r="C72" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
@@ -9186,8 +9186,8 @@
       </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="156"/>
-      <c r="B73" s="152"/>
+      <c r="A73" s="152"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
@@ -9229,8 +9229,8 @@
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="156"/>
-      <c r="B74" s="152"/>
+      <c r="A74" s="152"/>
+      <c r="B74" s="155"/>
       <c r="C74" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
@@ -9272,8 +9272,8 @@
       </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="156"/>
-      <c r="B75" s="152"/>
+      <c r="A75" s="152"/>
+      <c r="B75" s="155"/>
       <c r="C75" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
@@ -9315,8 +9315,8 @@
       </c>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="157"/>
-      <c r="B76" s="153"/>
+      <c r="A76" s="153"/>
+      <c r="B76" s="156"/>
       <c r="C76" s="140">
         <v>6.7199999999999996E-2</v>
       </c>
@@ -9358,10 +9358,10 @@
       </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="155" t="s">
+      <c r="A77" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="154" t="s">
         <v>88</v>
       </c>
       <c r="C77" s="132">
@@ -9405,8 +9405,8 @@
       </c>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="156"/>
-      <c r="B78" s="152"/>
+      <c r="A78" s="152"/>
+      <c r="B78" s="155"/>
       <c r="C78" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
@@ -9448,8 +9448,8 @@
       </c>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="156"/>
-      <c r="B79" s="152"/>
+      <c r="A79" s="152"/>
+      <c r="B79" s="155"/>
       <c r="C79" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
@@ -9491,8 +9491,8 @@
       </c>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="156"/>
-      <c r="B80" s="152"/>
+      <c r="A80" s="152"/>
+      <c r="B80" s="155"/>
       <c r="C80" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
@@ -9534,8 +9534,8 @@
       </c>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="157"/>
-      <c r="B81" s="153"/>
+      <c r="A81" s="153"/>
+      <c r="B81" s="156"/>
       <c r="C81" s="140">
         <v>3.9800000000000002E-2</v>
       </c>
@@ -9577,10 +9577,10 @@
       </c>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="155" t="s">
+      <c r="A82" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="151" t="s">
+      <c r="B82" s="154" t="s">
         <v>66</v>
       </c>
       <c r="C82" s="132">
@@ -9624,8 +9624,8 @@
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="156"/>
-      <c r="B83" s="152"/>
+      <c r="A83" s="152"/>
+      <c r="B83" s="155"/>
       <c r="C83" s="140">
         <v>6.0699999999999997E-2</v>
       </c>
@@ -9667,8 +9667,8 @@
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="157"/>
-      <c r="B84" s="153"/>
+      <c r="A84" s="153"/>
+      <c r="B84" s="156"/>
       <c r="C84" s="140">
         <v>6.0699999999999997E-2</v>
       </c>
@@ -9710,10 +9710,10 @@
       </c>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="155" t="s">
+      <c r="A85" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="151" t="s">
+      <c r="B85" s="154" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="132">
@@ -9757,8 +9757,8 @@
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="156"/>
-      <c r="B86" s="152"/>
+      <c r="A86" s="152"/>
+      <c r="B86" s="155"/>
       <c r="C86" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
@@ -9800,8 +9800,8 @@
       </c>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="156"/>
-      <c r="B87" s="152"/>
+      <c r="A87" s="152"/>
+      <c r="B87" s="155"/>
       <c r="C87" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
@@ -9843,8 +9843,8 @@
       </c>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="156"/>
-      <c r="B88" s="152"/>
+      <c r="A88" s="152"/>
+      <c r="B88" s="155"/>
       <c r="C88" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
@@ -9886,8 +9886,8 @@
       </c>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="156"/>
-      <c r="B89" s="152"/>
+      <c r="A89" s="152"/>
+      <c r="B89" s="155"/>
       <c r="C89" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
@@ -9929,8 +9929,8 @@
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="156"/>
-      <c r="B90" s="152"/>
+      <c r="A90" s="152"/>
+      <c r="B90" s="155"/>
       <c r="C90" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
@@ -9972,8 +9972,8 @@
       </c>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="157"/>
-      <c r="B91" s="153"/>
+      <c r="A91" s="153"/>
+      <c r="B91" s="156"/>
       <c r="C91" s="140">
         <v>4.3400000000000001E-2</v>
       </c>
@@ -10015,10 +10015,10 @@
       </c>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="155" t="s">
+      <c r="A92" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="151" t="s">
+      <c r="B92" s="154" t="s">
         <v>66</v>
       </c>
       <c r="C92" s="132">
@@ -10062,8 +10062,8 @@
       </c>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="159"/>
-      <c r="B93" s="154"/>
+      <c r="A93" s="160"/>
+      <c r="B93" s="158"/>
       <c r="C93" s="141">
         <v>5.04E-2</v>
       </c>
@@ -10105,10 +10105,10 @@
       </c>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="158" t="s">
+      <c r="A94" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="B94" s="160" t="s">
+      <c r="B94" s="157" t="s">
         <v>66</v>
       </c>
       <c r="C94" s="135">
@@ -10152,8 +10152,8 @@
       </c>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="156"/>
-      <c r="B95" s="152"/>
+      <c r="A95" s="152"/>
+      <c r="B95" s="155"/>
       <c r="C95" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
@@ -10195,8 +10195,8 @@
       </c>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="156"/>
-      <c r="B96" s="152"/>
+      <c r="A96" s="152"/>
+      <c r="B96" s="155"/>
       <c r="C96" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
@@ -10238,8 +10238,8 @@
       </c>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="156"/>
-      <c r="B97" s="152"/>
+      <c r="A97" s="152"/>
+      <c r="B97" s="155"/>
       <c r="C97" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
@@ -10281,8 +10281,8 @@
       </c>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="156"/>
-      <c r="B98" s="152"/>
+      <c r="A98" s="152"/>
+      <c r="B98" s="155"/>
       <c r="C98" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
@@ -10324,8 +10324,8 @@
       </c>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="156"/>
-      <c r="B99" s="152"/>
+      <c r="A99" s="152"/>
+      <c r="B99" s="155"/>
       <c r="C99" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
@@ -10367,8 +10367,8 @@
       </c>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="156"/>
-      <c r="B100" s="152"/>
+      <c r="A100" s="152"/>
+      <c r="B100" s="155"/>
       <c r="C100" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
@@ -10410,8 +10410,8 @@
       </c>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="157"/>
-      <c r="B101" s="153"/>
+      <c r="A101" s="153"/>
+      <c r="B101" s="156"/>
       <c r="C101" s="140">
         <v>3.9100000000000003E-2</v>
       </c>
@@ -10453,10 +10453,10 @@
       </c>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="155" t="s">
+      <c r="A102" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="B102" s="151" t="s">
+      <c r="B102" s="154" t="s">
         <v>88</v>
       </c>
       <c r="C102" s="132">
@@ -10500,8 +10500,8 @@
       </c>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="156"/>
-      <c r="B103" s="152"/>
+      <c r="A103" s="152"/>
+      <c r="B103" s="155"/>
       <c r="C103" s="140">
         <v>3.0200000000000001E-2</v>
       </c>
@@ -10543,8 +10543,8 @@
       </c>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="159"/>
-      <c r="B104" s="154"/>
+      <c r="A104" s="160"/>
+      <c r="B104" s="158"/>
       <c r="C104" s="140">
         <v>3.0200000000000001E-2</v>
       </c>
@@ -10587,17 +10587,21 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B54:B60"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A61:A65"/>
     <mergeCell ref="B66:B69"/>
@@ -10614,21 +10618,17 @@
     <mergeCell ref="A77:A81"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
